--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilua\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Science\FP-Shocks-Consumption-RU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47309E7B-C67D-4BFD-AE86-EF1C59DAC43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3921F2C-74AB-4773-BB19-05B96E4D170E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,56 +1556,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="12"/>
@@ -1617,11 +1567,61 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="26" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="26" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2180,10 +2180,10 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="107">
+      <c r="A2" s="89">
         <v>37622</v>
       </c>
       <c r="B2" cm="1">
@@ -2255,14 +2255,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="107">
+      <c r="A3" s="89">
         <v>37712</v>
       </c>
       <c r="B3">
         <v>1546.6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C2:C32" si="2">C4*B3/B4</f>
+        <f t="shared" ref="C3:C32" si="2">C4*B3/B4</f>
         <v>1734.1868535124586</v>
       </c>
       <c r="D3">
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="107">
+      <c r="A4" s="89">
         <v>37803</v>
       </c>
       <c r="B4">
@@ -2315,7 +2315,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="89">
         <v>37895</v>
       </c>
       <c r="B5">
@@ -2345,7 +2345,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="89">
         <v>37987</v>
       </c>
       <c r="B6">
@@ -2373,10 +2373,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A6,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>144.06731600000001</v>
       </c>
-      <c r="I6" s="108"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="89">
         <v>38078</v>
       </c>
       <c r="B7">
@@ -2404,10 +2404,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A7,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I7" s="108"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="89">
         <v>38169</v>
       </c>
       <c r="B8">
@@ -2435,10 +2435,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A8,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I8" s="108"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="89">
         <v>38261</v>
       </c>
       <c r="B9">
@@ -2466,10 +2466,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A9,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I9" s="108"/>
+      <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="89">
         <v>38353</v>
       </c>
       <c r="B10">
@@ -2497,10 +2497,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A10,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.51881399999999</v>
       </c>
-      <c r="I10" s="108"/>
+      <c r="I10" s="90"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="107">
+      <c r="A11" s="89">
         <v>38443</v>
       </c>
       <c r="B11">
@@ -2528,10 +2528,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A11,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I11" s="108"/>
+      <c r="I11" s="90"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="89">
         <v>38534</v>
       </c>
       <c r="B12">
@@ -2559,10 +2559,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A12,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I12" s="108"/>
+      <c r="I12" s="90"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="89">
         <v>38626</v>
       </c>
       <c r="B13">
@@ -2590,10 +2590,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A13,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I13" s="108"/>
+      <c r="I13" s="90"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="A14" s="89">
         <v>38718</v>
       </c>
       <c r="B14">
@@ -2621,10 +2621,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A14,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.04963699999999</v>
       </c>
-      <c r="I14" s="108"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="A15" s="89">
         <v>38808</v>
       </c>
       <c r="B15">
@@ -2652,10 +2652,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A15,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I15" s="108"/>
+      <c r="I15" s="90"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="89">
         <v>38899</v>
       </c>
       <c r="B16">
@@ -2683,10 +2683,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A16,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I16" s="108"/>
+      <c r="I16" s="90"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+      <c r="A17" s="89">
         <v>38991</v>
       </c>
       <c r="B17">
@@ -2714,10 +2714,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A17,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I17" s="108"/>
+      <c r="I17" s="90"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+      <c r="A18" s="89">
         <v>39083</v>
       </c>
       <c r="B18">
@@ -2745,10 +2745,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A18,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.805114</v>
       </c>
-      <c r="I18" s="108"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+      <c r="A19" s="89">
         <v>39173</v>
       </c>
       <c r="B19">
@@ -2776,10 +2776,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A19,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I19" s="108"/>
+      <c r="I19" s="90"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+      <c r="A20" s="89">
         <v>39264</v>
       </c>
       <c r="B20">
@@ -2807,10 +2807,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A20,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I20" s="108"/>
+      <c r="I20" s="90"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="107">
+      <c r="A21" s="89">
         <v>39356</v>
       </c>
       <c r="B21">
@@ -2838,10 +2838,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A21,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I21" s="108"/>
+      <c r="I21" s="90"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="107">
+      <c r="A22" s="89">
         <v>39448</v>
       </c>
       <c r="B22">
@@ -2869,10 +2869,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A22,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.742366</v>
       </c>
-      <c r="I22" s="108"/>
+      <c r="I22" s="90"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="107">
+      <c r="A23" s="89">
         <v>39539</v>
       </c>
       <c r="B23">
@@ -2900,10 +2900,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A23,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I23" s="108"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="107">
+      <c r="A24" s="89">
         <v>39630</v>
       </c>
       <c r="B24">
@@ -2931,10 +2931,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A24,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I24" s="108"/>
+      <c r="I24" s="90"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="107">
+      <c r="A25" s="89">
         <v>39722</v>
       </c>
       <c r="B25">
@@ -2962,10 +2962,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A25,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I25" s="108"/>
+      <c r="I25" s="90"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="107">
+      <c r="A26" s="89">
         <v>39814</v>
       </c>
       <c r="B26">
@@ -2993,10 +2993,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A26,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.785348</v>
       </c>
-      <c r="I26" s="108"/>
+      <c r="I26" s="90"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="107">
+      <c r="A27" s="89">
         <v>39904</v>
       </c>
       <c r="B27">
@@ -3024,10 +3024,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A27,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I27" s="108"/>
+      <c r="I27" s="90"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="107">
+      <c r="A28" s="89">
         <v>39995</v>
       </c>
       <c r="B28">
@@ -3055,10 +3055,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A28,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I28" s="108"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="107">
+      <c r="A29" s="89">
         <v>40087</v>
       </c>
       <c r="B29">
@@ -3086,10 +3086,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A29,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I29" s="108"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="107">
+      <c r="A30" s="89">
         <v>40179</v>
       </c>
       <c r="B30">
@@ -3117,10 +3117,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A30,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.849468</v>
       </c>
-      <c r="I30" s="108"/>
+      <c r="I30" s="90"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="107">
+      <c r="A31" s="89">
         <v>40269</v>
       </c>
       <c r="B31">
@@ -3148,10 +3148,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A31,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I31" s="108"/>
+      <c r="I31" s="90"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="107">
+      <c r="A32" s="89">
         <v>40360</v>
       </c>
       <c r="B32">
@@ -3179,10 +3179,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A32,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I32" s="108"/>
+      <c r="I32" s="90"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="107">
+      <c r="A33" s="89">
         <v>40452</v>
       </c>
       <c r="B33">
@@ -3210,10 +3210,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A33,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I33" s="108"/>
+      <c r="I33" s="90"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="107">
+      <c r="A34" s="89">
         <v>40544</v>
       </c>
       <c r="B34">
@@ -3241,10 +3241,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A34,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.01819499999999</v>
       </c>
-      <c r="I34" s="108"/>
+      <c r="I34" s="90"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="107">
+      <c r="A35" s="89">
         <v>40634</v>
       </c>
       <c r="B35">
@@ -3269,10 +3269,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A35,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I35" s="108"/>
+      <c r="I35" s="90"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="107">
+      <c r="A36" s="89">
         <v>40725</v>
       </c>
       <c r="B36">
@@ -3297,10 +3297,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A36,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I36" s="108"/>
+      <c r="I36" s="90"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="107">
+      <c r="A37" s="89">
         <v>40817</v>
       </c>
       <c r="B37">
@@ -3325,10 +3325,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A37,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I37" s="108"/>
+      <c r="I37" s="90"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="107">
+      <c r="A38" s="89">
         <v>40909</v>
       </c>
       <c r="C38">
@@ -3344,10 +3344,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A38,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.37844699999999</v>
       </c>
-      <c r="I38" s="108"/>
+      <c r="I38" s="90"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="107">
+      <c r="A39" s="89">
         <v>41000</v>
       </c>
       <c r="C39">
@@ -3363,10 +3363,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A39,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I39" s="108"/>
+      <c r="I39" s="90"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="107">
+      <c r="A40" s="89">
         <v>41091</v>
       </c>
       <c r="C40">
@@ -3382,10 +3382,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A40,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I40" s="108"/>
+      <c r="I40" s="90"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="107">
+      <c r="A41" s="89">
         <v>41183</v>
       </c>
       <c r="C41">
@@ -3401,10 +3401,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A41,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I41" s="108"/>
+      <c r="I41" s="90"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="107">
+      <c r="A42" s="89">
         <v>41275</v>
       </c>
       <c r="C42">
@@ -3420,10 +3420,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A42,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.80563799999999</v>
       </c>
-      <c r="I42" s="108"/>
+      <c r="I42" s="90"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="107">
+      <c r="A43" s="89">
         <v>41365</v>
       </c>
       <c r="C43">
@@ -3439,10 +3439,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A43,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I43" s="108"/>
+      <c r="I43" s="90"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="107">
+      <c r="A44" s="89">
         <v>41456</v>
       </c>
       <c r="C44">
@@ -3458,10 +3458,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A44,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I44" s="108"/>
+      <c r="I44" s="90"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="107">
+      <c r="A45" s="89">
         <v>41548</v>
       </c>
       <c r="C45">
@@ -3477,10 +3477,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A45,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I45" s="108"/>
+      <c r="I45" s="90"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="107">
+      <c r="A46" s="89">
         <v>41640</v>
       </c>
       <c r="C46">
@@ -3496,10 +3496,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A46,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.50816900000001</v>
       </c>
-      <c r="I46" s="108"/>
+      <c r="I46" s="90"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="107">
+      <c r="A47" s="89">
         <v>41730</v>
       </c>
       <c r="C47">
@@ -3515,10 +3515,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A47,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I47" s="108"/>
+      <c r="I47" s="90"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="107">
+      <c r="A48" s="89">
         <v>41821</v>
       </c>
       <c r="C48">
@@ -3534,10 +3534,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A48,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I48" s="108"/>
+      <c r="I48" s="90"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="107">
+      <c r="A49" s="89">
         <v>41913</v>
       </c>
       <c r="C49">
@@ -3553,10 +3553,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A49,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I49" s="108"/>
+      <c r="I49" s="90"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="107">
+      <c r="A50" s="89">
         <v>42005</v>
       </c>
       <c r="C50">
@@ -3572,10 +3572,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A50,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.96315899999999</v>
       </c>
-      <c r="I50" s="108"/>
+      <c r="I50" s="90"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="107">
+      <c r="A51" s="89">
         <v>42095</v>
       </c>
       <c r="C51">
@@ -3591,10 +3591,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A51,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I51" s="108"/>
+      <c r="I51" s="90"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="107">
+      <c r="A52" s="89">
         <v>42186</v>
       </c>
       <c r="C52">
@@ -3610,10 +3610,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A52,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I52" s="108"/>
+      <c r="I52" s="90"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="107">
+      <c r="A53" s="89">
         <v>42278</v>
       </c>
       <c r="C53">
@@ -3629,10 +3629,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A53,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I53" s="108"/>
+      <c r="I53" s="90"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="107">
+      <c r="A54" s="89">
         <v>42370</v>
       </c>
       <c r="C54">
@@ -3648,10 +3648,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A54,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.381167</v>
       </c>
-      <c r="I54" s="108"/>
+      <c r="I54" s="90"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="107">
+      <c r="A55" s="89">
         <v>42461</v>
       </c>
       <c r="C55">
@@ -3667,10 +3667,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A55,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I55" s="108"/>
+      <c r="I55" s="90"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="107">
+      <c r="A56" s="89">
         <v>42552</v>
       </c>
       <c r="C56">
@@ -3686,10 +3686,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A56,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I56" s="108"/>
+      <c r="I56" s="90"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="107">
+      <c r="A57" s="89">
         <v>42644</v>
       </c>
       <c r="C57">
@@ -3705,10 +3705,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A57,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I57" s="108"/>
+      <c r="I57" s="90"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="107">
+      <c r="A58" s="89">
         <v>42736</v>
       </c>
       <c r="C58">
@@ -3724,10 +3724,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A58,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.688545</v>
       </c>
-      <c r="I58" s="108"/>
+      <c r="I58" s="90"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="107">
+      <c r="A59" s="89">
         <v>42826</v>
       </c>
       <c r="C59">
@@ -3743,10 +3743,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A59,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I59" s="108"/>
+      <c r="I59" s="90"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="107">
+      <c r="A60" s="89">
         <v>42917</v>
       </c>
       <c r="C60">
@@ -3762,10 +3762,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A60,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I60" s="108"/>
+      <c r="I60" s="90"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="107">
+      <c r="A61" s="89">
         <v>43009</v>
       </c>
       <c r="C61">
@@ -3781,10 +3781,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A61,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I61" s="108"/>
+      <c r="I61" s="90"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="107">
+      <c r="A62" s="89">
         <v>43101</v>
       </c>
       <c r="C62">
@@ -3800,10 +3800,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A62,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.81888799999999</v>
       </c>
-      <c r="I62" s="108"/>
+      <c r="I62" s="90"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="107">
+      <c r="A63" s="89">
         <v>43191</v>
       </c>
       <c r="C63">
@@ -3819,10 +3819,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A63,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I63" s="108"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="107">
+      <c r="A64" s="89">
         <v>43282</v>
       </c>
       <c r="C64">
@@ -3838,10 +3838,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A64,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I64" s="108"/>
+      <c r="I64" s="90"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="107">
+      <c r="A65" s="89">
         <v>43374</v>
       </c>
       <c r="C65">
@@ -3857,10 +3857,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A65,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I65" s="108"/>
+      <c r="I65" s="90"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="107">
+      <c r="A66" s="89">
         <v>43466</v>
       </c>
       <c r="C66">
@@ -3876,10 +3876,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A66,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.89999399999999</v>
       </c>
-      <c r="I66" s="108"/>
+      <c r="I66" s="90"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="107">
+      <c r="A67" s="89">
         <v>43556</v>
       </c>
       <c r="C67">
@@ -3895,10 +3895,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A67,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I67" s="108"/>
+      <c r="I67" s="90"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="107">
+      <c r="A68" s="89">
         <v>43647</v>
       </c>
       <c r="C68">
@@ -3914,10 +3914,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A68,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I68" s="108"/>
+      <c r="I68" s="90"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="107">
+      <c r="A69" s="89">
         <v>43739</v>
       </c>
       <c r="C69">
@@ -3933,10 +3933,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A69,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I69" s="108"/>
+      <c r="I69" s="90"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="107">
+      <c r="A70" s="89">
         <v>43831</v>
       </c>
       <c r="C70">
@@ -3952,10 +3952,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A70,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.707517</v>
       </c>
-      <c r="I70" s="108"/>
+      <c r="I70" s="90"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="107">
+      <c r="A71" s="89">
         <v>43922</v>
       </c>
       <c r="C71">
@@ -3971,10 +3971,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A71,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I71" s="108"/>
+      <c r="I71" s="90"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="107">
+      <c r="A72" s="89">
         <v>44013</v>
       </c>
       <c r="C72">
@@ -3990,10 +3990,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A72,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I72" s="108"/>
+      <c r="I72" s="90"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="107">
+      <c r="A73" s="89">
         <v>44105</v>
       </c>
       <c r="C73">
@@ -4009,10 +4009,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A73,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I73" s="108"/>
+      <c r="I73" s="90"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="107">
+      <c r="A74" s="89">
         <v>44197</v>
       </c>
       <c r="C74">
@@ -4028,10 +4028,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A74,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.21790300000001</v>
       </c>
-      <c r="I74" s="108"/>
+      <c r="I74" s="90"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="107">
+      <c r="A75" s="89">
         <v>44287</v>
       </c>
       <c r="C75">
@@ -4047,10 +4047,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A75,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I75" s="108"/>
+      <c r="I75" s="90"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="107">
+      <c r="A76" s="89">
         <v>44378</v>
       </c>
       <c r="C76">
@@ -4066,10 +4066,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A76,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I76" s="108"/>
+      <c r="I76" s="90"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="107">
+      <c r="A77" s="89">
         <v>44470</v>
       </c>
       <c r="C77">
@@ -4085,10 +4085,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A77,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I77" s="108"/>
+      <c r="I77" s="90"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="107">
+      <c r="A78" s="89">
         <v>44562</v>
       </c>
       <c r="C78">
@@ -4104,10 +4104,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A78,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.71374299999999</v>
       </c>
-      <c r="I78" s="108"/>
+      <c r="I78" s="90"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="107">
+      <c r="A79" s="89">
         <v>44652</v>
       </c>
       <c r="C79">
@@ -4123,10 +4123,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A79,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I79" s="108"/>
+      <c r="I79" s="90"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="107">
+      <c r="A80" s="89">
         <v>44743</v>
       </c>
       <c r="C80">
@@ -4142,10 +4142,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A80,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I80" s="108"/>
+      <c r="I80" s="90"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="107">
+      <c r="A81" s="89">
         <v>44835</v>
       </c>
       <c r="C81">
@@ -4161,10 +4161,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A81,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I81" s="108"/>
+      <c r="I81" s="90"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="107">
+      <c r="A82" s="89">
         <v>44927</v>
       </c>
       <c r="C82">
@@ -4180,10 +4180,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A82,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.29910599999999</v>
       </c>
-      <c r="I82" s="108"/>
+      <c r="I82" s="90"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="107">
+      <c r="A83" s="89">
         <v>45017</v>
       </c>
       <c r="C83">
@@ -4199,10 +4199,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A83,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I83" s="108"/>
+      <c r="I83" s="90"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="107">
+      <c r="A84" s="89">
         <v>45108</v>
       </c>
       <c r="C84">
@@ -4218,10 +4218,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A84,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I84" s="108"/>
+      <c r="I84" s="90"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="107">
+      <c r="A85" s="89">
         <v>45200</v>
       </c>
       <c r="C85">
@@ -4237,10 +4237,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A85,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I85" s="108"/>
+      <c r="I85" s="90"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="107">
+      <c r="A86" s="89">
         <v>45292</v>
       </c>
       <c r="C86">
@@ -4252,14 +4252,14 @@
       <c r="G86">
         <v>35676.237651393138</v>
       </c>
-      <c r="H86" t="str">
+      <c r="H86">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A86,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
-        <v/>
-      </c>
-      <c r="I86" s="108"/>
+        <v>146.13535899999999</v>
+      </c>
+      <c r="I86" s="90"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="107">
+      <c r="A87" s="89">
         <v>45383</v>
       </c>
       <c r="C87">
@@ -4275,10 +4275,10 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A87,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I87" s="108"/>
+      <c r="I87" s="90"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="107">
+      <c r="A88" s="89">
         <v>45474</v>
       </c>
       <c r="C88">
@@ -4294,17 +4294,17 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A88,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I88" s="108"/>
+      <c r="I88" s="90"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="107">
+      <c r="A89" s="89">
         <v>45566</v>
       </c>
       <c r="H89" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A89,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I89" s="108"/>
+      <c r="I89" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4316,369 +4316,373 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="Z3" sqref="Y3:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="109" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="109" customWidth="1"/>
-    <col min="3" max="27" width="14.36328125" style="109" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="109"/>
+    <col min="1" max="1" width="27.453125" style="91" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="91" customWidth="1"/>
+    <col min="3" max="27" width="14.36328125" style="91" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114" t="s">
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="O1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="P1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="Q1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="R1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="S1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="114" t="s">
+      <c r="T1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="114" t="s">
+      <c r="U1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="114" t="s">
+      <c r="V1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="114" t="s">
+      <c r="W1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="114" t="s">
+      <c r="X1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="114" t="s">
+      <c r="Y1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="114" t="s">
+      <c r="Z1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="111"/>
+      <c r="AB1" s="93"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="113" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="113" t="s">
+      <c r="N2" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="113" t="s">
+      <c r="O2" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="113" t="s">
+      <c r="P2" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="113" t="s">
+      <c r="Q2" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="113" t="s">
+      <c r="R2" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="113" t="s">
+      <c r="S2" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="113" t="s">
+      <c r="T2" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="113" t="s">
+      <c r="U2" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="113" t="s">
+      <c r="V2" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="113" t="s">
+      <c r="W2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="113" t="s">
+      <c r="X2" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="113" t="s">
+      <c r="Y2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="113" t="s">
+      <c r="Z2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="113" t="s">
+      <c r="AA2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="111"/>
+      <c r="AB2" s="93"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="96">
         <v>36526</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="96">
         <v>36892</v>
       </c>
-      <c r="E3" s="115">
+      <c r="E3" s="96">
         <v>37257</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="96">
         <v>37622</v>
       </c>
-      <c r="G3" s="115">
+      <c r="G3" s="96">
         <v>37987</v>
       </c>
-      <c r="H3" s="115">
+      <c r="H3" s="96">
         <v>38353</v>
       </c>
-      <c r="I3" s="115">
+      <c r="I3" s="96">
         <v>38718</v>
       </c>
-      <c r="J3" s="115">
+      <c r="J3" s="96">
         <v>39083</v>
       </c>
-      <c r="K3" s="115">
+      <c r="K3" s="96">
         <v>39448</v>
       </c>
-      <c r="L3" s="115">
+      <c r="L3" s="96">
         <v>39814</v>
       </c>
-      <c r="M3" s="115">
+      <c r="M3" s="96">
         <v>40179</v>
       </c>
-      <c r="N3" s="115">
+      <c r="N3" s="96">
         <v>40544</v>
       </c>
-      <c r="O3" s="115">
+      <c r="O3" s="96">
         <v>40909</v>
       </c>
-      <c r="P3" s="115">
+      <c r="P3" s="96">
         <v>41275</v>
       </c>
-      <c r="Q3" s="115">
+      <c r="Q3" s="96">
         <v>41640</v>
       </c>
-      <c r="R3" s="115">
+      <c r="R3" s="96">
         <v>42005</v>
       </c>
-      <c r="S3" s="115">
+      <c r="S3" s="96">
         <v>42370</v>
       </c>
-      <c r="T3" s="115">
+      <c r="T3" s="96">
         <v>42736</v>
       </c>
-      <c r="U3" s="115">
+      <c r="U3" s="96">
         <v>43101</v>
       </c>
-      <c r="V3" s="115">
+      <c r="V3" s="96">
         <v>43466</v>
       </c>
-      <c r="W3" s="115">
+      <c r="W3" s="96">
         <v>43831</v>
       </c>
-      <c r="X3" s="115">
+      <c r="X3" s="96">
         <v>44197</v>
       </c>
-      <c r="Y3" s="115">
+      <c r="Y3" s="96">
         <v>44562</v>
       </c>
-      <c r="Z3" s="115">
+      <c r="Z3" s="96">
         <v>44927</v>
       </c>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="111"/>
+      <c r="AA3" s="96">
+        <v>45292</v>
+      </c>
+      <c r="AB3" s="93"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="112">
+      <c r="C4" s="94">
         <v>146596869</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="94">
         <v>145976482</v>
       </c>
-      <c r="E4" s="112">
+      <c r="E4" s="94">
         <v>145306497</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="94">
         <v>144648618</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="94">
         <v>144067316</v>
       </c>
-      <c r="H4" s="112">
+      <c r="H4" s="94">
         <v>143518814</v>
       </c>
-      <c r="I4" s="112">
+      <c r="I4" s="94">
         <v>143049637</v>
       </c>
-      <c r="J4" s="112">
+      <c r="J4" s="94">
         <v>142805114</v>
       </c>
-      <c r="K4" s="112">
+      <c r="K4" s="94">
         <v>142742366</v>
       </c>
-      <c r="L4" s="112">
+      <c r="L4" s="94">
         <v>142785348</v>
       </c>
-      <c r="M4" s="112">
+      <c r="M4" s="94">
         <v>142849468</v>
       </c>
-      <c r="N4" s="112">
+      <c r="N4" s="94">
         <v>143018195</v>
       </c>
-      <c r="O4" s="112">
+      <c r="O4" s="94">
         <v>143378447</v>
       </c>
-      <c r="P4" s="112">
+      <c r="P4" s="94">
         <v>143805638</v>
       </c>
-      <c r="Q4" s="112">
+      <c r="Q4" s="94">
         <v>146508169</v>
       </c>
-      <c r="R4" s="112">
+      <c r="R4" s="94">
         <v>146963159</v>
       </c>
-      <c r="S4" s="112">
+      <c r="S4" s="94">
         <v>147381167</v>
       </c>
-      <c r="T4" s="112">
+      <c r="T4" s="94">
         <v>147688545</v>
       </c>
-      <c r="U4" s="112">
+      <c r="U4" s="94">
         <v>147818888</v>
       </c>
-      <c r="V4" s="112">
+      <c r="V4" s="94">
         <v>147899994</v>
       </c>
-      <c r="W4" s="112">
+      <c r="W4" s="94">
         <v>147707517</v>
       </c>
-      <c r="X4" s="112">
+      <c r="X4" s="94">
         <v>147217903</v>
       </c>
-      <c r="Y4" s="112">
+      <c r="Y4" s="94">
         <v>146713743</v>
       </c>
-      <c r="Z4" s="112">
+      <c r="Z4" s="94">
         <v>146299106</v>
       </c>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="111"/>
+      <c r="AA4" s="94">
+        <v>146135359</v>
+      </c>
+      <c r="AB4" s="93"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4712,13 +4716,13 @@
       </c>
     </row>
     <row r="2" spans="1:81" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4731,112 +4735,112 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
-      <c r="B3" s="89">
+      <c r="A3" s="102"/>
+      <c r="B3" s="100">
         <v>1995</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="89">
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="100">
         <v>1996</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="89">
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="100">
         <v>1997</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="89">
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="100">
         <v>1998</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="89">
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="100">
         <v>1999</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="89">
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="100">
         <v>2000</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="89">
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="100">
         <v>2001</v>
       </c>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="89">
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="100">
         <v>2002</v>
       </c>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="89">
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="100">
         <v>2003</v>
       </c>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="89">
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="100">
         <v>2004</v>
       </c>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="89">
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="100">
         <v>2005</v>
       </c>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="89">
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="100">
         <v>2006</v>
       </c>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="89">
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="100">
         <v>2007</v>
       </c>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="89">
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="101"/>
+      <c r="BB3" s="100">
         <v>2008</v>
       </c>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="89">
+      <c r="BC3" s="101"/>
+      <c r="BD3" s="101"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="100">
         <v>2009</v>
       </c>
-      <c r="BG3" s="89"/>
-      <c r="BH3" s="89"/>
-      <c r="BI3" s="89"/>
-      <c r="BJ3" s="89">
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="100"/>
+      <c r="BI3" s="100"/>
+      <c r="BJ3" s="100">
         <v>2010</v>
       </c>
-      <c r="BK3" s="89"/>
-      <c r="BL3" s="89"/>
-      <c r="BM3" s="89"/>
-      <c r="BN3" s="89">
+      <c r="BK3" s="100"/>
+      <c r="BL3" s="100"/>
+      <c r="BM3" s="100"/>
+      <c r="BN3" s="100">
         <v>2011</v>
       </c>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="89"/>
-      <c r="BQ3" s="89"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
     </row>
     <row r="4" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -7780,26 +7784,26 @@
       <c r="BQ19" s="9"/>
     </row>
     <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -7846,6 +7850,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:R20"/>
     <mergeCell ref="B3:E3"/>
@@ -7854,18 +7870,6 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -7913,13 +7917,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -7934,94 +7938,94 @@
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="95">
+      <c r="A3" s="108"/>
+      <c r="B3" s="103">
         <v>2011</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103">
         <v>2012</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95">
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103">
         <v>2013</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95">
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103">
         <v>2014</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95">
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103">
         <v>2015</v>
       </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95">
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103">
         <v>2016</v>
       </c>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95">
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103">
         <v>2017</v>
       </c>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95">
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103">
         <v>2018</v>
       </c>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95">
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103">
         <v>2019</v>
       </c>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="95">
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103">
         <v>2020</v>
       </c>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95" t="s">
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="95"/>
-      <c r="AR3" s="95"/>
-      <c r="AS3" s="95"/>
-      <c r="AT3" s="95" t="s">
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="95" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-      <c r="BA3" s="95"/>
-      <c r="BB3" s="95" t="s">
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="95"/>
-      <c r="BE3" s="95"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -10349,21 +10353,21 @@
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
@@ -10433,14 +10437,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -10450,6 +10446,14 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -10483,13 +10487,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -10524,64 +10528,64 @@
       <c r="AK2" s="27"/>
     </row>
     <row r="3" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="100">
+      <c r="A3" s="111"/>
+      <c r="B3" s="110">
         <v>2003</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100">
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110">
         <v>2004</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100">
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110">
         <v>2005</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100">
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110">
         <v>2006</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100">
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110">
         <v>2007</v>
       </c>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100">
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110">
         <v>2008</v>
       </c>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100">
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110">
         <v>2009</v>
       </c>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="95">
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="103">
         <v>2010</v>
       </c>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95">
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103">
         <v>2011</v>
       </c>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
     </row>
     <row r="4" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
@@ -11785,26 +11789,26 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
@@ -11852,11 +11856,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
@@ -11864,6 +11863,11 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
@@ -11915,13 +11919,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -11960,94 +11964,94 @@
       <c r="AO2" s="27"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="100">
+      <c r="A3" s="112"/>
+      <c r="B3" s="110">
         <v>2011</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="104">
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="113">
         <v>2012</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="100">
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="110">
         <v>2013</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="104">
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="113">
         <v>2014</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100">
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110">
         <v>2015</v>
       </c>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100">
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110">
         <v>2016</v>
       </c>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100">
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110">
         <v>2017</v>
       </c>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100">
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110">
         <v>2018</v>
       </c>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100">
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110">
         <v>2019</v>
       </c>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100">
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110">
         <v>2020</v>
       </c>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100">
+      <c r="AM3" s="110"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110">
         <v>2021</v>
       </c>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="95" t="s">
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="95" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-      <c r="BA3" s="95"/>
-      <c r="BB3" s="95" t="s">
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="95"/>
-      <c r="BE3" s="95"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="105"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
@@ -13817,29 +13821,29 @@
       <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:57" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
@@ -13907,21 +13911,21 @@
       <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I19" s="12"/>
@@ -15330,11 +15334,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="BB3:BE3"/>
@@ -15348,6 +15347,11 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Science\FP-Shocks-Consumption-RU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3921F2C-74AB-4773-BB19-05B96E4D170E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68802C3-AA3D-4993-8486-FA06FCF02CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СВОД" sheetId="24" r:id="rId1"/>
-    <sheet name="НАСЕЛЕНИЕ" sheetId="25" r:id="rId2"/>
-    <sheet name="ВВП_ТЕКУЩ_95" sheetId="9" r:id="rId3"/>
-    <sheet name="ВВП_ТЕКУЩ_11" sheetId="5" r:id="rId4"/>
-    <sheet name="ВВП_ПОСТ_СК_03" sheetId="10" r:id="rId5"/>
-    <sheet name="ВВП_ПОСТ_СК_11" sheetId="23" r:id="rId6"/>
+    <sheet name="ЗП" sheetId="26" r:id="rId2"/>
+    <sheet name="НАСЕЛЕНИЕ" sheetId="25" r:id="rId3"/>
+    <sheet name="ВВП_ТЕКУЩ_95" sheetId="9" r:id="rId4"/>
+    <sheet name="ВВП_ТЕКУЩ_11" sheetId="5" r:id="rId5"/>
+    <sheet name="ВВП_ПОСТ_СК_03" sheetId="10" r:id="rId6"/>
+    <sheet name="ВВП_ПОСТ_СК_11" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">ВВП_ПОСТ_СК_03!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">ВВП_ТЕКУЩ_11!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">ВВП_ТЕКУЩ_95!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">ВВП_ПОСТ_СК_03!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">ВВП_ТЕКУЩ_11!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">ВВП_ТЕКУЩ_95!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="93">
   <si>
     <t>Валовой внутренний продукт</t>
   </si>
@@ -793,6 +794,12 @@
   <si>
     <t>POP</t>
   </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>yoy</t>
+  </si>
 </sst>
 </file>
 
@@ -803,7 +810,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -998,6 +1005,12 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1007,7 +1020,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1309,6 +1322,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1332,7 +1401,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1573,21 +1642,27 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1596,32 +1671,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2177,13 +2258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1944A4-1BDB-43EC-9208-4BA67269B05B}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2195,7 +2276,7 @@
     <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -2221,7 +2302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="89">
         <v>37622</v>
       </c>
@@ -2238,7 +2319,7 @@
         <v>2720.1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E32" si="0">E3*D2/D3</f>
+        <f>E3*D2/D3</f>
         <v>7299.3838127260397</v>
       </c>
       <c r="F2" cm="1">
@@ -2246,7 +2327,7 @@
         <v>7119.7</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G32" si="1">G3*F2/F3</f>
+        <f>G3*F2/F3</f>
         <v>20256.248476688404</v>
       </c>
       <c r="H2">
@@ -2254,7 +2335,7 @@
         <v>144.648618</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="89">
         <v>37712</v>
       </c>
@@ -2262,21 +2343,21 @@
         <v>1546.6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C32" si="2">C4*B3/B4</f>
+        <f>C4*B3/B4</f>
         <v>1734.1868535124586</v>
       </c>
       <c r="D3">
         <v>2732.7</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>E4*D3/D4</f>
         <v>7333.1958917085585</v>
       </c>
       <c r="F3">
         <v>7199.1</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f>G4*F3/F4</f>
         <v>20482.149305241441</v>
       </c>
       <c r="H3" t="str">
@@ -2284,7 +2365,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="89">
         <v>37803</v>
       </c>
@@ -2292,21 +2373,21 @@
         <v>1661.3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
+        <f>C5*B4/B5</f>
         <v>1862.7987971940045</v>
       </c>
       <c r="D4">
         <v>2774.7</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>E5*D4/D5</f>
         <v>7445.9028216502857</v>
       </c>
       <c r="F4">
         <v>7320.6</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f>G5*F4/F5</f>
         <v>20827.82878470232</v>
       </c>
       <c r="H4" t="str">
@@ -2314,7 +2395,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="89">
         <v>37895</v>
       </c>
@@ -2322,21 +2403,21 @@
         <v>1853.4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f>C6*B5/B6</f>
         <v>2078.1985738393837</v>
       </c>
       <c r="D5">
         <v>2893.3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>E6*D5/D6</f>
         <v>7764.1657238190701</v>
       </c>
       <c r="F5">
         <v>7454.1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>G6*F5/F6</f>
         <v>21207.649447319833</v>
       </c>
       <c r="H5" t="str">
@@ -2344,7 +2425,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="89">
         <v>37987</v>
       </c>
@@ -2352,30 +2433,29 @@
         <v>1862.8</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f>C7*B6/B7</f>
         <v>2088.7386982561798</v>
       </c>
       <c r="D6">
         <v>3042</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>E7*D6/D7</f>
         <v>8163.2019257794245</v>
       </c>
       <c r="F6">
         <v>7594.2</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>G7*F6/F7</f>
         <v>21606.24776067349</v>
       </c>
       <c r="H6">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A6,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>144.06731600000001</v>
       </c>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="89">
         <v>38078</v>
       </c>
@@ -2383,30 +2463,29 @@
         <v>1985.7</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f>C8*B7/B8</f>
         <v>2226.5452185566332</v>
       </c>
       <c r="D7">
         <v>3064.3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>E8*D7/D8</f>
         <v>8223.043938581819</v>
       </c>
       <c r="F7">
         <v>7740.5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>G8*F7/F8</f>
         <v>22022.48568532474</v>
       </c>
       <c r="H7" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A7,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="89">
         <v>38169</v>
       </c>
@@ -2414,30 +2493,29 @@
         <v>2174.8000000000002</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f>C9*B8/B9</f>
         <v>2438.5811257072905</v>
       </c>
       <c r="D8">
         <v>3170.1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>E9*D8/D9</f>
         <v>8506.9580621016939</v>
       </c>
       <c r="F8">
         <v>7857.8</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>G9*F8/F9</f>
         <v>22356.215750680803</v>
       </c>
       <c r="H8" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A8,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="89">
         <v>38261</v>
       </c>
@@ -2445,30 +2523,29 @@
         <v>2415.1999999999998</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f>C10*B9/B10</f>
         <v>2708.1392012176971</v>
       </c>
       <c r="D9">
         <v>3231.6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>E10*D9/D10</f>
         <v>8671.9932095163676</v>
       </c>
       <c r="F9">
         <v>7945.6</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>G10*F9/F10</f>
         <v>22606.015407443483</v>
       </c>
       <c r="H9" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A9,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="89">
         <v>38353</v>
       </c>
@@ -2476,30 +2553,29 @@
         <v>2307.3000000000002</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f>C11*B10/B11</f>
         <v>2587.1520283908553</v>
       </c>
       <c r="D10">
         <v>3328.1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>E11*D10/D11</f>
         <v>8930.9507985491473</v>
       </c>
       <c r="F10">
         <v>8084.5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>G11*F10/F11</f>
         <v>23001.199602481476</v>
       </c>
       <c r="H10">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A10,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.51881399999999</v>
       </c>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="89">
         <v>38443</v>
       </c>
@@ -2507,30 +2583,29 @@
         <v>2536.3000000000002</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f>C12*B11/B12</f>
         <v>2843.927399821318</v>
       </c>
       <c r="D11">
         <v>3486.8</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>E12*D11/D12</f>
         <v>9356.8219838289624</v>
       </c>
       <c r="F11">
         <v>8207.6</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>G12*F11/F12</f>
         <v>23351.43123969658</v>
       </c>
       <c r="H11" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A11,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="89">
         <v>38534</v>
       </c>
@@ -2538,30 +2613,29 @@
         <v>2755.1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f>C13*B12/B13</f>
         <v>3089.2656149697245</v>
       </c>
       <c r="D12">
         <v>3568.3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>E13*D12/D13</f>
         <v>9575.527097882552</v>
       </c>
       <c r="F12">
         <v>8352.2000000000007</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>G13*F12/F13</f>
         <v>23762.832496733979</v>
       </c>
       <c r="H12" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A12,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I12" s="90"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="89">
         <v>38626</v>
       </c>
@@ -2569,30 +2643,29 @@
         <v>3054.2</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f>C14*B13/B14</f>
         <v>3424.6434035935295</v>
       </c>
       <c r="D13">
         <v>3647.9</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>E14*D13/D14</f>
         <v>9789.1335651054451</v>
       </c>
       <c r="F13">
         <v>8524.5</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>G14*F13/F14</f>
         <v>24253.042984891261</v>
       </c>
       <c r="H13" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A13,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="89">
         <v>38718</v>
       </c>
@@ -2600,30 +2673,29 @@
         <v>2815.1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f>C15*B14/B15</f>
         <v>3156.5430048641688</v>
       </c>
       <c r="D14">
         <v>3704.8</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>E15*D14/D15</f>
         <v>9941.824620193167</v>
       </c>
       <c r="F14">
         <v>8689.1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>G15*F14/F15</f>
         <v>24721.346213856374</v>
       </c>
       <c r="H14">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A14,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.04963699999999</v>
       </c>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>38808</v>
       </c>
@@ -2631,30 +2703,29 @@
         <v>3095.6</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f>C16*B15/B16</f>
         <v>3471.0648026206959</v>
       </c>
       <c r="D15">
         <v>3894.6</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>E16*D15/D16</f>
         <v>10451.152603596498</v>
       </c>
       <c r="F15">
         <v>8856.4</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>G16*F15/F16</f>
         <v>25197.331209031727</v>
       </c>
       <c r="H15" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A15,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
         <v>38899</v>
       </c>
@@ -2662,30 +2733,29 @@
         <v>3346.7</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f>C17*B16/B17</f>
         <v>3752.6206793289452</v>
       </c>
       <c r="D16">
         <v>3972.9</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>E17*D16/D17</f>
         <v>10661.270522987863</v>
       </c>
       <c r="F16">
         <v>9059.7000000000007</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f>G17*F16/F17</f>
         <v>25775.739753676975</v>
       </c>
       <c r="H16" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A16,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="89">
         <v>38991</v>
       </c>
@@ -2693,30 +2763,29 @@
         <v>3717.3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f>C18*B17/B18</f>
         <v>4168.1706909102968</v>
       </c>
       <c r="D17">
         <v>4155.6000000000004</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>E18*D17/D18</f>
         <v>11151.545668234379</v>
       </c>
       <c r="F17">
         <v>9231.7999999999993</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>G18*F17/F18</f>
         <v>26265.381222114975</v>
       </c>
       <c r="H17" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A17,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="89">
         <v>39083</v>
       </c>
@@ -2724,30 +2793,29 @@
         <v>3403.1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f>C19*B18/B19</f>
         <v>3815.8614258297225</v>
       </c>
       <c r="D18">
         <v>4220.7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>E19*D18/D19</f>
         <v>11326.241409644057</v>
       </c>
       <c r="F18">
         <v>9399.2000000000007</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>G19*F18/F19</f>
         <v>26741.650727149972</v>
       </c>
       <c r="H18">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A18,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.805114</v>
       </c>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="89">
         <v>39173</v>
       </c>
@@ -2755,30 +2823,29 @@
         <v>3789.7</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f>C20*B19/B20</f>
         <v>4249.3520747162584</v>
       </c>
       <c r="D19">
         <v>4444.2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>E20*D19/D20</f>
         <v>11926.003286833966</v>
       </c>
       <c r="F19">
         <v>9636.4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f>G20*F19/F20</f>
         <v>27416.508114212695</v>
       </c>
       <c r="H19" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A19,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I19" s="90"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="89">
         <v>39264</v>
       </c>
@@ -2786,30 +2853,29 @@
         <v>4158.6000000000004</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f>C21*B20/B21</f>
         <v>4662.995893583934</v>
       </c>
       <c r="D20">
         <v>4572.2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>E21*D20/D21</f>
         <v>12269.491073323041</v>
       </c>
       <c r="F20">
         <v>9848.9</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>G21*F20/F21</f>
         <v>28021.091565944691</v>
       </c>
       <c r="H20" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A20,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I20" s="90"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="89">
         <v>39356</v>
       </c>
@@ -2817,30 +2883,29 @@
         <v>4680.3</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f>C22*B21/B22</f>
         <v>5247.9727987161268</v>
       </c>
       <c r="D21">
         <v>4741.8</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>E22*D21/D22</f>
         <v>12724.612390421067</v>
       </c>
       <c r="F21">
         <v>10163.5</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>G22*F21/F22</f>
         <v>28916.159584367681</v>
       </c>
       <c r="H21" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A21,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I21" s="90"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="89">
         <v>39448</v>
       </c>
@@ -2848,30 +2913,29 @@
         <v>4307</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f>C23*B22/B23</f>
         <v>4829.395304589525</v>
       </c>
       <c r="D22">
         <v>4869.1000000000004</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>E23*D22/D23</f>
         <v>13066.22172807778</v>
       </c>
       <c r="F22">
         <v>10433.1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>G23*F22/F23</f>
         <v>29683.198165953308</v>
       </c>
       <c r="H22">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A22,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.742366</v>
       </c>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
         <v>39539</v>
       </c>
@@ -2879,30 +2943,29 @@
         <v>4785.1000000000004</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f>C24*B23/B24</f>
         <v>5365.4839730650892</v>
       </c>
       <c r="D23">
         <v>4996.6000000000004</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>E24*D23/D24</f>
         <v>13408.367765400882</v>
       </c>
       <c r="F23">
         <v>10498</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f>G24*F23/F24</f>
         <v>29867.845064858746</v>
       </c>
       <c r="H23" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A23,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="89">
         <v>39630</v>
       </c>
@@ -2910,30 +2973,29 @@
         <v>5255.2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f>C25*B24/B25</f>
         <v>5892.6023228880595</v>
       </c>
       <c r="D24">
         <v>5074.6000000000004</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>E25*D24/D25</f>
         <v>13617.680635292663</v>
       </c>
       <c r="F24">
         <v>10341.5</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>G25*F24/F25</f>
         <v>29422.587134524358</v>
       </c>
       <c r="H24" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A24,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I24" s="90"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
         <v>39722</v>
       </c>
@@ -2941,30 +3003,29 @@
         <v>5619.6</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f>C26*B25/B26</f>
         <v>6301.2003375136519</v>
       </c>
       <c r="D25">
         <v>5045.8999999999996</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>E26*D25/D26</f>
         <v>13540.664233165815</v>
       </c>
       <c r="F25">
         <v>10005.200000000001</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>G26*F25/F26</f>
         <v>28465.780476559794</v>
       </c>
       <c r="H25" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A25,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I25" s="90"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="89">
         <v>39814</v>
       </c>
@@ -2972,30 +3033,29 @@
         <v>4852.2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f>C27*B26/B27</f>
         <v>5440.7225207637084</v>
       </c>
       <c r="D26">
         <v>4844.2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>E27*D26/D27</f>
         <v>12999.402619612329</v>
       </c>
       <c r="F26">
         <v>9652.2999999999993</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f>G27*F26/F27</f>
         <v>27461.745181895221</v>
       </c>
       <c r="H26">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A26,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.785348</v>
       </c>
-      <c r="I26" s="90"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="89">
         <v>39904</v>
       </c>
@@ -3003,30 +3063,29 @@
         <v>5075.3</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f>C28*B27/B28</f>
         <v>5690.8822821878839</v>
       </c>
       <c r="D27">
         <v>4729.8999999999996</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>E28*D27/D28</f>
         <v>12692.678760270912</v>
       </c>
       <c r="F27">
         <v>9511.5</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f>G28*F27/F28</f>
         <v>27061.155299524093</v>
       </c>
       <c r="H27" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A27,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I27" s="90"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="89">
         <v>39995</v>
       </c>
@@ -3034,30 +3093,29 @@
         <v>5330.3</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f>C29*B28/B29</f>
         <v>5976.8111892392717</v>
       </c>
       <c r="D28">
         <v>4666.7</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>E29*D28/D29</f>
         <v>12523.081665691931</v>
       </c>
       <c r="F28">
         <v>9550.5</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f>G29*F28/F29</f>
         <v>27172.11414478314</v>
       </c>
       <c r="H28" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A28,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="89">
         <v>40087</v>
       </c>
@@ -3065,30 +3123,29 @@
         <v>5728.1</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f>C30*B29/B30</f>
         <v>6422.8602842394366</v>
       </c>
       <c r="D29">
         <v>4746.1000000000004</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>E30*D29/D30</f>
         <v>12736.151433248437</v>
       </c>
       <c r="F29">
         <v>9653.7999999999993</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f>G30*F29/F30</f>
         <v>27466.012829789797</v>
       </c>
       <c r="H29" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A29,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="89">
         <v>40179</v>
       </c>
@@ -3096,30 +3153,29 @@
         <v>5285.4</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f>C31*B30/B31</f>
         <v>5926.4652758015945</v>
       </c>
       <c r="D30">
         <v>4939.7</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>E31*D30/D31</f>
         <v>13255.676710313161</v>
       </c>
       <c r="F30">
         <v>9860.2999999999993</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f>G31*F30/F31</f>
         <v>28053.525689943475</v>
       </c>
       <c r="H30">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A30,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>142.849468</v>
       </c>
-      <c r="I30" s="90"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
         <v>40269</v>
       </c>
@@ -3127,30 +3183,29 @@
         <v>5664.7</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f>C32*B31/B32</f>
         <v>6351.7705089176397</v>
       </c>
       <c r="D31">
         <v>5016.1000000000004</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>E32*D31/D32</f>
         <v>13460.695982873827</v>
       </c>
       <c r="F31">
         <v>9953.9</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f>G32*F31/F32</f>
         <v>28319.826918565192</v>
       </c>
       <c r="H31" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A31,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I31" s="90"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="89">
         <v>40360</v>
       </c>
@@ -3158,30 +3213,29 @@
         <v>6068.9</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f>C33*B32/B33</f>
         <v>6804.9958588398786</v>
       </c>
       <c r="D32">
         <v>5006.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>E33*D32/D33</f>
         <v>13434.934398887146</v>
       </c>
       <c r="F32">
         <v>10006.1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f>G33*F32/F33</f>
         <v>28468.341065296532</v>
       </c>
       <c r="H32" t="str">
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A32,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I32" s="90"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
         <v>40452</v>
       </c>
@@ -3210,9 +3264,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A33,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="89">
         <v>40544</v>
       </c>
@@ -3241,9 +3294,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A34,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.01819499999999</v>
       </c>
-      <c r="I34" s="90"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
         <v>40634</v>
       </c>
@@ -3269,9 +3321,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A35,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="89">
         <v>40725</v>
       </c>
@@ -3297,9 +3348,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A36,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I36" s="90"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
         <v>40817</v>
       </c>
@@ -3325,9 +3375,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A37,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I37" s="90"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="89">
         <v>40909</v>
       </c>
@@ -3344,9 +3393,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A38,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.37844699999999</v>
       </c>
-      <c r="I38" s="90"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="89">
         <v>41000</v>
       </c>
@@ -3363,9 +3411,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A39,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I39" s="90"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="89">
         <v>41091</v>
       </c>
@@ -3382,9 +3429,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A40,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I40" s="90"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="89">
         <v>41183</v>
       </c>
@@ -3401,9 +3447,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A41,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I41" s="90"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="89">
         <v>41275</v>
       </c>
@@ -3420,9 +3465,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A42,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>143.80563799999999</v>
       </c>
-      <c r="I42" s="90"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="89">
         <v>41365</v>
       </c>
@@ -3439,9 +3483,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A43,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I43" s="90"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="89">
         <v>41456</v>
       </c>
@@ -3458,9 +3501,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A44,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I44" s="90"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="89">
         <v>41548</v>
       </c>
@@ -3477,9 +3519,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A45,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I45" s="90"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="89">
         <v>41640</v>
       </c>
@@ -3496,9 +3537,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A46,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.50816900000001</v>
       </c>
-      <c r="I46" s="90"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="89">
         <v>41730</v>
       </c>
@@ -3515,9 +3555,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A47,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I47" s="90"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="89">
         <v>41821</v>
       </c>
@@ -3534,9 +3573,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A48,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I48" s="90"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="89">
         <v>41913</v>
       </c>
@@ -3553,9 +3591,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A49,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I49" s="90"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="89">
         <v>42005</v>
       </c>
@@ -3572,9 +3609,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A50,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.96315899999999</v>
       </c>
-      <c r="I50" s="90"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="89">
         <v>42095</v>
       </c>
@@ -3591,9 +3627,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A51,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I51" s="90"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="89">
         <v>42186</v>
       </c>
@@ -3610,9 +3645,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A52,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I52" s="90"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="89">
         <v>42278</v>
       </c>
@@ -3629,9 +3663,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A53,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I53" s="90"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="89">
         <v>42370</v>
       </c>
@@ -3648,9 +3681,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A54,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.381167</v>
       </c>
-      <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="89">
         <v>42461</v>
       </c>
@@ -3667,9 +3699,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A55,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="89">
         <v>42552</v>
       </c>
@@ -3686,9 +3717,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A56,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I56" s="90"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="89">
         <v>42644</v>
       </c>
@@ -3705,9 +3735,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A57,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I57" s="90"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="89">
         <v>42736</v>
       </c>
@@ -3724,9 +3753,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A58,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.688545</v>
       </c>
-      <c r="I58" s="90"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="89">
         <v>42826</v>
       </c>
@@ -3743,9 +3771,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A59,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I59" s="90"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="89">
         <v>42917</v>
       </c>
@@ -3762,9 +3789,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A60,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I60" s="90"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="89">
         <v>43009</v>
       </c>
@@ -3781,9 +3807,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A61,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I61" s="90"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="89">
         <v>43101</v>
       </c>
@@ -3800,9 +3825,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A62,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.81888799999999</v>
       </c>
-      <c r="I62" s="90"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="89">
         <v>43191</v>
       </c>
@@ -3819,9 +3843,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A63,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I63" s="90"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="89">
         <v>43282</v>
       </c>
@@ -3838,9 +3861,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A64,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I64" s="90"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="89">
         <v>43374</v>
       </c>
@@ -3857,9 +3879,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A65,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I65" s="90"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="89">
         <v>43466</v>
       </c>
@@ -3876,9 +3897,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A66,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.89999399999999</v>
       </c>
-      <c r="I66" s="90"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="89">
         <v>43556</v>
       </c>
@@ -3895,9 +3915,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A67,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I67" s="90"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="89">
         <v>43647</v>
       </c>
@@ -3914,9 +3933,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A68,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I68" s="90"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="89">
         <v>43739</v>
       </c>
@@ -3933,9 +3951,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A69,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I69" s="90"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="89">
         <v>43831</v>
       </c>
@@ -3952,9 +3969,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A70,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.707517</v>
       </c>
-      <c r="I70" s="90"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="89">
         <v>43922</v>
       </c>
@@ -3971,9 +3987,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A71,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I71" s="90"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="89">
         <v>44013</v>
       </c>
@@ -3990,9 +4005,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A72,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I72" s="90"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="89">
         <v>44105</v>
       </c>
@@ -4009,9 +4023,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A73,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I73" s="90"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="89">
         <v>44197</v>
       </c>
@@ -4028,9 +4041,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A74,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>147.21790300000001</v>
       </c>
-      <c r="I74" s="90"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="89">
         <v>44287</v>
       </c>
@@ -4047,9 +4059,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A75,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I75" s="90"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="89">
         <v>44378</v>
       </c>
@@ -4066,9 +4077,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A76,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I76" s="90"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="89">
         <v>44470</v>
       </c>
@@ -4085,9 +4095,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A77,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I77" s="90"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="89">
         <v>44562</v>
       </c>
@@ -4104,9 +4113,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A78,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.71374299999999</v>
       </c>
-      <c r="I78" s="90"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="89">
         <v>44652</v>
       </c>
@@ -4123,9 +4131,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A79,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I79" s="90"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="89">
         <v>44743</v>
       </c>
@@ -4142,9 +4149,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A80,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I80" s="90"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="89">
         <v>44835</v>
       </c>
@@ -4161,9 +4167,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A81,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I81" s="90"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="89">
         <v>44927</v>
       </c>
@@ -4180,9 +4185,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A82,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.29910599999999</v>
       </c>
-      <c r="I82" s="90"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="89">
         <v>45017</v>
       </c>
@@ -4199,9 +4203,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A83,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I83" s="90"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="89">
         <v>45108</v>
       </c>
@@ -4218,9 +4221,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A84,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I84" s="90"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="89">
         <v>45200</v>
       </c>
@@ -4237,9 +4239,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A85,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I85" s="90"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="89">
         <v>45292</v>
       </c>
@@ -4256,9 +4257,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A86,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v>146.13535899999999</v>
       </c>
-      <c r="I86" s="90"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="89">
         <v>45383</v>
       </c>
@@ -4275,9 +4275,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A87,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I87" s="90"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="89">
         <v>45474</v>
       </c>
@@ -4294,9 +4293,8 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A88,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I88" s="90"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="89">
         <v>45566</v>
       </c>
@@ -4304,7 +4302,6 @@
         <f>IFERROR(INDEX(НАСЕЛЕНИЕ!$4:$4,1,MATCH(A89,НАСЕЛЕНИЕ!$3:$3,0))/10^6,"")</f>
         <v/>
       </c>
-      <c r="I89" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4312,6 +4309,527 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936FC24A-9338-409B-81D8-45082232D988}">
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="89">
+        <v>37622</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B12" si="0">B14/C14*100</f>
+        <v>4753.2051282051289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="89">
+        <v>37653</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>4756.7776917118517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
+        <v>37681</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>5037.6175548589345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
+        <v>37712</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>5137.8486055776893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
+        <v>37742</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5252.8180354267315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
+        <v>37773</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5588.9864325618519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>37803</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5662.6115166261152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
+        <v>37834</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>5533.8164251207727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>37865</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5601.6194331983806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
+        <v>37895</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>5919.4515852613531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="89">
+        <v>37926</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>6048.0686695278973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="89">
+        <v>37956</v>
+      </c>
+      <c r="B13">
+        <f>B25/C25*100</f>
+        <v>7406.5656565656564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="89">
+        <v>37987</v>
+      </c>
+      <c r="B14" s="116">
+        <v>5932</v>
+      </c>
+      <c r="C14" s="118">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89">
+        <v>38018</v>
+      </c>
+      <c r="B15" s="117">
+        <v>6141</v>
+      </c>
+      <c r="C15" s="119">
+        <v>129.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="89">
+        <v>38047</v>
+      </c>
+      <c r="B16" s="117">
+        <v>6428</v>
+      </c>
+      <c r="C16" s="119">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="89">
+        <v>38078</v>
+      </c>
+      <c r="B17" s="117">
+        <v>6448</v>
+      </c>
+      <c r="C17" s="119">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89">
+        <v>38108</v>
+      </c>
+      <c r="B18" s="117">
+        <v>6524</v>
+      </c>
+      <c r="C18" s="119">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="89">
+        <v>38139</v>
+      </c>
+      <c r="B19" s="117">
+        <v>7003</v>
+      </c>
+      <c r="C19" s="119">
+        <v>125.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="89">
+        <v>38169</v>
+      </c>
+      <c r="B20" s="117">
+        <v>6982</v>
+      </c>
+      <c r="C20" s="119">
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="89">
+        <v>38200</v>
+      </c>
+      <c r="B21" s="117">
+        <v>6873</v>
+      </c>
+      <c r="C21" s="119">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="89">
+        <v>38231</v>
+      </c>
+      <c r="B22" s="117">
+        <v>6918</v>
+      </c>
+      <c r="C22" s="119">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="89">
+        <v>38261</v>
+      </c>
+      <c r="B23" s="117">
+        <v>6908</v>
+      </c>
+      <c r="C23" s="119">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="89">
+        <v>38292</v>
+      </c>
+      <c r="B24" s="117">
+        <v>7046</v>
+      </c>
+      <c r="C24" s="119">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="89">
+        <v>38322</v>
+      </c>
+      <c r="B25" s="117">
+        <v>8799</v>
+      </c>
+      <c r="C25" s="119">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="89">
+        <v>38353</v>
+      </c>
+      <c r="B26" s="116">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="89">
+        <v>38384</v>
+      </c>
+      <c r="B27" s="117">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89">
+        <v>38412</v>
+      </c>
+      <c r="B28" s="117">
+        <v>8093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="89">
+        <v>38443</v>
+      </c>
+      <c r="B29" s="117">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="89">
+        <v>38473</v>
+      </c>
+      <c r="B30" s="117">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="89">
+        <v>38504</v>
+      </c>
+      <c r="B31" s="117">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="89">
+        <v>38534</v>
+      </c>
+      <c r="B32" s="117">
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="89">
+        <v>38565</v>
+      </c>
+      <c r="B33" s="117">
+        <v>8616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="89">
+        <v>38596</v>
+      </c>
+      <c r="B34" s="117">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="89">
+        <v>38626</v>
+      </c>
+      <c r="B35" s="117">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="89">
+        <v>38657</v>
+      </c>
+      <c r="B36" s="117">
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="89">
+        <v>38687</v>
+      </c>
+      <c r="B37" s="117">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="90"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="90"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="90"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="90"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="90"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="90"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="90"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="90"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="90"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="90"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="90"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="90"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="90"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="90"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="90"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="90"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="90"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="90"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="90"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="90"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="90"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="90"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="90"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="90"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="90"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="90"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="90"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="90"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="90"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="90"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="90"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="90"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="90"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="90"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="90"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="90"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="90"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="90"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="90"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="90"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="90"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="90"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="90"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="90"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="90"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="90"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="90"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="90"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="90"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="90"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="90"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="90"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEC5613-D299-4A04-97A0-598419BD3BF2}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
@@ -4694,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CC24"/>
   <sheetViews>
@@ -4716,13 +5234,13 @@
       </c>
     </row>
     <row r="2" spans="1:81" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4736,108 +5254,108 @@
     </row>
     <row r="3" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="102"/>
-      <c r="B3" s="100">
+      <c r="B3" s="98">
         <v>1995</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="100">
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="98">
         <v>1996</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="100">
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="98">
         <v>1997</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="100">
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="98">
         <v>1998</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="100">
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="98">
         <v>1999</v>
       </c>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="100">
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="98">
         <v>2000</v>
       </c>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="100">
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="98">
         <v>2001</v>
       </c>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="100">
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="98">
         <v>2002</v>
       </c>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="100">
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="98">
         <v>2003</v>
       </c>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="100">
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="98">
         <v>2004</v>
       </c>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="101"/>
-      <c r="AP3" s="100">
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="98">
         <v>2005</v>
       </c>
-      <c r="AQ3" s="101"/>
-      <c r="AR3" s="101"/>
-      <c r="AS3" s="101"/>
-      <c r="AT3" s="100">
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="99"/>
+      <c r="AT3" s="98">
         <v>2006</v>
       </c>
-      <c r="AU3" s="101"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="100">
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="98">
         <v>2007</v>
       </c>
-      <c r="AY3" s="101"/>
-      <c r="AZ3" s="101"/>
-      <c r="BA3" s="101"/>
-      <c r="BB3" s="100">
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="99"/>
+      <c r="BA3" s="99"/>
+      <c r="BB3" s="98">
         <v>2008</v>
       </c>
-      <c r="BC3" s="101"/>
-      <c r="BD3" s="101"/>
-      <c r="BE3" s="101"/>
-      <c r="BF3" s="100">
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="99"/>
+      <c r="BE3" s="99"/>
+      <c r="BF3" s="98">
         <v>2009</v>
       </c>
-      <c r="BG3" s="100"/>
-      <c r="BH3" s="100"/>
-      <c r="BI3" s="100"/>
-      <c r="BJ3" s="100">
+      <c r="BG3" s="98"/>
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="98"/>
+      <c r="BJ3" s="98">
         <v>2010</v>
       </c>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="100"/>
-      <c r="BM3" s="100"/>
-      <c r="BN3" s="100">
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="98"/>
+      <c r="BM3" s="98"/>
+      <c r="BN3" s="98">
         <v>2011</v>
       </c>
-      <c r="BO3" s="100"/>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
+      <c r="BO3" s="98"/>
+      <c r="BP3" s="98"/>
+      <c r="BQ3" s="98"/>
     </row>
     <row r="4" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="102"/>
@@ -7784,26 +8302,26 @@
       <c r="BQ19" s="9"/>
     </row>
     <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -7850,18 +8368,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:R20"/>
     <mergeCell ref="B3:E3"/>
@@ -7870,6 +8376,18 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -7881,7 +8399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BE27"/>
   <sheetViews>
@@ -7917,13 +8435,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -7938,94 +8456,94 @@
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="108"/>
-      <c r="B3" s="103">
+      <c r="A3" s="105"/>
+      <c r="B3" s="104">
         <v>2011</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103">
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104">
         <v>2012</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103">
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104">
         <v>2013</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103">
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104">
         <v>2014</v>
       </c>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103">
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104">
         <v>2015</v>
       </c>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103">
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104">
         <v>2016</v>
       </c>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103">
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104">
         <v>2017</v>
       </c>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103">
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104">
         <v>2018</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103">
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104">
         <v>2019</v>
       </c>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103">
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
+      <c r="AK3" s="104"/>
+      <c r="AL3" s="104">
         <v>2020</v>
       </c>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103" t="s">
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103" t="s">
+      <c r="AQ3" s="104"/>
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="104"/>
+      <c r="AT3" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103" t="s">
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="104"/>
+      <c r="AX3" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103" t="s">
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="104"/>
+      <c r="BA3" s="104"/>
+      <c r="BB3" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
+      <c r="BC3" s="104"/>
+      <c r="BD3" s="104"/>
+      <c r="BE3" s="104"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="108"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -10353,21 +10871,21 @@
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
@@ -10437,6 +10955,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -10446,14 +10972,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -10465,7 +10983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AK24"/>
   <sheetViews>
@@ -10487,13 +11005,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -10529,60 +11047,60 @@
     </row>
     <row r="3" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="111"/>
-      <c r="B3" s="110">
+      <c r="B3" s="109">
         <v>2003</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109">
         <v>2004</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109">
         <v>2005</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110">
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109">
         <v>2006</v>
       </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110">
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109">
         <v>2007</v>
       </c>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110">
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109">
         <v>2008</v>
       </c>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110">
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109">
         <v>2009</v>
       </c>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="103">
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="104">
         <v>2010</v>
       </c>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103">
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104">
         <v>2011</v>
       </c>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
+      <c r="AK3" s="104"/>
     </row>
     <row r="4" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="111"/>
@@ -11789,26 +12307,26 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
@@ -11856,6 +12374,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
@@ -11863,11 +12386,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
@@ -11879,7 +12397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BE46"/>
   <sheetViews>
@@ -11919,13 +12437,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -11964,94 +12482,94 @@
       <c r="AO2" s="27"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="112"/>
-      <c r="B3" s="110">
+      <c r="A3" s="114"/>
+      <c r="B3" s="109">
         <v>2011</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="113">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="112">
         <v>2012</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="110">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="109">
         <v>2013</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="113">
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="112">
         <v>2014</v>
       </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110">
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109">
         <v>2015</v>
       </c>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110">
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109">
         <v>2016</v>
       </c>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110">
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109">
         <v>2017</v>
       </c>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110">
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109">
         <v>2018</v>
       </c>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110">
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109">
         <v>2019</v>
       </c>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="110">
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109">
         <v>2020</v>
       </c>
-      <c r="AM3" s="110"/>
-      <c r="AN3" s="110"/>
-      <c r="AO3" s="110"/>
-      <c r="AP3" s="110">
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109">
         <v>2021</v>
       </c>
-      <c r="AQ3" s="110"/>
-      <c r="AR3" s="110"/>
-      <c r="AS3" s="110"/>
-      <c r="AT3" s="103" t="s">
+      <c r="AQ3" s="109"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="109"/>
+      <c r="AT3" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103" t="s">
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="104"/>
+      <c r="AX3" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103" t="s">
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="104"/>
+      <c r="BA3" s="104"/>
+      <c r="BB3" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
+      <c r="BC3" s="104"/>
+      <c r="BD3" s="104"/>
+      <c r="BE3" s="104"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
@@ -13821,29 +14339,29 @@
       <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:57" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
@@ -13911,21 +14429,21 @@
       <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I19" s="12"/>
@@ -15334,6 +15852,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="BB3:BE3"/>
@@ -15347,11 +15870,6 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Science\FP-Shocks-Consumption-RU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68802C3-AA3D-4993-8486-FA06FCF02CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AD16B-A5D6-4548-8CD3-32BBA4249E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СВОД" sheetId="24" r:id="rId1"/>
     <sheet name="ЗП" sheetId="26" r:id="rId2"/>
-    <sheet name="НАСЕЛЕНИЕ" sheetId="25" r:id="rId3"/>
-    <sheet name="ВВП_ТЕКУЩ_95" sheetId="9" r:id="rId4"/>
-    <sheet name="ВВП_ТЕКУЩ_11" sheetId="5" r:id="rId5"/>
-    <sheet name="ВВП_ПОСТ_СК_03" sheetId="10" r:id="rId6"/>
-    <sheet name="ВВП_ПОСТ_СК_11" sheetId="23" r:id="rId7"/>
+    <sheet name="MIACR" sheetId="27" r:id="rId3"/>
+    <sheet name="URALS" sheetId="28" r:id="rId4"/>
+    <sheet name="НАСЕЛЕНИЕ" sheetId="25" r:id="rId5"/>
+    <sheet name="ВВП_ТЕКУЩ_95" sheetId="9" r:id="rId6"/>
+    <sheet name="ВВП_ТЕКУЩ_11" sheetId="5" r:id="rId7"/>
+    <sheet name="ВВП_ПОСТ_СК_03" sheetId="10" r:id="rId8"/>
+    <sheet name="ВВП_ПОСТ_СК_11" sheetId="23" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">ВВП_ПОСТ_СК_03!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">ВВП_ТЕКУЩ_11!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">ВВП_ТЕКУЩ_95!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">ВВП_ПОСТ_СК_03!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">ВВП_ТЕКУЩ_11!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">ВВП_ТЕКУЩ_95!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="95">
   <si>
     <t>Валовой внутренний продукт</t>
   </si>
@@ -800,6 +802,12 @@
   <si>
     <t>yoy</t>
   </si>
+  <si>
+    <t>miacr</t>
+  </si>
+  <si>
+    <t>urals</t>
+  </si>
 </sst>
 </file>
 
@@ -810,7 +818,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1011,16 +1019,45 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1378,6 +1415,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1401,7 +1462,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1639,59 +1700,6 @@
     <xf numFmtId="14" fontId="29" fillId="0" borderId="26" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1703,6 +1711,79 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2260,11 +2341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1944A4-1BDB-43EC-9208-4BA67269B05B}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2311,7 +2392,7 @@
         <v>1476.1</v>
       </c>
       <c r="C2">
-        <f>C3*B2/B3</f>
+        <f t="shared" ref="C2:C33" si="0">C3*B2/B3</f>
         <v>1655.1359203864868</v>
       </c>
       <c r="D2" cm="1">
@@ -2319,7 +2400,7 @@
         <v>2720.1</v>
       </c>
       <c r="E2">
-        <f>E3*D2/D3</f>
+        <f t="shared" ref="E2:E33" si="1">E3*D2/D3</f>
         <v>7299.3838127260397</v>
       </c>
       <c r="F2" cm="1">
@@ -2327,7 +2408,7 @@
         <v>7119.7</v>
       </c>
       <c r="G2">
-        <f>G3*F2/F3</f>
+        <f t="shared" ref="G2:G33" si="2">G3*F2/F3</f>
         <v>20256.248476688404</v>
       </c>
       <c r="H2">
@@ -2343,21 +2424,21 @@
         <v>1546.6</v>
       </c>
       <c r="C3">
-        <f>C4*B3/B4</f>
+        <f t="shared" si="0"/>
         <v>1734.1868535124586</v>
       </c>
       <c r="D3">
         <v>2732.7</v>
       </c>
       <c r="E3">
-        <f>E4*D3/D4</f>
+        <f t="shared" si="1"/>
         <v>7333.1958917085585</v>
       </c>
       <c r="F3">
         <v>7199.1</v>
       </c>
       <c r="G3">
-        <f>G4*F3/F4</f>
+        <f t="shared" si="2"/>
         <v>20482.149305241441</v>
       </c>
       <c r="H3" t="str">
@@ -2373,21 +2454,21 @@
         <v>1661.3</v>
       </c>
       <c r="C4">
-        <f>C5*B4/B5</f>
+        <f t="shared" si="0"/>
         <v>1862.7987971940045</v>
       </c>
       <c r="D4">
         <v>2774.7</v>
       </c>
       <c r="E4">
-        <f>E5*D4/D5</f>
+        <f t="shared" si="1"/>
         <v>7445.9028216502857</v>
       </c>
       <c r="F4">
         <v>7320.6</v>
       </c>
       <c r="G4">
-        <f>G5*F4/F5</f>
+        <f t="shared" si="2"/>
         <v>20827.82878470232</v>
       </c>
       <c r="H4" t="str">
@@ -2403,21 +2484,21 @@
         <v>1853.4</v>
       </c>
       <c r="C5">
-        <f>C6*B5/B6</f>
+        <f t="shared" si="0"/>
         <v>2078.1985738393837</v>
       </c>
       <c r="D5">
         <v>2893.3</v>
       </c>
       <c r="E5">
-        <f>E6*D5/D6</f>
+        <f t="shared" si="1"/>
         <v>7764.1657238190701</v>
       </c>
       <c r="F5">
         <v>7454.1</v>
       </c>
       <c r="G5">
-        <f>G6*F5/F6</f>
+        <f t="shared" si="2"/>
         <v>21207.649447319833</v>
       </c>
       <c r="H5" t="str">
@@ -2433,21 +2514,21 @@
         <v>1862.8</v>
       </c>
       <c r="C6">
-        <f>C7*B6/B7</f>
+        <f t="shared" si="0"/>
         <v>2088.7386982561798</v>
       </c>
       <c r="D6">
         <v>3042</v>
       </c>
       <c r="E6">
-        <f>E7*D6/D7</f>
+        <f t="shared" si="1"/>
         <v>8163.2019257794245</v>
       </c>
       <c r="F6">
         <v>7594.2</v>
       </c>
       <c r="G6">
-        <f>G7*F6/F7</f>
+        <f t="shared" si="2"/>
         <v>21606.24776067349</v>
       </c>
       <c r="H6">
@@ -2463,21 +2544,21 @@
         <v>1985.7</v>
       </c>
       <c r="C7">
-        <f>C8*B7/B8</f>
+        <f t="shared" si="0"/>
         <v>2226.5452185566332</v>
       </c>
       <c r="D7">
         <v>3064.3</v>
       </c>
       <c r="E7">
-        <f>E8*D7/D8</f>
+        <f t="shared" si="1"/>
         <v>8223.043938581819</v>
       </c>
       <c r="F7">
         <v>7740.5</v>
       </c>
       <c r="G7">
-        <f>G8*F7/F8</f>
+        <f t="shared" si="2"/>
         <v>22022.48568532474</v>
       </c>
       <c r="H7" t="str">
@@ -2493,21 +2574,21 @@
         <v>2174.8000000000002</v>
       </c>
       <c r="C8">
-        <f>C9*B8/B9</f>
+        <f t="shared" si="0"/>
         <v>2438.5811257072905</v>
       </c>
       <c r="D8">
         <v>3170.1</v>
       </c>
       <c r="E8">
-        <f>E9*D8/D9</f>
+        <f t="shared" si="1"/>
         <v>8506.9580621016939</v>
       </c>
       <c r="F8">
         <v>7857.8</v>
       </c>
       <c r="G8">
-        <f>G9*F8/F9</f>
+        <f t="shared" si="2"/>
         <v>22356.215750680803</v>
       </c>
       <c r="H8" t="str">
@@ -2523,21 +2604,21 @@
         <v>2415.1999999999998</v>
       </c>
       <c r="C9">
-        <f>C10*B9/B10</f>
+        <f t="shared" si="0"/>
         <v>2708.1392012176971</v>
       </c>
       <c r="D9">
         <v>3231.6</v>
       </c>
       <c r="E9">
-        <f>E10*D9/D10</f>
+        <f t="shared" si="1"/>
         <v>8671.9932095163676</v>
       </c>
       <c r="F9">
         <v>7945.6</v>
       </c>
       <c r="G9">
-        <f>G10*F9/F10</f>
+        <f t="shared" si="2"/>
         <v>22606.015407443483</v>
       </c>
       <c r="H9" t="str">
@@ -2553,21 +2634,21 @@
         <v>2307.3000000000002</v>
       </c>
       <c r="C10">
-        <f>C11*B10/B11</f>
+        <f t="shared" si="0"/>
         <v>2587.1520283908553</v>
       </c>
       <c r="D10">
         <v>3328.1</v>
       </c>
       <c r="E10">
-        <f>E11*D10/D11</f>
+        <f t="shared" si="1"/>
         <v>8930.9507985491473</v>
       </c>
       <c r="F10">
         <v>8084.5</v>
       </c>
       <c r="G10">
-        <f>G11*F10/F11</f>
+        <f t="shared" si="2"/>
         <v>23001.199602481476</v>
       </c>
       <c r="H10">
@@ -2583,21 +2664,21 @@
         <v>2536.3000000000002</v>
       </c>
       <c r="C11">
-        <f>C12*B11/B12</f>
+        <f t="shared" si="0"/>
         <v>2843.927399821318</v>
       </c>
       <c r="D11">
         <v>3486.8</v>
       </c>
       <c r="E11">
-        <f>E12*D11/D12</f>
+        <f t="shared" si="1"/>
         <v>9356.8219838289624</v>
       </c>
       <c r="F11">
         <v>8207.6</v>
       </c>
       <c r="G11">
-        <f>G12*F11/F12</f>
+        <f t="shared" si="2"/>
         <v>23351.43123969658</v>
       </c>
       <c r="H11" t="str">
@@ -2613,21 +2694,21 @@
         <v>2755.1</v>
       </c>
       <c r="C12">
-        <f>C13*B12/B13</f>
+        <f t="shared" si="0"/>
         <v>3089.2656149697245</v>
       </c>
       <c r="D12">
         <v>3568.3</v>
       </c>
       <c r="E12">
-        <f>E13*D12/D13</f>
+        <f t="shared" si="1"/>
         <v>9575.527097882552</v>
       </c>
       <c r="F12">
         <v>8352.2000000000007</v>
       </c>
       <c r="G12">
-        <f>G13*F12/F13</f>
+        <f t="shared" si="2"/>
         <v>23762.832496733979</v>
       </c>
       <c r="H12" t="str">
@@ -2643,21 +2724,21 @@
         <v>3054.2</v>
       </c>
       <c r="C13">
-        <f>C14*B13/B14</f>
+        <f t="shared" si="0"/>
         <v>3424.6434035935295</v>
       </c>
       <c r="D13">
         <v>3647.9</v>
       </c>
       <c r="E13">
-        <f>E14*D13/D14</f>
+        <f t="shared" si="1"/>
         <v>9789.1335651054451</v>
       </c>
       <c r="F13">
         <v>8524.5</v>
       </c>
       <c r="G13">
-        <f>G14*F13/F14</f>
+        <f t="shared" si="2"/>
         <v>24253.042984891261</v>
       </c>
       <c r="H13" t="str">
@@ -2673,21 +2754,21 @@
         <v>2815.1</v>
       </c>
       <c r="C14">
-        <f>C15*B14/B15</f>
+        <f t="shared" si="0"/>
         <v>3156.5430048641688</v>
       </c>
       <c r="D14">
         <v>3704.8</v>
       </c>
       <c r="E14">
-        <f>E15*D14/D15</f>
+        <f t="shared" si="1"/>
         <v>9941.824620193167</v>
       </c>
       <c r="F14">
         <v>8689.1</v>
       </c>
       <c r="G14">
-        <f>G15*F14/F15</f>
+        <f t="shared" si="2"/>
         <v>24721.346213856374</v>
       </c>
       <c r="H14">
@@ -2703,21 +2784,21 @@
         <v>3095.6</v>
       </c>
       <c r="C15">
-        <f>C16*B15/B16</f>
+        <f t="shared" si="0"/>
         <v>3471.0648026206959</v>
       </c>
       <c r="D15">
         <v>3894.6</v>
       </c>
       <c r="E15">
-        <f>E16*D15/D16</f>
+        <f t="shared" si="1"/>
         <v>10451.152603596498</v>
       </c>
       <c r="F15">
         <v>8856.4</v>
       </c>
       <c r="G15">
-        <f>G16*F15/F16</f>
+        <f t="shared" si="2"/>
         <v>25197.331209031727</v>
       </c>
       <c r="H15" t="str">
@@ -2733,21 +2814,21 @@
         <v>3346.7</v>
       </c>
       <c r="C16">
-        <f>C17*B16/B17</f>
+        <f t="shared" si="0"/>
         <v>3752.6206793289452</v>
       </c>
       <c r="D16">
         <v>3972.9</v>
       </c>
       <c r="E16">
-        <f>E17*D16/D17</f>
+        <f t="shared" si="1"/>
         <v>10661.270522987863</v>
       </c>
       <c r="F16">
         <v>9059.7000000000007</v>
       </c>
       <c r="G16">
-        <f>G17*F16/F17</f>
+        <f t="shared" si="2"/>
         <v>25775.739753676975</v>
       </c>
       <c r="H16" t="str">
@@ -2763,21 +2844,21 @@
         <v>3717.3</v>
       </c>
       <c r="C17">
-        <f>C18*B17/B18</f>
+        <f t="shared" si="0"/>
         <v>4168.1706909102968</v>
       </c>
       <c r="D17">
         <v>4155.6000000000004</v>
       </c>
       <c r="E17">
-        <f>E18*D17/D18</f>
+        <f t="shared" si="1"/>
         <v>11151.545668234379</v>
       </c>
       <c r="F17">
         <v>9231.7999999999993</v>
       </c>
       <c r="G17">
-        <f>G18*F17/F18</f>
+        <f t="shared" si="2"/>
         <v>26265.381222114975</v>
       </c>
       <c r="H17" t="str">
@@ -2793,21 +2874,21 @@
         <v>3403.1</v>
       </c>
       <c r="C18">
-        <f>C19*B18/B19</f>
+        <f t="shared" si="0"/>
         <v>3815.8614258297225</v>
       </c>
       <c r="D18">
         <v>4220.7</v>
       </c>
       <c r="E18">
-        <f>E19*D18/D19</f>
+        <f t="shared" si="1"/>
         <v>11326.241409644057</v>
       </c>
       <c r="F18">
         <v>9399.2000000000007</v>
       </c>
       <c r="G18">
-        <f>G19*F18/F19</f>
+        <f t="shared" si="2"/>
         <v>26741.650727149972</v>
       </c>
       <c r="H18">
@@ -2823,21 +2904,21 @@
         <v>3789.7</v>
       </c>
       <c r="C19">
-        <f>C20*B19/B20</f>
+        <f t="shared" si="0"/>
         <v>4249.3520747162584</v>
       </c>
       <c r="D19">
         <v>4444.2</v>
       </c>
       <c r="E19">
-        <f>E20*D19/D20</f>
+        <f t="shared" si="1"/>
         <v>11926.003286833966</v>
       </c>
       <c r="F19">
         <v>9636.4</v>
       </c>
       <c r="G19">
-        <f>G20*F19/F20</f>
+        <f t="shared" si="2"/>
         <v>27416.508114212695</v>
       </c>
       <c r="H19" t="str">
@@ -2853,21 +2934,21 @@
         <v>4158.6000000000004</v>
       </c>
       <c r="C20">
-        <f>C21*B20/B21</f>
+        <f t="shared" si="0"/>
         <v>4662.995893583934</v>
       </c>
       <c r="D20">
         <v>4572.2</v>
       </c>
       <c r="E20">
-        <f>E21*D20/D21</f>
+        <f t="shared" si="1"/>
         <v>12269.491073323041</v>
       </c>
       <c r="F20">
         <v>9848.9</v>
       </c>
       <c r="G20">
-        <f>G21*F20/F21</f>
+        <f t="shared" si="2"/>
         <v>28021.091565944691</v>
       </c>
       <c r="H20" t="str">
@@ -2883,21 +2964,21 @@
         <v>4680.3</v>
       </c>
       <c r="C21">
-        <f>C22*B21/B22</f>
+        <f t="shared" si="0"/>
         <v>5247.9727987161268</v>
       </c>
       <c r="D21">
         <v>4741.8</v>
       </c>
       <c r="E21">
-        <f>E22*D21/D22</f>
+        <f t="shared" si="1"/>
         <v>12724.612390421067</v>
       </c>
       <c r="F21">
         <v>10163.5</v>
       </c>
       <c r="G21">
-        <f>G22*F21/F22</f>
+        <f t="shared" si="2"/>
         <v>28916.159584367681</v>
       </c>
       <c r="H21" t="str">
@@ -2913,21 +2994,21 @@
         <v>4307</v>
       </c>
       <c r="C22">
-        <f>C23*B22/B23</f>
+        <f t="shared" si="0"/>
         <v>4829.395304589525</v>
       </c>
       <c r="D22">
         <v>4869.1000000000004</v>
       </c>
       <c r="E22">
-        <f>E23*D22/D23</f>
+        <f t="shared" si="1"/>
         <v>13066.22172807778</v>
       </c>
       <c r="F22">
         <v>10433.1</v>
       </c>
       <c r="G22">
-        <f>G23*F22/F23</f>
+        <f t="shared" si="2"/>
         <v>29683.198165953308</v>
       </c>
       <c r="H22">
@@ -2943,21 +3024,21 @@
         <v>4785.1000000000004</v>
       </c>
       <c r="C23">
-        <f>C24*B23/B24</f>
+        <f t="shared" si="0"/>
         <v>5365.4839730650892</v>
       </c>
       <c r="D23">
         <v>4996.6000000000004</v>
       </c>
       <c r="E23">
-        <f>E24*D23/D24</f>
+        <f t="shared" si="1"/>
         <v>13408.367765400882</v>
       </c>
       <c r="F23">
         <v>10498</v>
       </c>
       <c r="G23">
-        <f>G24*F23/F24</f>
+        <f t="shared" si="2"/>
         <v>29867.845064858746</v>
       </c>
       <c r="H23" t="str">
@@ -2973,21 +3054,21 @@
         <v>5255.2</v>
       </c>
       <c r="C24">
-        <f>C25*B24/B25</f>
+        <f t="shared" si="0"/>
         <v>5892.6023228880595</v>
       </c>
       <c r="D24">
         <v>5074.6000000000004</v>
       </c>
       <c r="E24">
-        <f>E25*D24/D25</f>
+        <f t="shared" si="1"/>
         <v>13617.680635292663</v>
       </c>
       <c r="F24">
         <v>10341.5</v>
       </c>
       <c r="G24">
-        <f>G25*F24/F25</f>
+        <f t="shared" si="2"/>
         <v>29422.587134524358</v>
       </c>
       <c r="H24" t="str">
@@ -3003,21 +3084,21 @@
         <v>5619.6</v>
       </c>
       <c r="C25">
-        <f>C26*B25/B26</f>
+        <f t="shared" si="0"/>
         <v>6301.2003375136519</v>
       </c>
       <c r="D25">
         <v>5045.8999999999996</v>
       </c>
       <c r="E25">
-        <f>E26*D25/D26</f>
+        <f t="shared" si="1"/>
         <v>13540.664233165815</v>
       </c>
       <c r="F25">
         <v>10005.200000000001</v>
       </c>
       <c r="G25">
-        <f>G26*F25/F26</f>
+        <f t="shared" si="2"/>
         <v>28465.780476559794</v>
       </c>
       <c r="H25" t="str">
@@ -3033,21 +3114,21 @@
         <v>4852.2</v>
       </c>
       <c r="C26">
-        <f>C27*B26/B27</f>
+        <f t="shared" si="0"/>
         <v>5440.7225207637084</v>
       </c>
       <c r="D26">
         <v>4844.2</v>
       </c>
       <c r="E26">
-        <f>E27*D26/D27</f>
+        <f t="shared" si="1"/>
         <v>12999.402619612329</v>
       </c>
       <c r="F26">
         <v>9652.2999999999993</v>
       </c>
       <c r="G26">
-        <f>G27*F26/F27</f>
+        <f t="shared" si="2"/>
         <v>27461.745181895221</v>
       </c>
       <c r="H26">
@@ -3063,21 +3144,21 @@
         <v>5075.3</v>
       </c>
       <c r="C27">
-        <f>C28*B27/B28</f>
+        <f t="shared" si="0"/>
         <v>5690.8822821878839</v>
       </c>
       <c r="D27">
         <v>4729.8999999999996</v>
       </c>
       <c r="E27">
-        <f>E28*D27/D28</f>
+        <f t="shared" si="1"/>
         <v>12692.678760270912</v>
       </c>
       <c r="F27">
         <v>9511.5</v>
       </c>
       <c r="G27">
-        <f>G28*F27/F28</f>
+        <f t="shared" si="2"/>
         <v>27061.155299524093</v>
       </c>
       <c r="H27" t="str">
@@ -3093,21 +3174,21 @@
         <v>5330.3</v>
       </c>
       <c r="C28">
-        <f>C29*B28/B29</f>
+        <f t="shared" si="0"/>
         <v>5976.8111892392717</v>
       </c>
       <c r="D28">
         <v>4666.7</v>
       </c>
       <c r="E28">
-        <f>E29*D28/D29</f>
+        <f t="shared" si="1"/>
         <v>12523.081665691931</v>
       </c>
       <c r="F28">
         <v>9550.5</v>
       </c>
       <c r="G28">
-        <f>G29*F28/F29</f>
+        <f t="shared" si="2"/>
         <v>27172.11414478314</v>
       </c>
       <c r="H28" t="str">
@@ -3123,21 +3204,21 @@
         <v>5728.1</v>
       </c>
       <c r="C29">
-        <f>C30*B29/B30</f>
+        <f t="shared" si="0"/>
         <v>6422.8602842394366</v>
       </c>
       <c r="D29">
         <v>4746.1000000000004</v>
       </c>
       <c r="E29">
-        <f>E30*D29/D30</f>
+        <f t="shared" si="1"/>
         <v>12736.151433248437</v>
       </c>
       <c r="F29">
         <v>9653.7999999999993</v>
       </c>
       <c r="G29">
-        <f>G30*F29/F30</f>
+        <f t="shared" si="2"/>
         <v>27466.012829789797</v>
       </c>
       <c r="H29" t="str">
@@ -3153,21 +3234,21 @@
         <v>5285.4</v>
       </c>
       <c r="C30">
-        <f>C31*B30/B31</f>
+        <f t="shared" si="0"/>
         <v>5926.4652758015945</v>
       </c>
       <c r="D30">
         <v>4939.7</v>
       </c>
       <c r="E30">
-        <f>E31*D30/D31</f>
+        <f t="shared" si="1"/>
         <v>13255.676710313161</v>
       </c>
       <c r="F30">
         <v>9860.2999999999993</v>
       </c>
       <c r="G30">
-        <f>G31*F30/F31</f>
+        <f t="shared" si="2"/>
         <v>28053.525689943475</v>
       </c>
       <c r="H30">
@@ -3183,21 +3264,21 @@
         <v>5664.7</v>
       </c>
       <c r="C31">
-        <f>C32*B31/B32</f>
+        <f t="shared" si="0"/>
         <v>6351.7705089176397</v>
       </c>
       <c r="D31">
         <v>5016.1000000000004</v>
       </c>
       <c r="E31">
-        <f>E32*D31/D32</f>
+        <f t="shared" si="1"/>
         <v>13460.695982873827</v>
       </c>
       <c r="F31">
         <v>9953.9</v>
       </c>
       <c r="G31">
-        <f>G32*F31/F32</f>
+        <f t="shared" si="2"/>
         <v>28319.826918565192</v>
       </c>
       <c r="H31" t="str">
@@ -3213,21 +3294,21 @@
         <v>6068.9</v>
       </c>
       <c r="C32">
-        <f>C33*B32/B33</f>
+        <f t="shared" si="0"/>
         <v>6804.9958588398786</v>
       </c>
       <c r="D32">
         <v>5006.5</v>
       </c>
       <c r="E32">
-        <f>E33*D32/D33</f>
+        <f t="shared" si="1"/>
         <v>13434.934398887146</v>
       </c>
       <c r="F32">
         <v>10006.1</v>
       </c>
       <c r="G32">
-        <f>G33*F32/F33</f>
+        <f t="shared" si="2"/>
         <v>28468.341065296532</v>
       </c>
       <c r="H32" t="str">
@@ -3243,21 +3324,21 @@
         <v>6598.6</v>
       </c>
       <c r="C33">
-        <f>C34*B33/B34</f>
+        <f t="shared" si="0"/>
         <v>7398.9430826246653</v>
       </c>
       <c r="D33">
         <v>5057</v>
       </c>
       <c r="E33">
-        <f>E34*D33/D34</f>
+        <f t="shared" si="1"/>
         <v>13570.451064650413</v>
       </c>
       <c r="F33">
         <v>10131.799999999999</v>
       </c>
       <c r="G33">
-        <f>G34*F33/F34</f>
+        <f t="shared" si="2"/>
         <v>28825.969958862232</v>
       </c>
       <c r="H33" t="str">
@@ -4312,7 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936FC24A-9338-409B-81D8-45082232D988}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B37"/>
     </sheetView>
   </sheetViews>
@@ -4444,10 +4525,10 @@
       <c r="A14" s="89">
         <v>37987</v>
       </c>
-      <c r="B14" s="116">
+      <c r="B14" s="97">
         <v>5932</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="99">
         <v>124.8</v>
       </c>
     </row>
@@ -4455,10 +4536,10 @@
       <c r="A15" s="89">
         <v>38018</v>
       </c>
-      <c r="B15" s="117">
+      <c r="B15" s="98">
         <v>6141</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="100">
         <v>129.1</v>
       </c>
     </row>
@@ -4466,10 +4547,10 @@
       <c r="A16" s="89">
         <v>38047</v>
       </c>
-      <c r="B16" s="117">
+      <c r="B16" s="98">
         <v>6428</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="100">
         <v>127.6</v>
       </c>
     </row>
@@ -4477,10 +4558,10 @@
       <c r="A17" s="89">
         <v>38078</v>
       </c>
-      <c r="B17" s="117">
+      <c r="B17" s="98">
         <v>6448</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="100">
         <v>125.5</v>
       </c>
     </row>
@@ -4488,10 +4569,10 @@
       <c r="A18" s="89">
         <v>38108</v>
       </c>
-      <c r="B18" s="117">
+      <c r="B18" s="98">
         <v>6524</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="100">
         <v>124.2</v>
       </c>
     </row>
@@ -4499,10 +4580,10 @@
       <c r="A19" s="89">
         <v>38139</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="98">
         <v>7003</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="100">
         <v>125.3</v>
       </c>
     </row>
@@ -4510,10 +4591,10 @@
       <c r="A20" s="89">
         <v>38169</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="98">
         <v>6982</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="100">
         <v>123.3</v>
       </c>
     </row>
@@ -4521,10 +4602,10 @@
       <c r="A21" s="89">
         <v>38200</v>
       </c>
-      <c r="B21" s="117">
+      <c r="B21" s="98">
         <v>6873</v>
       </c>
-      <c r="C21" s="119">
+      <c r="C21" s="100">
         <v>124.2</v>
       </c>
     </row>
@@ -4532,10 +4613,10 @@
       <c r="A22" s="89">
         <v>38231</v>
       </c>
-      <c r="B22" s="117">
+      <c r="B22" s="98">
         <v>6918</v>
       </c>
-      <c r="C22" s="119">
+      <c r="C22" s="100">
         <v>123.5</v>
       </c>
     </row>
@@ -4543,10 +4624,10 @@
       <c r="A23" s="89">
         <v>38261</v>
       </c>
-      <c r="B23" s="117">
+      <c r="B23" s="98">
         <v>6908</v>
       </c>
-      <c r="C23" s="119">
+      <c r="C23" s="100">
         <v>116.7</v>
       </c>
     </row>
@@ -4554,10 +4635,10 @@
       <c r="A24" s="89">
         <v>38292</v>
       </c>
-      <c r="B24" s="117">
+      <c r="B24" s="98">
         <v>7046</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="100">
         <v>116.5</v>
       </c>
     </row>
@@ -4565,10 +4646,10 @@
       <c r="A25" s="89">
         <v>38322</v>
       </c>
-      <c r="B25" s="117">
+      <c r="B25" s="98">
         <v>8799</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="100">
         <v>118.8</v>
       </c>
     </row>
@@ -4576,7 +4657,7 @@
       <c r="A26" s="89">
         <v>38353</v>
       </c>
-      <c r="B26" s="116">
+      <c r="B26" s="97">
         <v>7346</v>
       </c>
     </row>
@@ -4584,7 +4665,7 @@
       <c r="A27" s="89">
         <v>38384</v>
       </c>
-      <c r="B27" s="117">
+      <c r="B27" s="98">
         <v>7465</v>
       </c>
     </row>
@@ -4592,7 +4673,7 @@
       <c r="A28" s="89">
         <v>38412</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="98">
         <v>8093</v>
       </c>
     </row>
@@ -4600,7 +4681,7 @@
       <c r="A29" s="89">
         <v>38443</v>
       </c>
-      <c r="B29" s="117">
+      <c r="B29" s="98">
         <v>8002</v>
       </c>
     </row>
@@ -4608,7 +4689,7 @@
       <c r="A30" s="89">
         <v>38473</v>
       </c>
-      <c r="B30" s="117">
+      <c r="B30" s="98">
         <v>8089</v>
       </c>
     </row>
@@ -4616,7 +4697,7 @@
       <c r="A31" s="89">
         <v>38504</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="98">
         <v>8637</v>
       </c>
     </row>
@@ -4624,7 +4705,7 @@
       <c r="A32" s="89">
         <v>38534</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="98">
         <v>8651</v>
       </c>
     </row>
@@ -4632,7 +4713,7 @@
       <c r="A33" s="89">
         <v>38565</v>
       </c>
-      <c r="B33" s="117">
+      <c r="B33" s="98">
         <v>8616</v>
       </c>
     </row>
@@ -4640,7 +4721,7 @@
       <c r="A34" s="89">
         <v>38596</v>
       </c>
-      <c r="B34" s="117">
+      <c r="B34" s="98">
         <v>8829</v>
       </c>
     </row>
@@ -4648,7 +4729,7 @@
       <c r="A35" s="89">
         <v>38626</v>
       </c>
-      <c r="B35" s="117">
+      <c r="B35" s="98">
         <v>8701</v>
       </c>
     </row>
@@ -4656,7 +4737,7 @@
       <c r="A36" s="89">
         <v>38657</v>
       </c>
-      <c r="B36" s="117">
+      <c r="B36" s="98">
         <v>8931</v>
       </c>
     </row>
@@ -4664,7 +4745,7 @@
       <c r="A37" s="89">
         <v>38687</v>
       </c>
-      <c r="B37" s="117">
+      <c r="B37" s="98">
         <v>11075</v>
       </c>
     </row>
@@ -4830,6 +4911,4602 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33766F8-B43C-4BAD-9ABC-C3C2ED24B4D0}">
+  <dimension ref="A1:B283"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="89">
+        <v>36892</v>
+      </c>
+      <c r="B2">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="89">
+        <v>36923</v>
+      </c>
+      <c r="B3">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
+        <v>36951</v>
+      </c>
+      <c r="B4">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
+        <v>36982</v>
+      </c>
+      <c r="B5">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
+        <v>37012</v>
+      </c>
+      <c r="B6">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
+        <v>37043</v>
+      </c>
+      <c r="B7">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>37073</v>
+      </c>
+      <c r="B8">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
+        <v>37104</v>
+      </c>
+      <c r="B9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>37135</v>
+      </c>
+      <c r="B10">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
+        <v>37165</v>
+      </c>
+      <c r="B11">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="89">
+        <v>37196</v>
+      </c>
+      <c r="B12">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>37226</v>
+      </c>
+      <c r="B13">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
+        <v>37257</v>
+      </c>
+      <c r="B14">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>37288</v>
+      </c>
+      <c r="B15">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="89">
+        <v>37316</v>
+      </c>
+      <c r="B16">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>37347</v>
+      </c>
+      <c r="B17">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
+        <v>37377</v>
+      </c>
+      <c r="B18">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>37408</v>
+      </c>
+      <c r="B19">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="89">
+        <v>37438</v>
+      </c>
+      <c r="B20">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
+        <v>37469</v>
+      </c>
+      <c r="B21">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
+        <v>37500</v>
+      </c>
+      <c r="B22">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>37530</v>
+      </c>
+      <c r="B23">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
+        <v>37561</v>
+      </c>
+      <c r="B24">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="89">
+        <v>37591</v>
+      </c>
+      <c r="B25">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="89">
+        <v>37622</v>
+      </c>
+      <c r="B26">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="89">
+        <v>37653</v>
+      </c>
+      <c r="B27">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="89">
+        <v>37681</v>
+      </c>
+      <c r="B28">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="89">
+        <v>37712</v>
+      </c>
+      <c r="B29">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="89">
+        <v>37742</v>
+      </c>
+      <c r="B30">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="89">
+        <v>37773</v>
+      </c>
+      <c r="B31">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="89">
+        <v>37803</v>
+      </c>
+      <c r="B32">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="89">
+        <v>37834</v>
+      </c>
+      <c r="B33">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="89">
+        <v>37865</v>
+      </c>
+      <c r="B34">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="89">
+        <v>37895</v>
+      </c>
+      <c r="B35">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="89">
+        <v>37926</v>
+      </c>
+      <c r="B36">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="89">
+        <v>37956</v>
+      </c>
+      <c r="B37">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="89">
+        <v>37987</v>
+      </c>
+      <c r="B38">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="89">
+        <v>38018</v>
+      </c>
+      <c r="B39">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="89">
+        <v>38047</v>
+      </c>
+      <c r="B40">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="89">
+        <v>38078</v>
+      </c>
+      <c r="B41">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="89">
+        <v>38108</v>
+      </c>
+      <c r="B42">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="89">
+        <v>38139</v>
+      </c>
+      <c r="B43">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="89">
+        <v>38169</v>
+      </c>
+      <c r="B44">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="89">
+        <v>38200</v>
+      </c>
+      <c r="B45">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="89">
+        <v>38231</v>
+      </c>
+      <c r="B46">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="89">
+        <v>38261</v>
+      </c>
+      <c r="B47">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="89">
+        <v>38292</v>
+      </c>
+      <c r="B48">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="89">
+        <v>38322</v>
+      </c>
+      <c r="B49">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="89">
+        <v>38353</v>
+      </c>
+      <c r="B50">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="89">
+        <v>38384</v>
+      </c>
+      <c r="B51">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="89">
+        <v>38412</v>
+      </c>
+      <c r="B52">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="89">
+        <v>38443</v>
+      </c>
+      <c r="B53">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="89">
+        <v>38473</v>
+      </c>
+      <c r="B54">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="89">
+        <v>38504</v>
+      </c>
+      <c r="B55">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="89">
+        <v>38534</v>
+      </c>
+      <c r="B56">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="89">
+        <v>38565</v>
+      </c>
+      <c r="B57">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="89">
+        <v>38596</v>
+      </c>
+      <c r="B58">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="89">
+        <v>38626</v>
+      </c>
+      <c r="B59">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="89">
+        <v>38657</v>
+      </c>
+      <c r="B60">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="89">
+        <v>38687</v>
+      </c>
+      <c r="B61">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="89">
+        <v>38718</v>
+      </c>
+      <c r="B62">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="89">
+        <v>38749</v>
+      </c>
+      <c r="B63">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="89">
+        <v>38777</v>
+      </c>
+      <c r="B64">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="89">
+        <v>38808</v>
+      </c>
+      <c r="B65">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="89">
+        <v>38838</v>
+      </c>
+      <c r="B66">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="89">
+        <v>38869</v>
+      </c>
+      <c r="B67">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="89">
+        <v>38899</v>
+      </c>
+      <c r="B68">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="89">
+        <v>38930</v>
+      </c>
+      <c r="B69">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="89">
+        <v>38961</v>
+      </c>
+      <c r="B70">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="89">
+        <v>38991</v>
+      </c>
+      <c r="B71">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="89">
+        <v>39022</v>
+      </c>
+      <c r="B72">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="89">
+        <v>39052</v>
+      </c>
+      <c r="B73">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="89">
+        <v>39083</v>
+      </c>
+      <c r="B74">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="89">
+        <v>39114</v>
+      </c>
+      <c r="B75">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="89">
+        <v>39142</v>
+      </c>
+      <c r="B76">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="89">
+        <v>39173</v>
+      </c>
+      <c r="B77">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="89">
+        <v>39203</v>
+      </c>
+      <c r="B78">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="89">
+        <v>39234</v>
+      </c>
+      <c r="B79">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="89">
+        <v>39264</v>
+      </c>
+      <c r="B80">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="89">
+        <v>39295</v>
+      </c>
+      <c r="B81">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="89">
+        <v>39326</v>
+      </c>
+      <c r="B82">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="89">
+        <v>39356</v>
+      </c>
+      <c r="B83">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="89">
+        <v>39387</v>
+      </c>
+      <c r="B84">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="89">
+        <v>39417</v>
+      </c>
+      <c r="B85">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="89">
+        <v>39448</v>
+      </c>
+      <c r="B86">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="89">
+        <v>39479</v>
+      </c>
+      <c r="B87">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="89">
+        <v>39508</v>
+      </c>
+      <c r="B88">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="89">
+        <v>39539</v>
+      </c>
+      <c r="B89">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="89">
+        <v>39569</v>
+      </c>
+      <c r="B90">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="89">
+        <v>39600</v>
+      </c>
+      <c r="B91">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="89">
+        <v>39630</v>
+      </c>
+      <c r="B92">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="89">
+        <v>39661</v>
+      </c>
+      <c r="B93">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="89">
+        <v>39692</v>
+      </c>
+      <c r="B94">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="89">
+        <v>39722</v>
+      </c>
+      <c r="B95">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="89">
+        <v>39753</v>
+      </c>
+      <c r="B96">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="89">
+        <v>39783</v>
+      </c>
+      <c r="B97">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="89">
+        <v>39814</v>
+      </c>
+      <c r="B98">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="89">
+        <v>39845</v>
+      </c>
+      <c r="B99">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="89">
+        <v>39873</v>
+      </c>
+      <c r="B100">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="89">
+        <v>39904</v>
+      </c>
+      <c r="B101">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="89">
+        <v>39934</v>
+      </c>
+      <c r="B102">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="89">
+        <v>39965</v>
+      </c>
+      <c r="B103">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="89">
+        <v>39995</v>
+      </c>
+      <c r="B104">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="89">
+        <v>40026</v>
+      </c>
+      <c r="B105">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="89">
+        <v>40057</v>
+      </c>
+      <c r="B106">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="89">
+        <v>40087</v>
+      </c>
+      <c r="B107">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="89">
+        <v>40118</v>
+      </c>
+      <c r="B108">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="89">
+        <v>40148</v>
+      </c>
+      <c r="B109">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="89">
+        <v>40179</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="89">
+        <v>40210</v>
+      </c>
+      <c r="B111">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="89">
+        <v>40238</v>
+      </c>
+      <c r="B112">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="89">
+        <v>40269</v>
+      </c>
+      <c r="B113">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="89">
+        <v>40299</v>
+      </c>
+      <c r="B114">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="89">
+        <v>40330</v>
+      </c>
+      <c r="B115">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="89">
+        <v>40360</v>
+      </c>
+      <c r="B116">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="89">
+        <v>40391</v>
+      </c>
+      <c r="B117">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="89">
+        <v>40422</v>
+      </c>
+      <c r="B118">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="89">
+        <v>40452</v>
+      </c>
+      <c r="B119">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="89">
+        <v>40483</v>
+      </c>
+      <c r="B120">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="89">
+        <v>40513</v>
+      </c>
+      <c r="B121">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="89">
+        <v>40544</v>
+      </c>
+      <c r="B122">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="89">
+        <v>40575</v>
+      </c>
+      <c r="B123">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="89">
+        <v>40603</v>
+      </c>
+      <c r="B124">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="89">
+        <v>40634</v>
+      </c>
+      <c r="B125">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="89">
+        <v>40664</v>
+      </c>
+      <c r="B126">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="89">
+        <v>40695</v>
+      </c>
+      <c r="B127">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="89">
+        <v>40725</v>
+      </c>
+      <c r="B128">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="89">
+        <v>40756</v>
+      </c>
+      <c r="B129">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="89">
+        <v>40787</v>
+      </c>
+      <c r="B130">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="89">
+        <v>40817</v>
+      </c>
+      <c r="B131">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="89">
+        <v>40848</v>
+      </c>
+      <c r="B132">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="89">
+        <v>40878</v>
+      </c>
+      <c r="B133">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="89">
+        <v>40909</v>
+      </c>
+      <c r="B134">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="89">
+        <v>40940</v>
+      </c>
+      <c r="B135">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="89">
+        <v>40969</v>
+      </c>
+      <c r="B136">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="89">
+        <v>41000</v>
+      </c>
+      <c r="B137">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="89">
+        <v>41030</v>
+      </c>
+      <c r="B138">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="89">
+        <v>41061</v>
+      </c>
+      <c r="B139">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="89">
+        <v>41091</v>
+      </c>
+      <c r="B140">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="89">
+        <v>41122</v>
+      </c>
+      <c r="B141">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="89">
+        <v>41153</v>
+      </c>
+      <c r="B142">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="89">
+        <v>41183</v>
+      </c>
+      <c r="B143">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="89">
+        <v>41214</v>
+      </c>
+      <c r="B144">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="89">
+        <v>41244</v>
+      </c>
+      <c r="B145">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="89">
+        <v>41275</v>
+      </c>
+      <c r="B146">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="89">
+        <v>41306</v>
+      </c>
+      <c r="B147">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="89">
+        <v>41334</v>
+      </c>
+      <c r="B148">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="89">
+        <v>41365</v>
+      </c>
+      <c r="B149">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="89">
+        <v>41395</v>
+      </c>
+      <c r="B150">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="89">
+        <v>41426</v>
+      </c>
+      <c r="B151">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="89">
+        <v>41456</v>
+      </c>
+      <c r="B152">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="89">
+        <v>41487</v>
+      </c>
+      <c r="B153">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="89">
+        <v>41518</v>
+      </c>
+      <c r="B154">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="89">
+        <v>41548</v>
+      </c>
+      <c r="B155">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="89">
+        <v>41579</v>
+      </c>
+      <c r="B156">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="89">
+        <v>41609</v>
+      </c>
+      <c r="B157">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="89">
+        <v>41640</v>
+      </c>
+      <c r="B158">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="89">
+        <v>41671</v>
+      </c>
+      <c r="B159">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="89">
+        <v>41699</v>
+      </c>
+      <c r="B160">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="89">
+        <v>41730</v>
+      </c>
+      <c r="B161">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="89">
+        <v>41760</v>
+      </c>
+      <c r="B162">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="89">
+        <v>41791</v>
+      </c>
+      <c r="B163">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="89">
+        <v>41821</v>
+      </c>
+      <c r="B164">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="89">
+        <v>41852</v>
+      </c>
+      <c r="B165">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="89">
+        <v>41883</v>
+      </c>
+      <c r="B166">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="89">
+        <v>41913</v>
+      </c>
+      <c r="B167">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="89">
+        <v>41944</v>
+      </c>
+      <c r="B168">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="89">
+        <v>41974</v>
+      </c>
+      <c r="B169">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="89">
+        <v>42005</v>
+      </c>
+      <c r="B170">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="89">
+        <v>42036</v>
+      </c>
+      <c r="B171">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="89">
+        <v>42064</v>
+      </c>
+      <c r="B172">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="89">
+        <v>42095</v>
+      </c>
+      <c r="B173">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="89">
+        <v>42125</v>
+      </c>
+      <c r="B174">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="89">
+        <v>42156</v>
+      </c>
+      <c r="B175">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="89">
+        <v>42186</v>
+      </c>
+      <c r="B176">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="89">
+        <v>42217</v>
+      </c>
+      <c r="B177">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="89">
+        <v>42248</v>
+      </c>
+      <c r="B178">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="89">
+        <v>42278</v>
+      </c>
+      <c r="B179">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="89">
+        <v>42309</v>
+      </c>
+      <c r="B180">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="89">
+        <v>42339</v>
+      </c>
+      <c r="B181">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="89">
+        <v>42370</v>
+      </c>
+      <c r="B182">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="89">
+        <v>42401</v>
+      </c>
+      <c r="B183">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="89">
+        <v>42430</v>
+      </c>
+      <c r="B184">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="89">
+        <v>42461</v>
+      </c>
+      <c r="B185">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="89">
+        <v>42491</v>
+      </c>
+      <c r="B186">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="89">
+        <v>42522</v>
+      </c>
+      <c r="B187">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="89">
+        <v>42552</v>
+      </c>
+      <c r="B188">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="89">
+        <v>42583</v>
+      </c>
+      <c r="B189">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="89">
+        <v>42614</v>
+      </c>
+      <c r="B190">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="89">
+        <v>42644</v>
+      </c>
+      <c r="B191">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="89">
+        <v>42675</v>
+      </c>
+      <c r="B192">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="89">
+        <v>42705</v>
+      </c>
+      <c r="B193">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="89">
+        <v>42736</v>
+      </c>
+      <c r="B194">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="89">
+        <v>42767</v>
+      </c>
+      <c r="B195">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="89">
+        <v>42795</v>
+      </c>
+      <c r="B196">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="89">
+        <v>42826</v>
+      </c>
+      <c r="B197">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="89">
+        <v>42856</v>
+      </c>
+      <c r="B198">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="89">
+        <v>42887</v>
+      </c>
+      <c r="B199">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="89">
+        <v>42917</v>
+      </c>
+      <c r="B200">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="89">
+        <v>42948</v>
+      </c>
+      <c r="B201">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="89">
+        <v>42979</v>
+      </c>
+      <c r="B202">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="89">
+        <v>43009</v>
+      </c>
+      <c r="B203">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="89">
+        <v>43040</v>
+      </c>
+      <c r="B204">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="89">
+        <v>43070</v>
+      </c>
+      <c r="B205">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="89">
+        <v>43101</v>
+      </c>
+      <c r="B206">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="89">
+        <v>43132</v>
+      </c>
+      <c r="B207">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="89">
+        <v>43160</v>
+      </c>
+      <c r="B208">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="89">
+        <v>43191</v>
+      </c>
+      <c r="B209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="89">
+        <v>43221</v>
+      </c>
+      <c r="B210">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="89">
+        <v>43252</v>
+      </c>
+      <c r="B211">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="89">
+        <v>43282</v>
+      </c>
+      <c r="B212">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="89">
+        <v>43313</v>
+      </c>
+      <c r="B213">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="89">
+        <v>43344</v>
+      </c>
+      <c r="B214">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="89">
+        <v>43374</v>
+      </c>
+      <c r="B215">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="89">
+        <v>43405</v>
+      </c>
+      <c r="B216">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="89">
+        <v>43435</v>
+      </c>
+      <c r="B217">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="89">
+        <v>43466</v>
+      </c>
+      <c r="B218">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="89">
+        <v>43497</v>
+      </c>
+      <c r="B219">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="89">
+        <v>43525</v>
+      </c>
+      <c r="B220">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="89">
+        <v>43556</v>
+      </c>
+      <c r="B221">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="89">
+        <v>43586</v>
+      </c>
+      <c r="B222">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="89">
+        <v>43617</v>
+      </c>
+      <c r="B223">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="89">
+        <v>43647</v>
+      </c>
+      <c r="B224">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="89">
+        <v>43678</v>
+      </c>
+      <c r="B225">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="89">
+        <v>43709</v>
+      </c>
+      <c r="B226">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="89">
+        <v>43739</v>
+      </c>
+      <c r="B227">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="89">
+        <v>43770</v>
+      </c>
+      <c r="B228">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="89">
+        <v>43800</v>
+      </c>
+      <c r="B229">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="89">
+        <v>43831</v>
+      </c>
+      <c r="B230">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="89">
+        <v>43862</v>
+      </c>
+      <c r="B231">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="89">
+        <v>43891</v>
+      </c>
+      <c r="B232">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="89">
+        <v>43922</v>
+      </c>
+      <c r="B233">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="89">
+        <v>43952</v>
+      </c>
+      <c r="B234">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="89">
+        <v>43983</v>
+      </c>
+      <c r="B235">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="89">
+        <v>44013</v>
+      </c>
+      <c r="B236">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="89">
+        <v>44044</v>
+      </c>
+      <c r="B237">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="89">
+        <v>44075</v>
+      </c>
+      <c r="B238">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="89">
+        <v>44105</v>
+      </c>
+      <c r="B239">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="89">
+        <v>44136</v>
+      </c>
+      <c r="B240">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="89">
+        <v>44166</v>
+      </c>
+      <c r="B241">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="89">
+        <v>44197</v>
+      </c>
+      <c r="B242">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="89">
+        <v>44228</v>
+      </c>
+      <c r="B243">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="89">
+        <v>44256</v>
+      </c>
+      <c r="B244">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="89">
+        <v>44287</v>
+      </c>
+      <c r="B245">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="89">
+        <v>44317</v>
+      </c>
+      <c r="B246">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="89">
+        <v>44348</v>
+      </c>
+      <c r="B247">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="89">
+        <v>44378</v>
+      </c>
+      <c r="B248">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="89">
+        <v>44409</v>
+      </c>
+      <c r="B249">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="89">
+        <v>44440</v>
+      </c>
+      <c r="B250">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="89">
+        <v>44470</v>
+      </c>
+      <c r="B251">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="89">
+        <v>44501</v>
+      </c>
+      <c r="B252">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="89">
+        <v>44531</v>
+      </c>
+      <c r="B253">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="89">
+        <v>44562</v>
+      </c>
+      <c r="B254">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="89">
+        <v>44593</v>
+      </c>
+      <c r="B255">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="89">
+        <v>44621</v>
+      </c>
+      <c r="B256">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="89">
+        <v>44652</v>
+      </c>
+      <c r="B257">
+        <v>17.079999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="89">
+        <v>44682</v>
+      </c>
+      <c r="B258">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="89">
+        <v>44713</v>
+      </c>
+      <c r="B259">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="89">
+        <v>44743</v>
+      </c>
+      <c r="B260">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="89">
+        <v>44774</v>
+      </c>
+      <c r="B261">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="89">
+        <v>44805</v>
+      </c>
+      <c r="B262">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="89">
+        <v>44835</v>
+      </c>
+      <c r="B263">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="89">
+        <v>44866</v>
+      </c>
+      <c r="B264">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="89">
+        <v>44896</v>
+      </c>
+      <c r="B265">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="89">
+        <v>44927</v>
+      </c>
+      <c r="B266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="89">
+        <v>44958</v>
+      </c>
+      <c r="B267">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="89">
+        <v>44986</v>
+      </c>
+      <c r="B268">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="89">
+        <v>45017</v>
+      </c>
+      <c r="B269">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="89">
+        <v>45047</v>
+      </c>
+      <c r="B270">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="89">
+        <v>45078</v>
+      </c>
+      <c r="B271">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="89">
+        <v>45108</v>
+      </c>
+      <c r="B272">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="89">
+        <v>45139</v>
+      </c>
+      <c r="B273">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="89">
+        <v>45170</v>
+      </c>
+      <c r="B274">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="89">
+        <v>45200</v>
+      </c>
+      <c r="B275">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="89">
+        <v>45231</v>
+      </c>
+      <c r="B276">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="89">
+        <v>45261</v>
+      </c>
+      <c r="B277">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="89">
+        <v>45292</v>
+      </c>
+      <c r="B278">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="89">
+        <v>45323</v>
+      </c>
+      <c r="B279">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="89">
+        <v>45352</v>
+      </c>
+      <c r="B280">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="89">
+        <v>45383</v>
+      </c>
+      <c r="B281">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="89">
+        <v>45413</v>
+      </c>
+      <c r="B282">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B283">
+        <v>15.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FD6A8-B1DB-4059-95A8-AF48D2730E12}">
+  <dimension ref="A1:B287"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="126">
+        <v>36892</v>
+      </c>
+      <c r="B2" s="122">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="127">
+        <v>36923</v>
+      </c>
+      <c r="B3" s="123">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="127">
+        <v>36951</v>
+      </c>
+      <c r="B4" s="123">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="127">
+        <v>36982</v>
+      </c>
+      <c r="B5" s="123">
+        <v>24.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="127">
+        <v>37012</v>
+      </c>
+      <c r="B6" s="123">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A7" s="127">
+        <v>37043</v>
+      </c>
+      <c r="B7" s="123">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A8" s="127">
+        <v>37073</v>
+      </c>
+      <c r="B8" s="123">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A9" s="127">
+        <v>37104</v>
+      </c>
+      <c r="B9" s="123">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A10" s="127">
+        <v>37135</v>
+      </c>
+      <c r="B10" s="123">
+        <v>24.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A11" s="127">
+        <v>37165</v>
+      </c>
+      <c r="B11" s="123">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A12" s="127">
+        <v>37196</v>
+      </c>
+      <c r="B12" s="123">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A13" s="127">
+        <v>37226</v>
+      </c>
+      <c r="B13" s="123">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A14" s="127">
+        <v>37257</v>
+      </c>
+      <c r="B14" s="123">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A15" s="127">
+        <v>37288</v>
+      </c>
+      <c r="B15" s="123">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A16" s="127">
+        <v>37316</v>
+      </c>
+      <c r="B16" s="123">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A17" s="127">
+        <v>37347</v>
+      </c>
+      <c r="B17" s="123">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A18" s="127">
+        <v>37377</v>
+      </c>
+      <c r="B18" s="123">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A19" s="127">
+        <v>37408</v>
+      </c>
+      <c r="B19" s="123">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A20" s="127">
+        <v>37438</v>
+      </c>
+      <c r="B20" s="123">
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A21" s="127">
+        <v>37469</v>
+      </c>
+      <c r="B21" s="123">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A22" s="127">
+        <v>37500</v>
+      </c>
+      <c r="B22" s="123">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A23" s="127">
+        <v>37530</v>
+      </c>
+      <c r="B23" s="123">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A24" s="127">
+        <v>37561</v>
+      </c>
+      <c r="B24" s="123">
+        <v>24.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A25" s="127">
+        <v>37591</v>
+      </c>
+      <c r="B25" s="123">
+        <v>27.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A26" s="127">
+        <v>37622</v>
+      </c>
+      <c r="B26" s="123">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A27" s="127">
+        <v>37653</v>
+      </c>
+      <c r="B27" s="123">
+        <v>31.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A28" s="127">
+        <v>37681</v>
+      </c>
+      <c r="B28" s="123">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A29" s="127">
+        <v>37712</v>
+      </c>
+      <c r="B29" s="123">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A30" s="127">
+        <v>37742</v>
+      </c>
+      <c r="B30" s="123">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A31" s="127">
+        <v>37773</v>
+      </c>
+      <c r="B31" s="123">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A32" s="127">
+        <v>37803</v>
+      </c>
+      <c r="B32" s="123">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A33" s="127">
+        <v>37834</v>
+      </c>
+      <c r="B33" s="123">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A34" s="127">
+        <v>37865</v>
+      </c>
+      <c r="B34" s="123">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A35" s="127">
+        <v>37895</v>
+      </c>
+      <c r="B35" s="123">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A36" s="127">
+        <v>37926</v>
+      </c>
+      <c r="B36" s="123">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A37" s="127">
+        <v>37956</v>
+      </c>
+      <c r="B37" s="123">
+        <v>28.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A38" s="127">
+        <v>37987</v>
+      </c>
+      <c r="B38" s="123">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A39" s="127">
+        <v>38018</v>
+      </c>
+      <c r="B39" s="123">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A40" s="127">
+        <v>38047</v>
+      </c>
+      <c r="B40" s="123">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A41" s="127">
+        <v>38078</v>
+      </c>
+      <c r="B41" s="123">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A42" s="127">
+        <v>38108</v>
+      </c>
+      <c r="B42" s="123">
+        <v>35.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A43" s="127">
+        <v>38139</v>
+      </c>
+      <c r="B43" s="123">
+        <v>32.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A44" s="127">
+        <v>38169</v>
+      </c>
+      <c r="B44" s="123">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A45" s="127">
+        <v>38200</v>
+      </c>
+      <c r="B45" s="123">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A46" s="127">
+        <v>38231</v>
+      </c>
+      <c r="B46" s="123">
+        <v>37.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A47" s="127">
+        <v>38261</v>
+      </c>
+      <c r="B47" s="123">
+        <v>41.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A48" s="127">
+        <v>38292</v>
+      </c>
+      <c r="B48" s="123">
+        <v>37.020000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A49" s="127">
+        <v>38322</v>
+      </c>
+      <c r="B49" s="123">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A50" s="127">
+        <v>38353</v>
+      </c>
+      <c r="B50" s="123">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A51" s="127">
+        <v>38384</v>
+      </c>
+      <c r="B51" s="123">
+        <v>40.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A52" s="127">
+        <v>38412</v>
+      </c>
+      <c r="B52" s="123">
+        <v>47.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A53" s="127">
+        <v>38443</v>
+      </c>
+      <c r="B53" s="123">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A54" s="127">
+        <v>38473</v>
+      </c>
+      <c r="B54" s="123">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A55" s="127">
+        <v>38504</v>
+      </c>
+      <c r="B55" s="123">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A56" s="127">
+        <v>38534</v>
+      </c>
+      <c r="B56" s="123">
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A57" s="127">
+        <v>38565</v>
+      </c>
+      <c r="B57" s="123">
+        <v>59.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A58" s="127">
+        <v>38596</v>
+      </c>
+      <c r="B58" s="123">
+        <v>58.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A59" s="127">
+        <v>38626</v>
+      </c>
+      <c r="B59" s="123">
+        <v>55.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A60" s="127">
+        <v>38657</v>
+      </c>
+      <c r="B60" s="123">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A61" s="127">
+        <v>38687</v>
+      </c>
+      <c r="B61" s="123">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A62" s="127">
+        <v>38718</v>
+      </c>
+      <c r="B62" s="123">
+        <v>59.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A63" s="127">
+        <v>38749</v>
+      </c>
+      <c r="B63" s="123">
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A64" s="127">
+        <v>38777</v>
+      </c>
+      <c r="B64" s="123">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A65" s="127">
+        <v>38808</v>
+      </c>
+      <c r="B65" s="123">
+        <v>65.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A66" s="127">
+        <v>38838</v>
+      </c>
+      <c r="B66" s="123">
+        <v>64.709999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A67" s="127">
+        <v>38869</v>
+      </c>
+      <c r="B67" s="123">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A68" s="127">
+        <v>38899</v>
+      </c>
+      <c r="B68" s="123">
+        <v>69.12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A69" s="127">
+        <v>38930</v>
+      </c>
+      <c r="B69" s="123">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A70" s="127">
+        <v>38961</v>
+      </c>
+      <c r="B70" s="123">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A71" s="127">
+        <v>38991</v>
+      </c>
+      <c r="B71" s="123">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A72" s="127">
+        <v>39022</v>
+      </c>
+      <c r="B72" s="123">
+        <v>55.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A73" s="127">
+        <v>39052</v>
+      </c>
+      <c r="B73" s="123">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A74" s="127">
+        <v>39083</v>
+      </c>
+      <c r="B74" s="123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A75" s="127">
+        <v>39114</v>
+      </c>
+      <c r="B75" s="123">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A76" s="127">
+        <v>39142</v>
+      </c>
+      <c r="B76" s="123">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A77" s="127">
+        <v>39173</v>
+      </c>
+      <c r="B77" s="123">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A78" s="127">
+        <v>39203</v>
+      </c>
+      <c r="B78" s="123">
+        <v>63.98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A79" s="127">
+        <v>39234</v>
+      </c>
+      <c r="B79" s="123">
+        <v>67.680000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A80" s="127">
+        <v>39264</v>
+      </c>
+      <c r="B80" s="123">
+        <v>74.010000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A81" s="127">
+        <v>39295</v>
+      </c>
+      <c r="B81" s="123">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A82" s="127">
+        <v>39326</v>
+      </c>
+      <c r="B82" s="123">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A83" s="127">
+        <v>39356</v>
+      </c>
+      <c r="B83" s="123">
+        <v>79.349999999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A84" s="127">
+        <v>39387</v>
+      </c>
+      <c r="B84" s="123">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A85" s="127">
+        <v>39417</v>
+      </c>
+      <c r="B85" s="123">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A86" s="127">
+        <v>39448</v>
+      </c>
+      <c r="B86" s="123">
+        <v>89.17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A87" s="127">
+        <v>39479</v>
+      </c>
+      <c r="B87" s="123">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A88" s="127">
+        <v>39508</v>
+      </c>
+      <c r="B88" s="123">
+        <v>99.47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A89" s="127">
+        <v>39539</v>
+      </c>
+      <c r="B89" s="123">
+        <v>104.99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A90" s="127">
+        <v>39569</v>
+      </c>
+      <c r="B90" s="123">
+        <v>118.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A91" s="127">
+        <v>39600</v>
+      </c>
+      <c r="B91" s="123">
+        <v>127.35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A92" s="127">
+        <v>39630</v>
+      </c>
+      <c r="B92" s="123">
+        <v>129.30000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A93" s="127">
+        <v>39661</v>
+      </c>
+      <c r="B93" s="123">
+        <v>111.16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A94" s="127">
+        <v>39692</v>
+      </c>
+      <c r="B94" s="123">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A95" s="127">
+        <v>39722</v>
+      </c>
+      <c r="B95" s="123">
+        <v>70.260000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A96" s="127">
+        <v>39753</v>
+      </c>
+      <c r="B96" s="123">
+        <v>50.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A97" s="127">
+        <v>39783</v>
+      </c>
+      <c r="B97" s="123">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A98" s="127">
+        <v>39814</v>
+      </c>
+      <c r="B98" s="123">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A99" s="127">
+        <v>39845</v>
+      </c>
+      <c r="B99" s="123">
+        <v>42.42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A100" s="127">
+        <v>39873</v>
+      </c>
+      <c r="B100" s="123">
+        <v>45.17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A101" s="127">
+        <v>39904</v>
+      </c>
+      <c r="B101" s="123">
+        <v>48.81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A102" s="127">
+        <v>39934</v>
+      </c>
+      <c r="B102" s="123">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A103" s="127">
+        <v>39965</v>
+      </c>
+      <c r="B103" s="123">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A104" s="127">
+        <v>39995</v>
+      </c>
+      <c r="B104" s="123">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A105" s="127">
+        <v>40026</v>
+      </c>
+      <c r="B105" s="123">
+        <v>72.27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A106" s="127">
+        <v>40057</v>
+      </c>
+      <c r="B106" s="123">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A107" s="127">
+        <v>40087</v>
+      </c>
+      <c r="B107" s="123">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A108" s="127">
+        <v>40118</v>
+      </c>
+      <c r="B108" s="123">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A109" s="127">
+        <v>40148</v>
+      </c>
+      <c r="B109" s="123">
+        <v>76.23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A110" s="127">
+        <v>40179</v>
+      </c>
+      <c r="B110" s="123">
+        <v>75.930000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A111" s="127">
+        <v>40210</v>
+      </c>
+      <c r="B111" s="123">
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A112" s="127">
+        <v>40238</v>
+      </c>
+      <c r="B112" s="123">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A113" s="127">
+        <v>40269</v>
+      </c>
+      <c r="B113" s="123">
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A114" s="127">
+        <v>40299</v>
+      </c>
+      <c r="B114" s="123">
+        <v>73.37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A115" s="127">
+        <v>40330</v>
+      </c>
+      <c r="B115" s="123">
+        <v>74.260000000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A116" s="127">
+        <v>40360</v>
+      </c>
+      <c r="B116" s="123">
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A117" s="127">
+        <v>40391</v>
+      </c>
+      <c r="B117" s="123">
+        <v>75.680000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A118" s="127">
+        <v>40422</v>
+      </c>
+      <c r="B118" s="123">
+        <v>77.41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A119" s="127">
+        <v>40452</v>
+      </c>
+      <c r="B119" s="123">
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A120" s="127">
+        <v>40483</v>
+      </c>
+      <c r="B120" s="123">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A121" s="127">
+        <v>40513</v>
+      </c>
+      <c r="B121" s="123">
+        <v>89.52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A122" s="127">
+        <v>40544</v>
+      </c>
+      <c r="B122" s="123">
+        <v>94.13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A123" s="127">
+        <v>40575</v>
+      </c>
+      <c r="B123" s="123">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A124" s="127">
+        <v>40603</v>
+      </c>
+      <c r="B124" s="123">
+        <v>111.35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A125" s="127">
+        <v>40634</v>
+      </c>
+      <c r="B125" s="123">
+        <v>119.54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A126" s="127">
+        <v>40664</v>
+      </c>
+      <c r="B126" s="123">
+        <v>111.68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A127" s="127">
+        <v>40695</v>
+      </c>
+      <c r="B127" s="123">
+        <v>111.95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A128" s="127">
+        <v>40725</v>
+      </c>
+      <c r="B128" s="123">
+        <v>115.47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A129" s="127">
+        <v>40756</v>
+      </c>
+      <c r="B129" s="123">
+        <v>109.48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A130" s="127">
+        <v>40787</v>
+      </c>
+      <c r="B130" s="123">
+        <v>112.54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A131" s="127">
+        <v>40817</v>
+      </c>
+      <c r="B131" s="123">
+        <v>108.69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A132" s="127">
+        <v>40848</v>
+      </c>
+      <c r="B132" s="123">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A133" s="127">
+        <v>40878</v>
+      </c>
+      <c r="B133" s="123">
+        <v>107.91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A134" s="127">
+        <v>40909</v>
+      </c>
+      <c r="B134" s="123">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A135" s="127">
+        <v>40940</v>
+      </c>
+      <c r="B135" s="123">
+        <v>119.17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A136" s="127">
+        <v>40969</v>
+      </c>
+      <c r="B136" s="123">
+        <v>123.15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A137" s="127">
+        <v>41000</v>
+      </c>
+      <c r="B137" s="123">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A138" s="127">
+        <v>41030</v>
+      </c>
+      <c r="B138" s="123">
+        <v>108.89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A139" s="127">
+        <v>41061</v>
+      </c>
+      <c r="B139" s="123">
+        <v>93.31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A140" s="127">
+        <v>41091</v>
+      </c>
+      <c r="B140" s="123">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A141" s="127">
+        <v>41122</v>
+      </c>
+      <c r="B141" s="123">
+        <v>113.24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A142" s="127">
+        <v>41153</v>
+      </c>
+      <c r="B142" s="123">
+        <v>111.66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A143" s="127">
+        <v>41183</v>
+      </c>
+      <c r="B143" s="123">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A144" s="127">
+        <v>41214</v>
+      </c>
+      <c r="B144" s="123">
+        <v>108.44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A145" s="127">
+        <v>41244</v>
+      </c>
+      <c r="B145" s="123">
+        <v>108.67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A146" s="127">
+        <v>41275</v>
+      </c>
+      <c r="B146" s="123">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A147" s="127">
+        <v>41306</v>
+      </c>
+      <c r="B147" s="123">
+        <v>114.57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A148" s="127">
+        <v>41334</v>
+      </c>
+      <c r="B148" s="123">
+        <v>106.56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A149" s="127">
+        <v>41365</v>
+      </c>
+      <c r="B149" s="123">
+        <v>101.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A150" s="127">
+        <v>41395</v>
+      </c>
+      <c r="B150" s="123">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A151" s="127">
+        <v>41426</v>
+      </c>
+      <c r="B151" s="123">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A152" s="127">
+        <v>41456</v>
+      </c>
+      <c r="B152" s="123">
+        <v>108.48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A153" s="127">
+        <v>41487</v>
+      </c>
+      <c r="B153" s="123">
+        <v>111.59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A154" s="127">
+        <v>41518</v>
+      </c>
+      <c r="B154" s="123">
+        <v>110.98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A155" s="127">
+        <v>41548</v>
+      </c>
+      <c r="B155" s="123">
+        <v>107.85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A156" s="127">
+        <v>41579</v>
+      </c>
+      <c r="B156" s="123">
+        <v>107.36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A157" s="127">
+        <v>41609</v>
+      </c>
+      <c r="B157" s="123">
+        <v>109.92</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A158" s="127">
+        <v>41640</v>
+      </c>
+      <c r="B158" s="123">
+        <v>106.73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A159" s="127">
+        <v>41671</v>
+      </c>
+      <c r="B159" s="123">
+        <v>107.72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A160" s="127">
+        <v>41699</v>
+      </c>
+      <c r="B160" s="123">
+        <v>106.76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A161" s="127">
+        <v>41730</v>
+      </c>
+      <c r="B161" s="123">
+        <v>106.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A162" s="127">
+        <v>41760</v>
+      </c>
+      <c r="B162" s="123">
+        <v>107.71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A163" s="127">
+        <v>41791</v>
+      </c>
+      <c r="B163" s="123">
+        <v>109.05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A164" s="127">
+        <v>41821</v>
+      </c>
+      <c r="B164" s="123">
+        <v>105.15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A165" s="127">
+        <v>41852</v>
+      </c>
+      <c r="B165" s="123">
+        <v>100.78</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A166" s="127">
+        <v>41883</v>
+      </c>
+      <c r="B166" s="123">
+        <v>95.62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A167" s="127">
+        <v>41913</v>
+      </c>
+      <c r="B167" s="123">
+        <v>86.35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A168" s="127">
+        <v>41944</v>
+      </c>
+      <c r="B168" s="123">
+        <v>78.319999999999993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A169" s="127">
+        <v>41974</v>
+      </c>
+      <c r="B169" s="123">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A170" s="127">
+        <v>42005</v>
+      </c>
+      <c r="B170" s="123">
+        <v>46.14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A171" s="127">
+        <v>42036</v>
+      </c>
+      <c r="B171" s="123">
+        <v>57.31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A172" s="127">
+        <v>42064</v>
+      </c>
+      <c r="B172" s="123">
+        <v>54.19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A173" s="127">
+        <v>42095</v>
+      </c>
+      <c r="B173" s="123">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A174" s="127">
+        <v>42125</v>
+      </c>
+      <c r="B174" s="123">
+        <v>63.07</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A175" s="127">
+        <v>42156</v>
+      </c>
+      <c r="B175" s="123">
+        <v>60.67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A176" s="127">
+        <v>42186</v>
+      </c>
+      <c r="B176" s="123">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A177" s="127">
+        <v>42217</v>
+      </c>
+      <c r="B177" s="123">
+        <v>45.29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A178" s="127">
+        <v>42248</v>
+      </c>
+      <c r="B178" s="123">
+        <v>46.58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A179" s="127">
+        <v>42278</v>
+      </c>
+      <c r="B179" s="123">
+        <v>46.61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A180" s="127">
+        <v>42309</v>
+      </c>
+      <c r="B180" s="123">
+        <v>41.72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A181" s="127">
+        <v>42339</v>
+      </c>
+      <c r="B181" s="123">
+        <v>36.24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A182" s="127">
+        <v>42370</v>
+      </c>
+      <c r="B182" s="123">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A183" s="127">
+        <v>42401</v>
+      </c>
+      <c r="B183" s="123">
+        <v>30.34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A184" s="127">
+        <v>42430</v>
+      </c>
+      <c r="B184" s="123">
+        <v>36.369999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A185" s="127">
+        <v>42461</v>
+      </c>
+      <c r="B185" s="123">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A186" s="127">
+        <v>42491</v>
+      </c>
+      <c r="B186" s="123">
+        <v>44.59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A187" s="127">
+        <v>42522</v>
+      </c>
+      <c r="B187" s="123">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A188" s="127">
+        <v>42552</v>
+      </c>
+      <c r="B188" s="123">
+        <v>43.31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A189" s="127">
+        <v>42583</v>
+      </c>
+      <c r="B189" s="123">
+        <v>43.69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A190" s="127">
+        <v>42614</v>
+      </c>
+      <c r="B190" s="123">
+        <v>44.22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A191" s="127">
+        <v>42644</v>
+      </c>
+      <c r="B191" s="123">
+        <v>47.74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A192" s="127">
+        <v>42675</v>
+      </c>
+      <c r="B192" s="123">
+        <v>43.53</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A193" s="127">
+        <v>42705</v>
+      </c>
+      <c r="B193" s="123">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A194" s="127">
+        <v>42736</v>
+      </c>
+      <c r="B194" s="123">
+        <v>53.03</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A195" s="127">
+        <v>42767</v>
+      </c>
+      <c r="B195" s="123">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A196" s="127">
+        <v>42795</v>
+      </c>
+      <c r="B196" s="123">
+        <v>49.61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A197" s="127">
+        <v>42826</v>
+      </c>
+      <c r="B197" s="123">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A198" s="127">
+        <v>42856</v>
+      </c>
+      <c r="B198" s="123">
+        <v>48.96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A199" s="127">
+        <v>42887</v>
+      </c>
+      <c r="B199" s="123">
+        <v>45.41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A200" s="127">
+        <v>42917</v>
+      </c>
+      <c r="B200" s="123">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A201" s="127">
+        <v>42948</v>
+      </c>
+      <c r="B201" s="123">
+        <v>51.15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A202" s="127">
+        <v>42979</v>
+      </c>
+      <c r="B202" s="123">
+        <v>54.63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A203" s="127">
+        <v>43009</v>
+      </c>
+      <c r="B203" s="123">
+        <v>56.36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A204" s="127">
+        <v>43040</v>
+      </c>
+      <c r="B204" s="123">
+        <v>62.15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A205" s="127">
+        <v>43070</v>
+      </c>
+      <c r="B205" s="123">
+        <v>63.77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A206" s="127">
+        <v>43101</v>
+      </c>
+      <c r="B206" s="123">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A207" s="127">
+        <v>43132</v>
+      </c>
+      <c r="B207" s="123">
+        <v>63.14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A208" s="127">
+        <v>43160</v>
+      </c>
+      <c r="B208" s="123">
+        <v>63.58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A209" s="127">
+        <v>43191</v>
+      </c>
+      <c r="B209" s="123">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A210" s="127">
+        <v>43221</v>
+      </c>
+      <c r="B210" s="123">
+        <v>75.14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A211" s="127">
+        <v>43252</v>
+      </c>
+      <c r="B211" s="123">
+        <v>73.06</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A212" s="127">
+        <v>43282</v>
+      </c>
+      <c r="B212" s="123">
+        <v>72.84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A213" s="127">
+        <v>43313</v>
+      </c>
+      <c r="B213" s="123">
+        <v>71.52</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A214" s="127">
+        <v>43344</v>
+      </c>
+      <c r="B214" s="123">
+        <v>78.13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A215" s="127">
+        <v>43374</v>
+      </c>
+      <c r="B215" s="123">
+        <v>79.58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A216" s="127">
+        <v>43405</v>
+      </c>
+      <c r="B216" s="123">
+        <v>64.42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A217" s="127">
+        <v>43435</v>
+      </c>
+      <c r="B217" s="123">
+        <v>57.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A218" s="127">
+        <v>43466</v>
+      </c>
+      <c r="B218" s="123">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A219" s="127">
+        <v>43497</v>
+      </c>
+      <c r="B219" s="123">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A220" s="127">
+        <v>43525</v>
+      </c>
+      <c r="B220" s="123">
+        <v>65.959999999999994</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A221" s="127">
+        <v>43556</v>
+      </c>
+      <c r="B221" s="123">
+        <v>71.650000000000006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A222" s="127">
+        <v>43586</v>
+      </c>
+      <c r="B222" s="123">
+        <v>71.28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A223" s="127">
+        <v>43617</v>
+      </c>
+      <c r="B223" s="123">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A224" s="127">
+        <v>43647</v>
+      </c>
+      <c r="B224" s="123">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A225" s="127">
+        <v>43678</v>
+      </c>
+      <c r="B225" s="123">
+        <v>59.24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A226" s="127">
+        <v>43709</v>
+      </c>
+      <c r="B226" s="123">
+        <v>61.13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A227" s="127">
+        <v>43739</v>
+      </c>
+      <c r="B227" s="123">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A228" s="127">
+        <v>43770</v>
+      </c>
+      <c r="B228" s="123">
+        <v>63.77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A229" s="127">
+        <v>43800</v>
+      </c>
+      <c r="B229" s="123">
+        <v>65.47</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A230" s="127">
+        <v>43831</v>
+      </c>
+      <c r="B230" s="123">
+        <v>62.07</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A231" s="127">
+        <v>43862</v>
+      </c>
+      <c r="B231" s="123">
+        <v>54.53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A232" s="127">
+        <v>43891</v>
+      </c>
+      <c r="B232" s="123">
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A233" s="127">
+        <v>43922</v>
+      </c>
+      <c r="B233" s="123">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A234" s="127">
+        <v>43952</v>
+      </c>
+      <c r="B234" s="123">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A235" s="127">
+        <v>43983</v>
+      </c>
+      <c r="B235" s="123">
+        <v>42.06</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A236" s="127">
+        <v>44013</v>
+      </c>
+      <c r="B236" s="123">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A237" s="127">
+        <v>44044</v>
+      </c>
+      <c r="B237" s="123">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A238" s="127">
+        <v>44075</v>
+      </c>
+      <c r="B238" s="123">
+        <v>40.74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A239" s="127">
+        <v>44105</v>
+      </c>
+      <c r="B239" s="123">
+        <v>40.26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A240" s="127">
+        <v>44136</v>
+      </c>
+      <c r="B240" s="123">
+        <v>43.09</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A241" s="127">
+        <v>44166</v>
+      </c>
+      <c r="B241" s="123">
+        <v>49.54</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A242" s="127">
+        <v>44197</v>
+      </c>
+      <c r="B242" s="123">
+        <v>54.56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A243" s="127">
+        <v>44228</v>
+      </c>
+      <c r="B243" s="123">
+        <v>61.09</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A244" s="127">
+        <v>44256</v>
+      </c>
+      <c r="B244" s="123">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A245" s="127">
+        <v>44287</v>
+      </c>
+      <c r="B245" s="123">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A246" s="127">
+        <v>44317</v>
+      </c>
+      <c r="B246" s="123">
+        <v>66.959999999999994</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A247" s="127">
+        <v>44348</v>
+      </c>
+      <c r="B247" s="123">
+        <v>71.459999999999994</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A248" s="127">
+        <v>44378</v>
+      </c>
+      <c r="B248" s="123">
+        <v>72.77</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A249" s="127">
+        <v>44409</v>
+      </c>
+      <c r="B249" s="123">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A250" s="127">
+        <v>44440</v>
+      </c>
+      <c r="B250" s="123">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A251" s="127">
+        <v>44470</v>
+      </c>
+      <c r="B251" s="123">
+        <v>81.709999999999994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A252" s="127">
+        <v>44501</v>
+      </c>
+      <c r="B252" s="123">
+        <v>79.98</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A253" s="127">
+        <v>44531</v>
+      </c>
+      <c r="B253" s="123">
+        <v>72.88</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A254" s="127">
+        <v>44562</v>
+      </c>
+      <c r="B254" s="123">
+        <v>86.38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A255" s="127">
+        <v>44593</v>
+      </c>
+      <c r="B255" s="123">
+        <v>93.72</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A256" s="127">
+        <v>44621</v>
+      </c>
+      <c r="B256" s="123">
+        <v>91.26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A257" s="127">
+        <v>44652</v>
+      </c>
+      <c r="B257" s="123">
+        <v>71.010000000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A258" s="127">
+        <v>44682</v>
+      </c>
+      <c r="B258" s="123">
+        <v>79.98</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A259" s="127">
+        <v>44713</v>
+      </c>
+      <c r="B259" s="123">
+        <v>90.22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A260" s="127">
+        <v>44743</v>
+      </c>
+      <c r="B260" s="123">
+        <v>84.19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A261" s="127">
+        <v>44774</v>
+      </c>
+      <c r="B261" s="123">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A262" s="127">
+        <v>44805</v>
+      </c>
+      <c r="B262" s="123">
+        <v>68.61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A263" s="127">
+        <v>44835</v>
+      </c>
+      <c r="B263" s="123">
+        <v>71.91</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A264" s="127">
+        <v>44866</v>
+      </c>
+      <c r="B264" s="123">
+        <v>66.69</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A265" s="127">
+        <v>44896</v>
+      </c>
+      <c r="B265" s="123">
+        <v>50.15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A266" s="127">
+        <v>44927</v>
+      </c>
+      <c r="B266" s="124">
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A267" s="127">
+        <v>44958</v>
+      </c>
+      <c r="B267" s="124">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+      <c r="A268" s="127">
+        <v>44986</v>
+      </c>
+      <c r="B268" s="124">
+        <v>48.67</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="127">
+        <v>45017</v>
+      </c>
+      <c r="B269" s="125">
+        <v>58.97</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="127">
+        <v>45047</v>
+      </c>
+      <c r="B270" s="125">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A271" s="127">
+        <v>45078</v>
+      </c>
+      <c r="B271" s="125">
+        <v>55.45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="127">
+        <v>45108</v>
+      </c>
+      <c r="B272" s="125">
+        <v>64.209999999999994</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="127">
+        <v>45139</v>
+      </c>
+      <c r="B273" s="125">
+        <v>73.73</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="127">
+        <v>45170</v>
+      </c>
+      <c r="B274" s="125">
+        <v>83.18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A275" s="127">
+        <v>45200</v>
+      </c>
+      <c r="B275" s="125">
+        <v>81.69</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A276" s="127">
+        <v>45231</v>
+      </c>
+      <c r="B276" s="125">
+        <v>72.37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A277" s="127">
+        <v>45261</v>
+      </c>
+      <c r="B277" s="125">
+        <v>63.55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A278" s="127">
+        <v>45292</v>
+      </c>
+      <c r="B278" s="125">
+        <v>64.14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="127">
+        <v>45323</v>
+      </c>
+      <c r="B279" s="125">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="127">
+        <v>45352</v>
+      </c>
+      <c r="B280" s="125">
+        <v>70.34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="127">
+        <v>45383</v>
+      </c>
+      <c r="B281" s="125">
+        <v>74.98</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="127">
+        <v>45413</v>
+      </c>
+      <c r="B282" s="125">
+        <v>67.37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="127">
+        <v>45444</v>
+      </c>
+      <c r="B283" s="125">
+        <v>69.58</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="127">
+        <v>45474</v>
+      </c>
+      <c r="B284" s="125">
+        <v>74.010000000000005</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="127">
+        <v>45505</v>
+      </c>
+      <c r="B285" s="125">
+        <v>70.27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A286" s="127">
+        <v>45536</v>
+      </c>
+      <c r="B286" s="125">
+        <v>63.57</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="127">
+        <v>45566</v>
+      </c>
+      <c r="B287" s="125">
+        <v>64.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEC5613-D299-4A04-97A0-598419BD3BF2}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
@@ -4846,88 +9523,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="97" t="s">
+      <c r="N1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="97" t="s">
+      <c r="O1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="97" t="s">
+      <c r="R1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="97" t="s">
+      <c r="S1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="97" t="s">
+      <c r="T1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="W1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="97" t="s">
+      <c r="Y1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="97" t="s">
+      <c r="Z1" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="97" t="s">
+      <c r="AA1" s="101" t="s">
         <v>89</v>
       </c>
       <c r="AB1" s="93"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="95" t="s">
         <v>88</v>
       </c>
@@ -5212,7 +9889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CC24"/>
   <sheetViews>
@@ -5234,13 +9911,13 @@
       </c>
     </row>
     <row r="2" spans="1:81" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -5253,112 +9930,112 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="98">
+      <c r="A3" s="106"/>
+      <c r="B3" s="104">
         <v>1995</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="98">
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="104">
         <v>1996</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="98">
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="104">
         <v>1997</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="98">
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="104">
         <v>1998</v>
       </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="98">
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="104">
         <v>1999</v>
       </c>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="98">
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="104">
         <v>2000</v>
       </c>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="98">
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="104">
         <v>2001</v>
       </c>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="98">
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="104">
         <v>2002</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="98">
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="104">
         <v>2003</v>
       </c>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="98">
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="104">
         <v>2004</v>
       </c>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="98">
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="104">
         <v>2005</v>
       </c>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="98">
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="104">
         <v>2006</v>
       </c>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="98">
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="104">
         <v>2007</v>
       </c>
-      <c r="AY3" s="99"/>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="98">
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="104">
         <v>2008</v>
       </c>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="98">
+      <c r="BC3" s="105"/>
+      <c r="BD3" s="105"/>
+      <c r="BE3" s="105"/>
+      <c r="BF3" s="104">
         <v>2009</v>
       </c>
-      <c r="BG3" s="98"/>
-      <c r="BH3" s="98"/>
-      <c r="BI3" s="98"/>
-      <c r="BJ3" s="98">
+      <c r="BG3" s="104"/>
+      <c r="BH3" s="104"/>
+      <c r="BI3" s="104"/>
+      <c r="BJ3" s="104">
         <v>2010</v>
       </c>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="98"/>
-      <c r="BN3" s="98">
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104">
         <v>2011</v>
       </c>
-      <c r="BO3" s="98"/>
-      <c r="BP3" s="98"/>
-      <c r="BQ3" s="98"/>
+      <c r="BO3" s="104"/>
+      <c r="BP3" s="104"/>
+      <c r="BQ3" s="104"/>
     </row>
     <row r="4" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -8302,26 +12979,26 @@
       <c r="BQ19" s="9"/>
     </row>
     <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -8368,6 +13045,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:R20"/>
     <mergeCell ref="B3:E3"/>
@@ -8376,18 +13065,6 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -8399,7 +13076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BE27"/>
   <sheetViews>
@@ -8435,13 +13112,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -8456,94 +13133,94 @@
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="104">
+      <c r="A3" s="112"/>
+      <c r="B3" s="107">
         <v>2011</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107">
         <v>2012</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104">
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107">
         <v>2013</v>
       </c>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104">
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107">
         <v>2014</v>
       </c>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104">
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107">
         <v>2015</v>
       </c>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104">
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107">
         <v>2016</v>
       </c>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104">
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107">
         <v>2017</v>
       </c>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104">
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107">
         <v>2018</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104">
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107">
         <v>2019</v>
       </c>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104">
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107">
         <v>2020</v>
       </c>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="104"/>
-      <c r="AP3" s="104" t="s">
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="104"/>
-      <c r="AR3" s="104"/>
-      <c r="AS3" s="104"/>
-      <c r="AT3" s="104" t="s">
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="104"/>
-      <c r="AX3" s="104" t="s">
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="AY3" s="104"/>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="104"/>
-      <c r="BB3" s="104" t="s">
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="104"/>
-      <c r="BD3" s="104"/>
-      <c r="BE3" s="104"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="105"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -10871,21 +15548,21 @@
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
@@ -10955,14 +15632,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -10972,6 +15641,14 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -10983,7 +15660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AK24"/>
   <sheetViews>
@@ -11005,13 +15682,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -11046,64 +15723,64 @@
       <c r="AK2" s="27"/>
     </row>
     <row r="3" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="111"/>
-      <c r="B3" s="109">
+      <c r="A3" s="115"/>
+      <c r="B3" s="114">
         <v>2003</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114">
         <v>2004</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109">
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114">
         <v>2005</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109">
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114">
         <v>2006</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109">
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114">
         <v>2007</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109">
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114">
         <v>2008</v>
       </c>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109">
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114">
         <v>2009</v>
       </c>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="104">
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="107">
         <v>2010</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104">
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107">
         <v>2011</v>
       </c>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
     </row>
     <row r="4" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="111"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
@@ -12307,26 +16984,26 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
@@ -12374,11 +17051,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
@@ -12386,6 +17058,11 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
@@ -12397,7 +17074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BE46"/>
   <sheetViews>
@@ -12437,13 +17114,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -12482,94 +17159,94 @@
       <c r="AO2" s="27"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="114"/>
-      <c r="B3" s="109">
+      <c r="A3" s="116"/>
+      <c r="B3" s="114">
         <v>2011</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="112">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="117">
         <v>2012</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="109">
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="114">
         <v>2013</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="112">
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="117">
         <v>2014</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109">
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114">
         <v>2015</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109">
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114">
         <v>2016</v>
       </c>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109">
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114">
         <v>2017</v>
       </c>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109">
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114">
         <v>2018</v>
       </c>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109">
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114">
         <v>2019</v>
       </c>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="109">
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114">
         <v>2020</v>
       </c>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109"/>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109">
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114">
         <v>2021</v>
       </c>
-      <c r="AQ3" s="109"/>
-      <c r="AR3" s="109"/>
-      <c r="AS3" s="109"/>
-      <c r="AT3" s="104" t="s">
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="114"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="104"/>
-      <c r="AX3" s="104" t="s">
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="AY3" s="104"/>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="104"/>
-      <c r="BB3" s="104" t="s">
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="104"/>
-      <c r="BD3" s="104"/>
-      <c r="BE3" s="104"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="114"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
@@ -14339,29 +19016,29 @@
       <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:57" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
@@ -14429,21 +19106,21 @@
       <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I19" s="12"/>
@@ -15852,11 +20529,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="BB3:BE3"/>
@@ -15870,6 +20542,11 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Science\FP-Shocks-Consumption-RU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AD16B-A5D6-4548-8CD3-32BBA4249E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468C991-ACCD-40C7-86DC-0584F6CCCABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СВОД" sheetId="24" r:id="rId1"/>
@@ -1712,59 +1712,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1783,6 +1730,59 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2341,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1944A4-1BDB-43EC-9208-4BA67269B05B}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4912,10 +4912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33766F8-B43C-4BAD-9ABC-C3C2ED24B4D0}">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7185,6 +7185,38 @@
       </c>
       <c r="B283">
         <v>15.73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="89">
+        <v>45474</v>
+      </c>
+      <c r="B284">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="89">
+        <v>45505</v>
+      </c>
+      <c r="B285">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="89">
+        <v>45536</v>
+      </c>
+      <c r="B286">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="89">
+        <v>45566</v>
+      </c>
+      <c r="B287">
+        <v>15.79</v>
       </c>
     </row>
   </sheetData>
@@ -7206,2298 +7238,2298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="102" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="126">
+      <c r="A2" s="107">
         <v>36892</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="103">
         <v>24.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="127">
+      <c r="A3" s="108">
         <v>36923</v>
       </c>
-      <c r="B3" s="123">
+      <c r="B3" s="104">
         <v>26.04</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="127">
+      <c r="A4" s="108">
         <v>36951</v>
       </c>
-      <c r="B4" s="123">
+      <c r="B4" s="104">
         <v>21.9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A5" s="127">
+      <c r="A5" s="108">
         <v>36982</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5" s="104">
         <v>24.27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A6" s="127">
+      <c r="A6" s="108">
         <v>37012</v>
       </c>
-      <c r="B6" s="123">
+      <c r="B6" s="104">
         <v>26.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A7" s="127">
+      <c r="A7" s="108">
         <v>37043</v>
       </c>
-      <c r="B7" s="123">
+      <c r="B7" s="104">
         <v>25.84</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A8" s="127">
+      <c r="A8" s="108">
         <v>37073</v>
       </c>
-      <c r="B8" s="123">
+      <c r="B8" s="104">
         <v>23.17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9" s="127">
+      <c r="A9" s="108">
         <v>37104</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="104">
         <v>24.84</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A10" s="127">
+      <c r="A10" s="108">
         <v>37135</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="104">
         <v>24.44</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11" s="127">
+      <c r="A11" s="108">
         <v>37165</v>
       </c>
-      <c r="B11" s="123">
+      <c r="B11" s="104">
         <v>19.93</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A12" s="127">
+      <c r="A12" s="108">
         <v>37196</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="104">
         <v>18.239999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A13" s="127">
+      <c r="A13" s="108">
         <v>37226</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="104">
         <v>18.11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A14" s="127">
+      <c r="A14" s="108">
         <v>37257</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="104">
         <v>18.59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A15" s="127">
+      <c r="A15" s="108">
         <v>37288</v>
       </c>
-      <c r="B15" s="123">
+      <c r="B15" s="104">
         <v>18.739999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A16" s="127">
+      <c r="A16" s="108">
         <v>37316</v>
       </c>
-      <c r="B16" s="123">
+      <c r="B16" s="104">
         <v>22.26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A17" s="127">
+      <c r="A17" s="108">
         <v>37347</v>
       </c>
-      <c r="B17" s="123">
+      <c r="B17" s="104">
         <v>23.65</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A18" s="127">
+      <c r="A18" s="108">
         <v>37377</v>
       </c>
-      <c r="B18" s="123">
+      <c r="B18" s="104">
         <v>23.84</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A19" s="127">
+      <c r="A19" s="108">
         <v>37408</v>
       </c>
-      <c r="B19" s="123">
+      <c r="B19" s="104">
         <v>23.07</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A20" s="127">
+      <c r="A20" s="108">
         <v>37438</v>
       </c>
-      <c r="B20" s="123">
+      <c r="B20" s="104">
         <v>24.82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="127">
+      <c r="A21" s="108">
         <v>37469</v>
       </c>
-      <c r="B21" s="123">
+      <c r="B21" s="104">
         <v>25.86</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A22" s="127">
+      <c r="A22" s="108">
         <v>37500</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="104">
         <v>27.09</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A23" s="127">
+      <c r="A23" s="108">
         <v>37530</v>
       </c>
-      <c r="B23" s="123">
+      <c r="B23" s="104">
         <v>27.02</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A24" s="127">
+      <c r="A24" s="108">
         <v>37561</v>
       </c>
-      <c r="B24" s="123">
+      <c r="B24" s="104">
         <v>24.39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A25" s="127">
+      <c r="A25" s="108">
         <v>37591</v>
       </c>
-      <c r="B25" s="123">
+      <c r="B25" s="104">
         <v>27.54</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A26" s="127">
+      <c r="A26" s="108">
         <v>37622</v>
       </c>
-      <c r="B26" s="123">
+      <c r="B26" s="104">
         <v>30.23</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A27" s="127">
+      <c r="A27" s="108">
         <v>37653</v>
       </c>
-      <c r="B27" s="123">
+      <c r="B27" s="104">
         <v>31.78</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A28" s="127">
+      <c r="A28" s="108">
         <v>37681</v>
       </c>
-      <c r="B28" s="123">
+      <c r="B28" s="104">
         <v>28.87</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A29" s="127">
+      <c r="A29" s="108">
         <v>37712</v>
       </c>
-      <c r="B29" s="123">
+      <c r="B29" s="104">
         <v>22.56</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A30" s="127">
+      <c r="A30" s="108">
         <v>37742</v>
       </c>
-      <c r="B30" s="123">
+      <c r="B30" s="104">
         <v>23.65</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A31" s="127">
+      <c r="A31" s="108">
         <v>37773</v>
       </c>
-      <c r="B31" s="123">
+      <c r="B31" s="104">
         <v>25.98</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A32" s="127">
+      <c r="A32" s="108">
         <v>37803</v>
       </c>
-      <c r="B32" s="123">
+      <c r="B32" s="104">
         <v>27.14</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A33" s="127">
+      <c r="A33" s="108">
         <v>37834</v>
       </c>
-      <c r="B33" s="123">
+      <c r="B33" s="104">
         <v>28.33</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A34" s="127">
+      <c r="A34" s="108">
         <v>37865</v>
       </c>
-      <c r="B34" s="123">
+      <c r="B34" s="104">
         <v>25.32</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A35" s="127">
+      <c r="A35" s="108">
         <v>37895</v>
       </c>
-      <c r="B35" s="123">
+      <c r="B35" s="104">
         <v>28.09</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A36" s="127">
+      <c r="A36" s="108">
         <v>37926</v>
       </c>
-      <c r="B36" s="123">
+      <c r="B36" s="104">
         <v>27.1</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A37" s="127">
+      <c r="A37" s="108">
         <v>37956</v>
       </c>
-      <c r="B37" s="123">
+      <c r="B37" s="104">
         <v>28.11</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A38" s="127">
+      <c r="A38" s="108">
         <v>37987</v>
       </c>
-      <c r="B38" s="123">
+      <c r="B38" s="104">
         <v>28.64</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A39" s="127">
+      <c r="A39" s="108">
         <v>38018</v>
       </c>
-      <c r="B39" s="123">
+      <c r="B39" s="104">
         <v>27.57</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A40" s="127">
+      <c r="A40" s="108">
         <v>38047</v>
       </c>
-      <c r="B40" s="123">
+      <c r="B40" s="104">
         <v>31.11</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A41" s="127">
+      <c r="A41" s="108">
         <v>38078</v>
       </c>
-      <c r="B41" s="123">
+      <c r="B41" s="104">
         <v>29.68</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A42" s="127">
+      <c r="A42" s="108">
         <v>38108</v>
       </c>
-      <c r="B42" s="123">
+      <c r="B42" s="104">
         <v>35.14</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="127">
+      <c r="A43" s="108">
         <v>38139</v>
       </c>
-      <c r="B43" s="123">
+      <c r="B43" s="104">
         <v>32.69</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="127">
+      <c r="A44" s="108">
         <v>38169</v>
       </c>
-      <c r="B44" s="123">
+      <c r="B44" s="104">
         <v>34.75</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="127">
+      <c r="A45" s="108">
         <v>38200</v>
       </c>
-      <c r="B45" s="123">
+      <c r="B45" s="104">
         <v>39.99</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="127">
+      <c r="A46" s="108">
         <v>38231</v>
       </c>
-      <c r="B46" s="123">
+      <c r="B46" s="104">
         <v>37.31</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="127">
+      <c r="A47" s="108">
         <v>38261</v>
       </c>
-      <c r="B47" s="123">
+      <c r="B47" s="104">
         <v>41.93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="127">
+      <c r="A48" s="108">
         <v>38292</v>
       </c>
-      <c r="B48" s="123">
+      <c r="B48" s="104">
         <v>37.020000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A49" s="127">
+      <c r="A49" s="108">
         <v>38322</v>
       </c>
-      <c r="B49" s="123">
+      <c r="B49" s="104">
         <v>34.590000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="127">
+      <c r="A50" s="108">
         <v>38353</v>
       </c>
-      <c r="B50" s="123">
+      <c r="B50" s="104">
         <v>39.1</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="127">
+      <c r="A51" s="108">
         <v>38384</v>
       </c>
-      <c r="B51" s="123">
+      <c r="B51" s="104">
         <v>40.11</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="127">
+      <c r="A52" s="108">
         <v>38412</v>
       </c>
-      <c r="B52" s="123">
+      <c r="B52" s="104">
         <v>47.62</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="127">
+      <c r="A53" s="108">
         <v>38443</v>
       </c>
-      <c r="B53" s="123">
+      <c r="B53" s="104">
         <v>46.97</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="127">
+      <c r="A54" s="108">
         <v>38473</v>
       </c>
-      <c r="B54" s="123">
+      <c r="B54" s="104">
         <v>44.29</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="127">
+      <c r="A55" s="108">
         <v>38504</v>
       </c>
-      <c r="B55" s="123">
+      <c r="B55" s="104">
         <v>50.3</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A56" s="127">
+      <c r="A56" s="108">
         <v>38534</v>
       </c>
-      <c r="B56" s="123">
+      <c r="B56" s="104">
         <v>54.25</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A57" s="127">
+      <c r="A57" s="108">
         <v>38565</v>
       </c>
-      <c r="B57" s="123">
+      <c r="B57" s="104">
         <v>59.28</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A58" s="127">
+      <c r="A58" s="108">
         <v>38596</v>
       </c>
-      <c r="B58" s="123">
+      <c r="B58" s="104">
         <v>58.49</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A59" s="127">
+      <c r="A59" s="108">
         <v>38626</v>
       </c>
-      <c r="B59" s="123">
+      <c r="B59" s="104">
         <v>55.01</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A60" s="127">
+      <c r="A60" s="108">
         <v>38657</v>
       </c>
-      <c r="B60" s="123">
+      <c r="B60" s="104">
         <v>51.7</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A61" s="127">
+      <c r="A61" s="108">
         <v>38687</v>
       </c>
-      <c r="B61" s="123">
+      <c r="B61" s="104">
         <v>52.94</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A62" s="127">
+      <c r="A62" s="108">
         <v>38718</v>
       </c>
-      <c r="B62" s="123">
+      <c r="B62" s="104">
         <v>59.44</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A63" s="127">
+      <c r="A63" s="108">
         <v>38749</v>
       </c>
-      <c r="B63" s="123">
+      <c r="B63" s="104">
         <v>56.75</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A64" s="127">
+      <c r="A64" s="108">
         <v>38777</v>
       </c>
-      <c r="B64" s="123">
+      <c r="B64" s="104">
         <v>57.8</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A65" s="127">
+      <c r="A65" s="108">
         <v>38808</v>
       </c>
-      <c r="B65" s="123">
+      <c r="B65" s="104">
         <v>65.03</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A66" s="127">
+      <c r="A66" s="108">
         <v>38838</v>
       </c>
-      <c r="B66" s="123">
+      <c r="B66" s="104">
         <v>64.709999999999994</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A67" s="127">
+      <c r="A67" s="108">
         <v>38869</v>
       </c>
-      <c r="B67" s="123">
+      <c r="B67" s="104">
         <v>64.22</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A68" s="127">
+      <c r="A68" s="108">
         <v>38899</v>
       </c>
-      <c r="B68" s="123">
+      <c r="B68" s="104">
         <v>69.12</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A69" s="127">
+      <c r="A69" s="108">
         <v>38930</v>
       </c>
-      <c r="B69" s="123">
+      <c r="B69" s="104">
         <v>68.75</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="127">
+      <c r="A70" s="108">
         <v>38961</v>
       </c>
-      <c r="B70" s="123">
+      <c r="B70" s="104">
         <v>58.9</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A71" s="127">
+      <c r="A71" s="108">
         <v>38991</v>
       </c>
-      <c r="B71" s="123">
+      <c r="B71" s="104">
         <v>55.07</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A72" s="127">
+      <c r="A72" s="108">
         <v>39022</v>
       </c>
-      <c r="B72" s="123">
+      <c r="B72" s="104">
         <v>55.63</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A73" s="127">
+      <c r="A73" s="108">
         <v>39052</v>
       </c>
-      <c r="B73" s="123">
+      <c r="B73" s="104">
         <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A74" s="127">
+      <c r="A74" s="108">
         <v>39083</v>
       </c>
-      <c r="B74" s="123">
+      <c r="B74" s="104">
         <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A75" s="127">
+      <c r="A75" s="108">
         <v>39114</v>
       </c>
-      <c r="B75" s="123">
+      <c r="B75" s="104">
         <v>53.9</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A76" s="127">
+      <c r="A76" s="108">
         <v>39142</v>
       </c>
-      <c r="B76" s="123">
+      <c r="B76" s="104">
         <v>58.9</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A77" s="127">
+      <c r="A77" s="108">
         <v>39173</v>
       </c>
-      <c r="B77" s="123">
+      <c r="B77" s="104">
         <v>63.8</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A78" s="127">
+      <c r="A78" s="108">
         <v>39203</v>
       </c>
-      <c r="B78" s="123">
+      <c r="B78" s="104">
         <v>63.98</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A79" s="127">
+      <c r="A79" s="108">
         <v>39234</v>
       </c>
-      <c r="B79" s="123">
+      <c r="B79" s="104">
         <v>67.680000000000007</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A80" s="127">
+      <c r="A80" s="108">
         <v>39264</v>
       </c>
-      <c r="B80" s="123">
+      <c r="B80" s="104">
         <v>74.010000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A81" s="127">
+      <c r="A81" s="108">
         <v>39295</v>
       </c>
-      <c r="B81" s="123">
+      <c r="B81" s="104">
         <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A82" s="127">
+      <c r="A82" s="108">
         <v>39326</v>
       </c>
-      <c r="B82" s="123">
+      <c r="B82" s="104">
         <v>73.8</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A83" s="127">
+      <c r="A83" s="108">
         <v>39356</v>
       </c>
-      <c r="B83" s="123">
+      <c r="B83" s="104">
         <v>79.349999999999994</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A84" s="127">
+      <c r="A84" s="108">
         <v>39387</v>
       </c>
-      <c r="B84" s="123">
+      <c r="B84" s="104">
         <v>90.1</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A85" s="127">
+      <c r="A85" s="108">
         <v>39417</v>
       </c>
-      <c r="B85" s="123">
+      <c r="B85" s="104">
         <v>88.1</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A86" s="127">
+      <c r="A86" s="108">
         <v>39448</v>
       </c>
-      <c r="B86" s="123">
+      <c r="B86" s="104">
         <v>89.17</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A87" s="127">
+      <c r="A87" s="108">
         <v>39479</v>
       </c>
-      <c r="B87" s="123">
+      <c r="B87" s="104">
         <v>91.38</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A88" s="127">
+      <c r="A88" s="108">
         <v>39508</v>
       </c>
-      <c r="B88" s="123">
+      <c r="B88" s="104">
         <v>99.47</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A89" s="127">
+      <c r="A89" s="108">
         <v>39539</v>
       </c>
-      <c r="B89" s="123">
+      <c r="B89" s="104">
         <v>104.99</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A90" s="127">
+      <c r="A90" s="108">
         <v>39569</v>
       </c>
-      <c r="B90" s="123">
+      <c r="B90" s="104">
         <v>118.38</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A91" s="127">
+      <c r="A91" s="108">
         <v>39600</v>
       </c>
-      <c r="B91" s="123">
+      <c r="B91" s="104">
         <v>127.35</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A92" s="127">
+      <c r="A92" s="108">
         <v>39630</v>
       </c>
-      <c r="B92" s="123">
+      <c r="B92" s="104">
         <v>129.30000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A93" s="127">
+      <c r="A93" s="108">
         <v>39661</v>
       </c>
-      <c r="B93" s="123">
+      <c r="B93" s="104">
         <v>111.16</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A94" s="127">
+      <c r="A94" s="108">
         <v>39692</v>
       </c>
-      <c r="B94" s="123">
+      <c r="B94" s="104">
         <v>96.7</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A95" s="127">
+      <c r="A95" s="108">
         <v>39722</v>
       </c>
-      <c r="B95" s="123">
+      <c r="B95" s="104">
         <v>70.260000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A96" s="127">
+      <c r="A96" s="108">
         <v>39753</v>
       </c>
-      <c r="B96" s="123">
+      <c r="B96" s="104">
         <v>50.93</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A97" s="127">
+      <c r="A97" s="108">
         <v>39783</v>
       </c>
-      <c r="B97" s="123">
+      <c r="B97" s="104">
         <v>39.090000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A98" s="127">
+      <c r="A98" s="108">
         <v>39814</v>
       </c>
-      <c r="B98" s="123">
+      <c r="B98" s="104">
         <v>42.8</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A99" s="127">
+      <c r="A99" s="108">
         <v>39845</v>
       </c>
-      <c r="B99" s="123">
+      <c r="B99" s="104">
         <v>42.42</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A100" s="127">
+      <c r="A100" s="108">
         <v>39873</v>
       </c>
-      <c r="B100" s="123">
+      <c r="B100" s="104">
         <v>45.17</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A101" s="127">
+      <c r="A101" s="108">
         <v>39904</v>
       </c>
-      <c r="B101" s="123">
+      <c r="B101" s="104">
         <v>48.81</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A102" s="127">
+      <c r="A102" s="108">
         <v>39934</v>
       </c>
-      <c r="B102" s="123">
+      <c r="B102" s="104">
         <v>56.9</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A103" s="127">
+      <c r="A103" s="108">
         <v>39965</v>
       </c>
-      <c r="B103" s="123">
+      <c r="B103" s="104">
         <v>68.22</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A104" s="127">
+      <c r="A104" s="108">
         <v>39995</v>
       </c>
-      <c r="B104" s="123">
+      <c r="B104" s="104">
         <v>64.5</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A105" s="127">
+      <c r="A105" s="108">
         <v>40026</v>
       </c>
-      <c r="B105" s="123">
+      <c r="B105" s="104">
         <v>72.27</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A106" s="127">
+      <c r="A106" s="108">
         <v>40057</v>
       </c>
-      <c r="B106" s="123">
+      <c r="B106" s="104">
         <v>67.2</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A107" s="127">
+      <c r="A107" s="108">
         <v>40087</v>
       </c>
-      <c r="B107" s="123">
+      <c r="B107" s="104">
         <v>72.5</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A108" s="127">
+      <c r="A108" s="108">
         <v>40118</v>
       </c>
-      <c r="B108" s="123">
+      <c r="B108" s="104">
         <v>76.099999999999994</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A109" s="127">
+      <c r="A109" s="108">
         <v>40148</v>
       </c>
-      <c r="B109" s="123">
+      <c r="B109" s="104">
         <v>76.23</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A110" s="127">
+      <c r="A110" s="108">
         <v>40179</v>
       </c>
-      <c r="B110" s="123">
+      <c r="B110" s="104">
         <v>75.930000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A111" s="127">
+      <c r="A111" s="108">
         <v>40210</v>
       </c>
-      <c r="B111" s="123">
+      <c r="B111" s="104">
         <v>72.75</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A112" s="127">
+      <c r="A112" s="108">
         <v>40238</v>
       </c>
-      <c r="B112" s="123">
+      <c r="B112" s="104">
         <v>76.72</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A113" s="127">
+      <c r="A113" s="108">
         <v>40269</v>
       </c>
-      <c r="B113" s="123">
+      <c r="B113" s="104">
         <v>82.53</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A114" s="127">
+      <c r="A114" s="108">
         <v>40299</v>
       </c>
-      <c r="B114" s="123">
+      <c r="B114" s="104">
         <v>73.37</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A115" s="127">
+      <c r="A115" s="108">
         <v>40330</v>
       </c>
-      <c r="B115" s="123">
+      <c r="B115" s="104">
         <v>74.260000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A116" s="127">
+      <c r="A116" s="108">
         <v>40360</v>
       </c>
-      <c r="B116" s="123">
+      <c r="B116" s="104">
         <v>74.17</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A117" s="127">
+      <c r="A117" s="108">
         <v>40391</v>
       </c>
-      <c r="B117" s="123">
+      <c r="B117" s="104">
         <v>75.680000000000007</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A118" s="127">
+      <c r="A118" s="108">
         <v>40422</v>
       </c>
-      <c r="B118" s="123">
+      <c r="B118" s="104">
         <v>77.41</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A119" s="127">
+      <c r="A119" s="108">
         <v>40452</v>
       </c>
-      <c r="B119" s="123">
+      <c r="B119" s="104">
         <v>81.55</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A120" s="127">
+      <c r="A120" s="108">
         <v>40483</v>
       </c>
-      <c r="B120" s="123">
+      <c r="B120" s="104">
         <v>84.4</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A121" s="127">
+      <c r="A121" s="108">
         <v>40513</v>
       </c>
-      <c r="B121" s="123">
+      <c r="B121" s="104">
         <v>89.52</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A122" s="127">
+      <c r="A122" s="108">
         <v>40544</v>
       </c>
-      <c r="B122" s="123">
+      <c r="B122" s="104">
         <v>94.13</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A123" s="127">
+      <c r="A123" s="108">
         <v>40575</v>
       </c>
-      <c r="B123" s="123">
+      <c r="B123" s="104">
         <v>101.1</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A124" s="127">
+      <c r="A124" s="108">
         <v>40603</v>
       </c>
-      <c r="B124" s="123">
+      <c r="B124" s="104">
         <v>111.35</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A125" s="127">
+      <c r="A125" s="108">
         <v>40634</v>
       </c>
-      <c r="B125" s="123">
+      <c r="B125" s="104">
         <v>119.54</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A126" s="127">
+      <c r="A126" s="108">
         <v>40664</v>
       </c>
-      <c r="B126" s="123">
+      <c r="B126" s="104">
         <v>111.68</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A127" s="127">
+      <c r="A127" s="108">
         <v>40695</v>
       </c>
-      <c r="B127" s="123">
+      <c r="B127" s="104">
         <v>111.95</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A128" s="127">
+      <c r="A128" s="108">
         <v>40725</v>
       </c>
-      <c r="B128" s="123">
+      <c r="B128" s="104">
         <v>115.47</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A129" s="127">
+      <c r="A129" s="108">
         <v>40756</v>
       </c>
-      <c r="B129" s="123">
+      <c r="B129" s="104">
         <v>109.48</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A130" s="127">
+      <c r="A130" s="108">
         <v>40787</v>
       </c>
-      <c r="B130" s="123">
+      <c r="B130" s="104">
         <v>112.54</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A131" s="127">
+      <c r="A131" s="108">
         <v>40817</v>
       </c>
-      <c r="B131" s="123">
+      <c r="B131" s="104">
         <v>108.69</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A132" s="127">
+      <c r="A132" s="108">
         <v>40848</v>
       </c>
-      <c r="B132" s="123">
+      <c r="B132" s="104">
         <v>110.8</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A133" s="127">
+      <c r="A133" s="108">
         <v>40878</v>
       </c>
-      <c r="B133" s="123">
+      <c r="B133" s="104">
         <v>107.91</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A134" s="127">
+      <c r="A134" s="108">
         <v>40909</v>
       </c>
-      <c r="B134" s="123">
+      <c r="B134" s="104">
         <v>109.8</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A135" s="127">
+      <c r="A135" s="108">
         <v>40940</v>
       </c>
-      <c r="B135" s="123">
+      <c r="B135" s="104">
         <v>119.17</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A136" s="127">
+      <c r="A136" s="108">
         <v>40969</v>
       </c>
-      <c r="B136" s="123">
+      <c r="B136" s="104">
         <v>123.15</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A137" s="127">
+      <c r="A137" s="108">
         <v>41000</v>
       </c>
-      <c r="B137" s="123">
+      <c r="B137" s="104">
         <v>117.3</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A138" s="127">
+      <c r="A138" s="108">
         <v>41030</v>
       </c>
-      <c r="B138" s="123">
+      <c r="B138" s="104">
         <v>108.89</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A139" s="127">
+      <c r="A139" s="108">
         <v>41061</v>
       </c>
-      <c r="B139" s="123">
+      <c r="B139" s="104">
         <v>93.31</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A140" s="127">
+      <c r="A140" s="108">
         <v>41091</v>
       </c>
-      <c r="B140" s="123">
+      <c r="B140" s="104">
         <v>102.6</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A141" s="127">
+      <c r="A141" s="108">
         <v>41122</v>
       </c>
-      <c r="B141" s="123">
+      <c r="B141" s="104">
         <v>113.24</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A142" s="127">
+      <c r="A142" s="108">
         <v>41153</v>
       </c>
-      <c r="B142" s="123">
+      <c r="B142" s="104">
         <v>111.66</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A143" s="127">
+      <c r="A143" s="108">
         <v>41183</v>
       </c>
-      <c r="B143" s="123">
+      <c r="B143" s="104">
         <v>110.74</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A144" s="127">
+      <c r="A144" s="108">
         <v>41214</v>
       </c>
-      <c r="B144" s="123">
+      <c r="B144" s="104">
         <v>108.44</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A145" s="127">
+      <c r="A145" s="108">
         <v>41244</v>
       </c>
-      <c r="B145" s="123">
+      <c r="B145" s="104">
         <v>108.67</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A146" s="127">
+      <c r="A146" s="108">
         <v>41275</v>
       </c>
-      <c r="B146" s="123">
+      <c r="B146" s="104">
         <v>112.2</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A147" s="127">
+      <c r="A147" s="108">
         <v>41306</v>
       </c>
-      <c r="B147" s="123">
+      <c r="B147" s="104">
         <v>114.57</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A148" s="127">
+      <c r="A148" s="108">
         <v>41334</v>
       </c>
-      <c r="B148" s="123">
+      <c r="B148" s="104">
         <v>106.56</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A149" s="127">
+      <c r="A149" s="108">
         <v>41365</v>
       </c>
-      <c r="B149" s="123">
+      <c r="B149" s="104">
         <v>101.04</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A150" s="127">
+      <c r="A150" s="108">
         <v>41395</v>
       </c>
-      <c r="B150" s="123">
+      <c r="B150" s="104">
         <v>102.2</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A151" s="127">
+      <c r="A151" s="108">
         <v>41426</v>
       </c>
-      <c r="B151" s="123">
+      <c r="B151" s="104">
         <v>102.8</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A152" s="127">
+      <c r="A152" s="108">
         <v>41456</v>
       </c>
-      <c r="B152" s="123">
+      <c r="B152" s="104">
         <v>108.48</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A153" s="127">
+      <c r="A153" s="108">
         <v>41487</v>
       </c>
-      <c r="B153" s="123">
+      <c r="B153" s="104">
         <v>111.59</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A154" s="127">
+      <c r="A154" s="108">
         <v>41518</v>
       </c>
-      <c r="B154" s="123">
+      <c r="B154" s="104">
         <v>110.98</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A155" s="127">
+      <c r="A155" s="108">
         <v>41548</v>
       </c>
-      <c r="B155" s="123">
+      <c r="B155" s="104">
         <v>107.85</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A156" s="127">
+      <c r="A156" s="108">
         <v>41579</v>
       </c>
-      <c r="B156" s="123">
+      <c r="B156" s="104">
         <v>107.36</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A157" s="127">
+      <c r="A157" s="108">
         <v>41609</v>
       </c>
-      <c r="B157" s="123">
+      <c r="B157" s="104">
         <v>109.92</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A158" s="127">
+      <c r="A158" s="108">
         <v>41640</v>
       </c>
-      <c r="B158" s="123">
+      <c r="B158" s="104">
         <v>106.73</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A159" s="127">
+      <c r="A159" s="108">
         <v>41671</v>
       </c>
-      <c r="B159" s="123">
+      <c r="B159" s="104">
         <v>107.72</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A160" s="127">
+      <c r="A160" s="108">
         <v>41699</v>
       </c>
-      <c r="B160" s="123">
+      <c r="B160" s="104">
         <v>106.76</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A161" s="127">
+      <c r="A161" s="108">
         <v>41730</v>
       </c>
-      <c r="B161" s="123">
+      <c r="B161" s="104">
         <v>106.7</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A162" s="127">
+      <c r="A162" s="108">
         <v>41760</v>
       </c>
-      <c r="B162" s="123">
+      <c r="B162" s="104">
         <v>107.71</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A163" s="127">
+      <c r="A163" s="108">
         <v>41791</v>
       </c>
-      <c r="B163" s="123">
+      <c r="B163" s="104">
         <v>109.05</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A164" s="127">
+      <c r="A164" s="108">
         <v>41821</v>
       </c>
-      <c r="B164" s="123">
+      <c r="B164" s="104">
         <v>105.15</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A165" s="127">
+      <c r="A165" s="108">
         <v>41852</v>
       </c>
-      <c r="B165" s="123">
+      <c r="B165" s="104">
         <v>100.78</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A166" s="127">
+      <c r="A166" s="108">
         <v>41883</v>
       </c>
-      <c r="B166" s="123">
+      <c r="B166" s="104">
         <v>95.62</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A167" s="127">
+      <c r="A167" s="108">
         <v>41913</v>
       </c>
-      <c r="B167" s="123">
+      <c r="B167" s="104">
         <v>86.35</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A168" s="127">
+      <c r="A168" s="108">
         <v>41944</v>
       </c>
-      <c r="B168" s="123">
+      <c r="B168" s="104">
         <v>78.319999999999993</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A169" s="127">
+      <c r="A169" s="108">
         <v>41974</v>
       </c>
-      <c r="B169" s="123">
+      <c r="B169" s="104">
         <v>60.9</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A170" s="127">
+      <c r="A170" s="108">
         <v>42005</v>
       </c>
-      <c r="B170" s="123">
+      <c r="B170" s="104">
         <v>46.14</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A171" s="127">
+      <c r="A171" s="108">
         <v>42036</v>
       </c>
-      <c r="B171" s="123">
+      <c r="B171" s="104">
         <v>57.31</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A172" s="127">
+      <c r="A172" s="108">
         <v>42064</v>
       </c>
-      <c r="B172" s="123">
+      <c r="B172" s="104">
         <v>54.19</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A173" s="127">
+      <c r="A173" s="108">
         <v>42095</v>
       </c>
-      <c r="B173" s="123">
+      <c r="B173" s="104">
         <v>58.6</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A174" s="127">
+      <c r="A174" s="108">
         <v>42125</v>
       </c>
-      <c r="B174" s="123">
+      <c r="B174" s="104">
         <v>63.07</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A175" s="127">
+      <c r="A175" s="108">
         <v>42156</v>
       </c>
-      <c r="B175" s="123">
+      <c r="B175" s="104">
         <v>60.67</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A176" s="127">
+      <c r="A176" s="108">
         <v>42186</v>
       </c>
-      <c r="B176" s="123">
+      <c r="B176" s="104">
         <v>55.6</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A177" s="127">
+      <c r="A177" s="108">
         <v>42217</v>
       </c>
-      <c r="B177" s="123">
+      <c r="B177" s="104">
         <v>45.29</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A178" s="127">
+      <c r="A178" s="108">
         <v>42248</v>
       </c>
-      <c r="B178" s="123">
+      <c r="B178" s="104">
         <v>46.58</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A179" s="127">
+      <c r="A179" s="108">
         <v>42278</v>
       </c>
-      <c r="B179" s="123">
+      <c r="B179" s="104">
         <v>46.61</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A180" s="127">
+      <c r="A180" s="108">
         <v>42309</v>
       </c>
-      <c r="B180" s="123">
+      <c r="B180" s="104">
         <v>41.72</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A181" s="127">
+      <c r="A181" s="108">
         <v>42339</v>
       </c>
-      <c r="B181" s="123">
+      <c r="B181" s="104">
         <v>36.24</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A182" s="127">
+      <c r="A182" s="108">
         <v>42370</v>
       </c>
-      <c r="B182" s="123">
+      <c r="B182" s="104">
         <v>28.53</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A183" s="127">
+      <c r="A183" s="108">
         <v>42401</v>
       </c>
-      <c r="B183" s="123">
+      <c r="B183" s="104">
         <v>30.34</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A184" s="127">
+      <c r="A184" s="108">
         <v>42430</v>
       </c>
-      <c r="B184" s="123">
+      <c r="B184" s="104">
         <v>36.369999999999997</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A185" s="127">
+      <c r="A185" s="108">
         <v>42461</v>
       </c>
-      <c r="B185" s="123">
+      <c r="B185" s="104">
         <v>39.340000000000003</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A186" s="127">
+      <c r="A186" s="108">
         <v>42491</v>
       </c>
-      <c r="B186" s="123">
+      <c r="B186" s="104">
         <v>44.59</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A187" s="127">
+      <c r="A187" s="108">
         <v>42522</v>
       </c>
-      <c r="B187" s="123">
+      <c r="B187" s="104">
         <v>46.23</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A188" s="127">
+      <c r="A188" s="108">
         <v>42552</v>
       </c>
-      <c r="B188" s="123">
+      <c r="B188" s="104">
         <v>43.31</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A189" s="127">
+      <c r="A189" s="108">
         <v>42583</v>
       </c>
-      <c r="B189" s="123">
+      <c r="B189" s="104">
         <v>43.69</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A190" s="127">
+      <c r="A190" s="108">
         <v>42614</v>
       </c>
-      <c r="B190" s="123">
+      <c r="B190" s="104">
         <v>44.22</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A191" s="127">
+      <c r="A191" s="108">
         <v>42644</v>
       </c>
-      <c r="B191" s="123">
+      <c r="B191" s="104">
         <v>47.74</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A192" s="127">
+      <c r="A192" s="108">
         <v>42675</v>
       </c>
-      <c r="B192" s="123">
+      <c r="B192" s="104">
         <v>43.53</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A193" s="127">
+      <c r="A193" s="108">
         <v>42705</v>
       </c>
-      <c r="B193" s="123">
+      <c r="B193" s="104">
         <v>51.9</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A194" s="127">
+      <c r="A194" s="108">
         <v>42736</v>
       </c>
-      <c r="B194" s="123">
+      <c r="B194" s="104">
         <v>53.03</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A195" s="127">
+      <c r="A195" s="108">
         <v>42767</v>
       </c>
-      <c r="B195" s="123">
+      <c r="B195" s="104">
         <v>53.3</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A196" s="127">
+      <c r="A196" s="108">
         <v>42795</v>
       </c>
-      <c r="B196" s="123">
+      <c r="B196" s="104">
         <v>49.61</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A197" s="127">
+      <c r="A197" s="108">
         <v>42826</v>
       </c>
-      <c r="B197" s="123">
+      <c r="B197" s="104">
         <v>50.91</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A198" s="127">
+      <c r="A198" s="108">
         <v>42856</v>
       </c>
-      <c r="B198" s="123">
+      <c r="B198" s="104">
         <v>48.96</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A199" s="127">
+      <c r="A199" s="108">
         <v>42887</v>
       </c>
-      <c r="B199" s="123">
+      <c r="B199" s="104">
         <v>45.41</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A200" s="127">
+      <c r="A200" s="108">
         <v>42917</v>
       </c>
-      <c r="B200" s="123">
+      <c r="B200" s="104">
         <v>47.8</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A201" s="127">
+      <c r="A201" s="108">
         <v>42948</v>
       </c>
-      <c r="B201" s="123">
+      <c r="B201" s="104">
         <v>51.15</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A202" s="127">
+      <c r="A202" s="108">
         <v>42979</v>
       </c>
-      <c r="B202" s="123">
+      <c r="B202" s="104">
         <v>54.63</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A203" s="127">
+      <c r="A203" s="108">
         <v>43009</v>
       </c>
-      <c r="B203" s="123">
+      <c r="B203" s="104">
         <v>56.36</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A204" s="127">
+      <c r="A204" s="108">
         <v>43040</v>
       </c>
-      <c r="B204" s="123">
+      <c r="B204" s="104">
         <v>62.15</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A205" s="127">
+      <c r="A205" s="108">
         <v>43070</v>
       </c>
-      <c r="B205" s="123">
+      <c r="B205" s="104">
         <v>63.77</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A206" s="127">
+      <c r="A206" s="108">
         <v>43101</v>
       </c>
-      <c r="B206" s="123">
+      <c r="B206" s="104">
         <v>68.599999999999994</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A207" s="127">
+      <c r="A207" s="108">
         <v>43132</v>
       </c>
-      <c r="B207" s="123">
+      <c r="B207" s="104">
         <v>63.14</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A208" s="127">
+      <c r="A208" s="108">
         <v>43160</v>
       </c>
-      <c r="B208" s="123">
+      <c r="B208" s="104">
         <v>63.58</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A209" s="127">
+      <c r="A209" s="108">
         <v>43191</v>
       </c>
-      <c r="B209" s="123">
+      <c r="B209" s="104">
         <v>69.099999999999994</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A210" s="127">
+      <c r="A210" s="108">
         <v>43221</v>
       </c>
-      <c r="B210" s="123">
+      <c r="B210" s="104">
         <v>75.14</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A211" s="127">
+      <c r="A211" s="108">
         <v>43252</v>
       </c>
-      <c r="B211" s="123">
+      <c r="B211" s="104">
         <v>73.06</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A212" s="127">
+      <c r="A212" s="108">
         <v>43282</v>
       </c>
-      <c r="B212" s="123">
+      <c r="B212" s="104">
         <v>72.84</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A213" s="127">
+      <c r="A213" s="108">
         <v>43313</v>
       </c>
-      <c r="B213" s="123">
+      <c r="B213" s="104">
         <v>71.52</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A214" s="127">
+      <c r="A214" s="108">
         <v>43344</v>
       </c>
-      <c r="B214" s="123">
+      <c r="B214" s="104">
         <v>78.13</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A215" s="127">
+      <c r="A215" s="108">
         <v>43374</v>
       </c>
-      <c r="B215" s="123">
+      <c r="B215" s="104">
         <v>79.58</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A216" s="127">
+      <c r="A216" s="108">
         <v>43405</v>
       </c>
-      <c r="B216" s="123">
+      <c r="B216" s="104">
         <v>64.42</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A217" s="127">
+      <c r="A217" s="108">
         <v>43435</v>
       </c>
-      <c r="B217" s="123">
+      <c r="B217" s="104">
         <v>57.38</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A218" s="127">
+      <c r="A218" s="108">
         <v>43466</v>
       </c>
-      <c r="B218" s="123">
+      <c r="B218" s="104">
         <v>59.81</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A219" s="127">
+      <c r="A219" s="108">
         <v>43497</v>
       </c>
-      <c r="B219" s="123">
+      <c r="B219" s="104">
         <v>63.92</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A220" s="127">
+      <c r="A220" s="108">
         <v>43525</v>
       </c>
-      <c r="B220" s="123">
+      <c r="B220" s="104">
         <v>65.959999999999994</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A221" s="127">
+      <c r="A221" s="108">
         <v>43556</v>
       </c>
-      <c r="B221" s="123">
+      <c r="B221" s="104">
         <v>71.650000000000006</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A222" s="127">
+      <c r="A222" s="108">
         <v>43586</v>
       </c>
-      <c r="B222" s="123">
+      <c r="B222" s="104">
         <v>71.28</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A223" s="127">
+      <c r="A223" s="108">
         <v>43617</v>
       </c>
-      <c r="B223" s="123">
+      <c r="B223" s="104">
         <v>62.37</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A224" s="127">
+      <c r="A224" s="108">
         <v>43647</v>
       </c>
-      <c r="B224" s="123">
+      <c r="B224" s="104">
         <v>63.4</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A225" s="127">
+      <c r="A225" s="108">
         <v>43678</v>
       </c>
-      <c r="B225" s="123">
+      <c r="B225" s="104">
         <v>59.24</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A226" s="127">
+      <c r="A226" s="108">
         <v>43709</v>
       </c>
-      <c r="B226" s="123">
+      <c r="B226" s="104">
         <v>61.13</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A227" s="127">
+      <c r="A227" s="108">
         <v>43739</v>
       </c>
-      <c r="B227" s="123">
+      <c r="B227" s="104">
         <v>58.8</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A228" s="127">
+      <c r="A228" s="108">
         <v>43770</v>
       </c>
-      <c r="B228" s="123">
+      <c r="B228" s="104">
         <v>63.77</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A229" s="127">
+      <c r="A229" s="108">
         <v>43800</v>
       </c>
-      <c r="B229" s="123">
+      <c r="B229" s="104">
         <v>65.47</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A230" s="127">
+      <c r="A230" s="108">
         <v>43831</v>
       </c>
-      <c r="B230" s="123">
+      <c r="B230" s="104">
         <v>62.07</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A231" s="127">
+      <c r="A231" s="108">
         <v>43862</v>
       </c>
-      <c r="B231" s="123">
+      <c r="B231" s="104">
         <v>54.53</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A232" s="127">
+      <c r="A232" s="108">
         <v>43891</v>
       </c>
-      <c r="B232" s="123">
+      <c r="B232" s="104">
         <v>28.95</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A233" s="127">
+      <c r="A233" s="108">
         <v>43922</v>
       </c>
-      <c r="B233" s="123">
+      <c r="B233" s="104">
         <v>16.260000000000002</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A234" s="127">
+      <c r="A234" s="108">
         <v>43952</v>
       </c>
-      <c r="B234" s="123">
+      <c r="B234" s="104">
         <v>30.38</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A235" s="127">
+      <c r="A235" s="108">
         <v>43983</v>
       </c>
-      <c r="B235" s="123">
+      <c r="B235" s="104">
         <v>42.06</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A236" s="127">
+      <c r="A236" s="108">
         <v>44013</v>
       </c>
-      <c r="B236" s="123">
+      <c r="B236" s="104">
         <v>44.15</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A237" s="127">
+      <c r="A237" s="108">
         <v>44044</v>
       </c>
-      <c r="B237" s="123">
+      <c r="B237" s="104">
         <v>44.74</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A238" s="127">
+      <c r="A238" s="108">
         <v>44075</v>
       </c>
-      <c r="B238" s="123">
+      <c r="B238" s="104">
         <v>40.74</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A239" s="127">
+      <c r="A239" s="108">
         <v>44105</v>
       </c>
-      <c r="B239" s="123">
+      <c r="B239" s="104">
         <v>40.26</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A240" s="127">
+      <c r="A240" s="108">
         <v>44136</v>
       </c>
-      <c r="B240" s="123">
+      <c r="B240" s="104">
         <v>43.09</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A241" s="127">
+      <c r="A241" s="108">
         <v>44166</v>
       </c>
-      <c r="B241" s="123">
+      <c r="B241" s="104">
         <v>49.54</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A242" s="127">
+      <c r="A242" s="108">
         <v>44197</v>
       </c>
-      <c r="B242" s="123">
+      <c r="B242" s="104">
         <v>54.56</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A243" s="127">
+      <c r="A243" s="108">
         <v>44228</v>
       </c>
-      <c r="B243" s="123">
+      <c r="B243" s="104">
         <v>61.09</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A244" s="127">
+      <c r="A244" s="108">
         <v>44256</v>
       </c>
-      <c r="B244" s="123">
+      <c r="B244" s="104">
         <v>63.9</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A245" s="127">
+      <c r="A245" s="108">
         <v>44287</v>
       </c>
-      <c r="B245" s="123">
+      <c r="B245" s="104">
         <v>62.6</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A246" s="127">
+      <c r="A246" s="108">
         <v>44317</v>
       </c>
-      <c r="B246" s="123">
+      <c r="B246" s="104">
         <v>66.959999999999994</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A247" s="127">
+      <c r="A247" s="108">
         <v>44348</v>
       </c>
-      <c r="B247" s="123">
+      <c r="B247" s="104">
         <v>71.459999999999994</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A248" s="127">
+      <c r="A248" s="108">
         <v>44378</v>
       </c>
-      <c r="B248" s="123">
+      <c r="B248" s="104">
         <v>72.77</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A249" s="127">
+      <c r="A249" s="108">
         <v>44409</v>
       </c>
-      <c r="B249" s="123">
+      <c r="B249" s="104">
         <v>68.33</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A250" s="127">
+      <c r="A250" s="108">
         <v>44440</v>
       </c>
-      <c r="B250" s="123">
+      <c r="B250" s="104">
         <v>72.5</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A251" s="127">
+      <c r="A251" s="108">
         <v>44470</v>
       </c>
-      <c r="B251" s="123">
+      <c r="B251" s="104">
         <v>81.709999999999994</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A252" s="127">
+      <c r="A252" s="108">
         <v>44501</v>
       </c>
-      <c r="B252" s="123">
+      <c r="B252" s="104">
         <v>79.98</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A253" s="127">
+      <c r="A253" s="108">
         <v>44531</v>
       </c>
-      <c r="B253" s="123">
+      <c r="B253" s="104">
         <v>72.88</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A254" s="127">
+      <c r="A254" s="108">
         <v>44562</v>
       </c>
-      <c r="B254" s="123">
+      <c r="B254" s="104">
         <v>86.38</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A255" s="127">
+      <c r="A255" s="108">
         <v>44593</v>
       </c>
-      <c r="B255" s="123">
+      <c r="B255" s="104">
         <v>93.72</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A256" s="127">
+      <c r="A256" s="108">
         <v>44621</v>
       </c>
-      <c r="B256" s="123">
+      <c r="B256" s="104">
         <v>91.26</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A257" s="127">
+      <c r="A257" s="108">
         <v>44652</v>
       </c>
-      <c r="B257" s="123">
+      <c r="B257" s="104">
         <v>71.010000000000005</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A258" s="127">
+      <c r="A258" s="108">
         <v>44682</v>
       </c>
-      <c r="B258" s="123">
+      <c r="B258" s="104">
         <v>79.98</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A259" s="127">
+      <c r="A259" s="108">
         <v>44713</v>
       </c>
-      <c r="B259" s="123">
+      <c r="B259" s="104">
         <v>90.22</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A260" s="127">
+      <c r="A260" s="108">
         <v>44743</v>
       </c>
-      <c r="B260" s="123">
+      <c r="B260" s="104">
         <v>84.19</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A261" s="127">
+      <c r="A261" s="108">
         <v>44774</v>
       </c>
-      <c r="B261" s="123">
+      <c r="B261" s="104">
         <v>75.94</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A262" s="127">
+      <c r="A262" s="108">
         <v>44805</v>
       </c>
-      <c r="B262" s="123">
+      <c r="B262" s="104">
         <v>68.61</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A263" s="127">
+      <c r="A263" s="108">
         <v>44835</v>
       </c>
-      <c r="B263" s="123">
+      <c r="B263" s="104">
         <v>71.91</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A264" s="127">
+      <c r="A264" s="108">
         <v>44866</v>
       </c>
-      <c r="B264" s="123">
+      <c r="B264" s="104">
         <v>66.69</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A265" s="127">
+      <c r="A265" s="108">
         <v>44896</v>
       </c>
-      <c r="B265" s="123">
+      <c r="B265" s="104">
         <v>50.15</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A266" s="127">
+      <c r="A266" s="108">
         <v>44927</v>
       </c>
-      <c r="B266" s="124">
+      <c r="B266" s="105">
         <v>49.02</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A267" s="127">
+      <c r="A267" s="108">
         <v>44958</v>
       </c>
-      <c r="B267" s="124">
+      <c r="B267" s="105">
         <v>49.35</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A268" s="127">
+      <c r="A268" s="108">
         <v>44986</v>
       </c>
-      <c r="B268" s="124">
+      <c r="B268" s="105">
         <v>48.67</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="127">
+      <c r="A269" s="108">
         <v>45017</v>
       </c>
-      <c r="B269" s="125">
+      <c r="B269" s="106">
         <v>58.97</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="127">
+      <c r="A270" s="108">
         <v>45047</v>
       </c>
-      <c r="B270" s="125">
+      <c r="B270" s="106">
         <v>53.5</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="127">
+      <c r="A271" s="108">
         <v>45078</v>
       </c>
-      <c r="B271" s="125">
+      <c r="B271" s="106">
         <v>55.45</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="127">
+      <c r="A272" s="108">
         <v>45108</v>
       </c>
-      <c r="B272" s="125">
+      <c r="B272" s="106">
         <v>64.209999999999994</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A273" s="127">
+      <c r="A273" s="108">
         <v>45139</v>
       </c>
-      <c r="B273" s="125">
+      <c r="B273" s="106">
         <v>73.73</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="127">
+      <c r="A274" s="108">
         <v>45170</v>
       </c>
-      <c r="B274" s="125">
+      <c r="B274" s="106">
         <v>83.18</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A275" s="127">
+      <c r="A275" s="108">
         <v>45200</v>
       </c>
-      <c r="B275" s="125">
+      <c r="B275" s="106">
         <v>81.69</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A276" s="127">
+      <c r="A276" s="108">
         <v>45231</v>
       </c>
-      <c r="B276" s="125">
+      <c r="B276" s="106">
         <v>72.37</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A277" s="127">
+      <c r="A277" s="108">
         <v>45261</v>
       </c>
-      <c r="B277" s="125">
+      <c r="B277" s="106">
         <v>63.55</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="127">
+      <c r="A278" s="108">
         <v>45292</v>
       </c>
-      <c r="B278" s="125">
+      <c r="B278" s="106">
         <v>64.14</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A279" s="127">
+      <c r="A279" s="108">
         <v>45323</v>
       </c>
-      <c r="B279" s="125">
+      <c r="B279" s="106">
         <v>68.33</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A280" s="127">
+      <c r="A280" s="108">
         <v>45352</v>
       </c>
-      <c r="B280" s="125">
+      <c r="B280" s="106">
         <v>70.34</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="127">
+      <c r="A281" s="108">
         <v>45383</v>
       </c>
-      <c r="B281" s="125">
+      <c r="B281" s="106">
         <v>74.98</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A282" s="127">
+      <c r="A282" s="108">
         <v>45413</v>
       </c>
-      <c r="B282" s="125">
+      <c r="B282" s="106">
         <v>67.37</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A283" s="127">
+      <c r="A283" s="108">
         <v>45444</v>
       </c>
-      <c r="B283" s="125">
+      <c r="B283" s="106">
         <v>69.58</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A284" s="127">
+      <c r="A284" s="108">
         <v>45474</v>
       </c>
-      <c r="B284" s="125">
+      <c r="B284" s="106">
         <v>74.010000000000005</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="127">
+      <c r="A285" s="108">
         <v>45505</v>
       </c>
-      <c r="B285" s="125">
+      <c r="B285" s="106">
         <v>70.27</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A286" s="127">
+      <c r="A286" s="108">
         <v>45536</v>
       </c>
-      <c r="B286" s="125">
+      <c r="B286" s="106">
         <v>63.57</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="127">
+      <c r="A287" s="108">
         <v>45566</v>
       </c>
-      <c r="B287" s="125">
+      <c r="B287" s="106">
         <v>64.27</v>
       </c>
     </row>
@@ -9523,88 +9555,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101" t="s">
+      <c r="A1" s="109"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="101" t="s">
+      <c r="N1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="O1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="101" t="s">
+      <c r="Q1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="101" t="s">
+      <c r="R1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="101" t="s">
+      <c r="S1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="101" t="s">
+      <c r="T1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="101" t="s">
+      <c r="U1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="101" t="s">
+      <c r="V1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="101" t="s">
+      <c r="W1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="101" t="s">
+      <c r="X1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="101" t="s">
+      <c r="Y1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="101" t="s">
+      <c r="Z1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="101" t="s">
+      <c r="AA1" s="109" t="s">
         <v>89</v>
       </c>
       <c r="AB1" s="93"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="95" t="s">
         <v>88</v>
       </c>
@@ -9911,13 +9943,13 @@
       </c>
     </row>
     <row r="2" spans="1:81" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9930,112 +9962,112 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="106"/>
-      <c r="B3" s="104">
+      <c r="A3" s="114"/>
+      <c r="B3" s="110">
         <v>1995</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="104">
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="110">
         <v>1996</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="104">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="110">
         <v>1997</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="104">
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="110">
         <v>1998</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="104">
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="110">
         <v>1999</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="104">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="110">
         <v>2000</v>
       </c>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="104">
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="110">
         <v>2001</v>
       </c>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="104">
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="110">
         <v>2002</v>
       </c>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="104">
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="110">
         <v>2003</v>
       </c>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="104">
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="110">
         <v>2004</v>
       </c>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="104">
+      <c r="AM3" s="111"/>
+      <c r="AN3" s="111"/>
+      <c r="AO3" s="111"/>
+      <c r="AP3" s="110">
         <v>2005</v>
       </c>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="104">
+      <c r="AQ3" s="111"/>
+      <c r="AR3" s="111"/>
+      <c r="AS3" s="111"/>
+      <c r="AT3" s="110">
         <v>2006</v>
       </c>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="105"/>
-      <c r="AX3" s="104">
+      <c r="AU3" s="111"/>
+      <c r="AV3" s="111"/>
+      <c r="AW3" s="111"/>
+      <c r="AX3" s="110">
         <v>2007</v>
       </c>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="105"/>
-      <c r="BB3" s="104">
+      <c r="AY3" s="111"/>
+      <c r="AZ3" s="111"/>
+      <c r="BA3" s="111"/>
+      <c r="BB3" s="110">
         <v>2008</v>
       </c>
-      <c r="BC3" s="105"/>
-      <c r="BD3" s="105"/>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="104">
+      <c r="BC3" s="111"/>
+      <c r="BD3" s="111"/>
+      <c r="BE3" s="111"/>
+      <c r="BF3" s="110">
         <v>2009</v>
       </c>
-      <c r="BG3" s="104"/>
-      <c r="BH3" s="104"/>
-      <c r="BI3" s="104"/>
-      <c r="BJ3" s="104">
+      <c r="BG3" s="110"/>
+      <c r="BH3" s="110"/>
+      <c r="BI3" s="110"/>
+      <c r="BJ3" s="110">
         <v>2010</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104">
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110">
         <v>2011</v>
       </c>
-      <c r="BO3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
     </row>
     <row r="4" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="106"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -12979,26 +13011,26 @@
       <c r="BQ19" s="9"/>
     </row>
     <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -13045,18 +13077,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:R20"/>
     <mergeCell ref="B3:E3"/>
@@ -13065,6 +13085,18 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -13112,13 +13144,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -13133,94 +13165,94 @@
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="112"/>
-      <c r="B3" s="107">
+      <c r="A3" s="117"/>
+      <c r="B3" s="116">
         <v>2011</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116">
         <v>2012</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107">
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116">
         <v>2013</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107">
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116">
         <v>2014</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107">
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116">
         <v>2015</v>
       </c>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107">
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116">
         <v>2016</v>
       </c>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107">
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116">
         <v>2017</v>
       </c>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107">
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116">
         <v>2018</v>
       </c>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116">
         <v>2019</v>
       </c>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107">
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116">
         <v>2020</v>
       </c>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107" t="s">
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107" t="s">
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107" t="s">
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107" t="s">
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="107"/>
+      <c r="BC3" s="116"/>
+      <c r="BD3" s="116"/>
+      <c r="BE3" s="116"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -15548,21 +15580,21 @@
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
@@ -15632,6 +15664,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -15641,14 +15681,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -15682,13 +15714,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -15723,64 +15755,64 @@
       <c r="AK2" s="27"/>
     </row>
     <row r="3" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="115"/>
-      <c r="B3" s="114">
+      <c r="A3" s="123"/>
+      <c r="B3" s="121">
         <v>2003</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121">
         <v>2004</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114">
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121">
         <v>2005</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114">
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121">
         <v>2006</v>
       </c>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114">
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121">
         <v>2007</v>
       </c>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114">
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121">
         <v>2008</v>
       </c>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114">
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121">
         <v>2009</v>
       </c>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="107">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="116">
         <v>2010</v>
       </c>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107">
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116">
         <v>2011</v>
       </c>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
     </row>
     <row r="4" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="115"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
@@ -16984,26 +17016,26 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
@@ -17051,6 +17083,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
@@ -17058,11 +17095,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
@@ -17114,13 +17146,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -17159,94 +17191,94 @@
       <c r="AO2" s="27"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="116"/>
-      <c r="B3" s="114">
+      <c r="A3" s="126"/>
+      <c r="B3" s="121">
         <v>2011</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="117">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="124">
         <v>2012</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="114">
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="121">
         <v>2013</v>
       </c>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="117">
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="124">
         <v>2014</v>
       </c>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114">
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121">
         <v>2015</v>
       </c>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114">
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121">
         <v>2016</v>
       </c>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114">
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121">
         <v>2017</v>
       </c>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121">
         <v>2018</v>
       </c>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114">
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121">
         <v>2019</v>
       </c>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114">
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121">
         <v>2020</v>
       </c>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114">
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121"/>
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121">
         <v>2021</v>
       </c>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="107" t="s">
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121"/>
+      <c r="AT3" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107" t="s">
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107" t="s">
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="107"/>
+      <c r="BC3" s="116"/>
+      <c r="BD3" s="116"/>
+      <c r="BE3" s="116"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="116"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
@@ -19016,29 +19048,29 @@
       <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:57" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
@@ -19106,21 +19138,21 @@
       <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I19" s="12"/>
@@ -20529,6 +20561,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="BB3:BE3"/>
@@ -20542,11 +20579,6 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Science\FP-Shocks-Consumption-RU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468C991-ACCD-40C7-86DC-0584F6CCCABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7FC26-0FC7-4F49-8681-0295AADBC846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="СВОД" sheetId="24" r:id="rId1"/>
+    <sheet name="Q" sheetId="24" r:id="rId1"/>
     <sheet name="ЗП" sheetId="26" r:id="rId2"/>
     <sheet name="MIACR" sheetId="27" r:id="rId3"/>
     <sheet name="URALS" sheetId="28" r:id="rId4"/>
@@ -1735,27 +1735,21 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1764,26 +1758,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2345,7 +2345,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4393,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936FC24A-9338-409B-81D8-45082232D988}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4914,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33766F8-B43C-4BAD-9ABC-C3C2ED24B4D0}">
   <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7229,7 +7229,7 @@
   <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9943,13 +9943,13 @@
       </c>
     </row>
     <row r="2" spans="1:81" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9963,108 +9963,108 @@
     </row>
     <row r="3" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="114"/>
-      <c r="B3" s="110">
+      <c r="B3" s="112">
         <v>1995</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="110">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="112">
         <v>1996</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="110">
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="112">
         <v>1997</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="110">
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="112">
         <v>1998</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="110">
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="112">
         <v>1999</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="110">
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="112">
         <v>2000</v>
       </c>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="110">
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="112">
         <v>2001</v>
       </c>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="110">
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="112">
         <v>2002</v>
       </c>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="110">
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="112">
         <v>2003</v>
       </c>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="110">
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="112">
         <v>2004</v>
       </c>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="110">
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="112">
         <v>2005</v>
       </c>
-      <c r="AQ3" s="111"/>
-      <c r="AR3" s="111"/>
-      <c r="AS3" s="111"/>
-      <c r="AT3" s="110">
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="112">
         <v>2006</v>
       </c>
-      <c r="AU3" s="111"/>
-      <c r="AV3" s="111"/>
-      <c r="AW3" s="111"/>
-      <c r="AX3" s="110">
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="112">
         <v>2007</v>
       </c>
-      <c r="AY3" s="111"/>
-      <c r="AZ3" s="111"/>
-      <c r="BA3" s="111"/>
-      <c r="BB3" s="110">
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="112">
         <v>2008</v>
       </c>
-      <c r="BC3" s="111"/>
-      <c r="BD3" s="111"/>
-      <c r="BE3" s="111"/>
-      <c r="BF3" s="110">
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="113"/>
+      <c r="BF3" s="112">
         <v>2009</v>
       </c>
-      <c r="BG3" s="110"/>
-      <c r="BH3" s="110"/>
-      <c r="BI3" s="110"/>
-      <c r="BJ3" s="110">
+      <c r="BG3" s="112"/>
+      <c r="BH3" s="112"/>
+      <c r="BI3" s="112"/>
+      <c r="BJ3" s="112">
         <v>2010</v>
       </c>
-      <c r="BK3" s="110"/>
-      <c r="BL3" s="110"/>
-      <c r="BM3" s="110"/>
-      <c r="BN3" s="110">
+      <c r="BK3" s="112"/>
+      <c r="BL3" s="112"/>
+      <c r="BM3" s="112"/>
+      <c r="BN3" s="112">
         <v>2011</v>
       </c>
-      <c r="BO3" s="110"/>
-      <c r="BP3" s="110"/>
-      <c r="BQ3" s="110"/>
+      <c r="BO3" s="112"/>
+      <c r="BP3" s="112"/>
+      <c r="BQ3" s="112"/>
     </row>
     <row r="4" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="114"/>
@@ -13011,26 +13011,26 @@
       <c r="BQ19" s="9"/>
     </row>
     <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -13077,6 +13077,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:R20"/>
     <mergeCell ref="B3:E3"/>
@@ -13085,18 +13097,6 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -13144,13 +13144,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -13165,94 +13165,94 @@
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="117"/>
-      <c r="B3" s="116">
+      <c r="A3" s="120"/>
+      <c r="B3" s="115">
         <v>2011</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116">
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115">
         <v>2012</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115">
         <v>2013</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116">
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115">
         <v>2014</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116">
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115">
         <v>2015</v>
       </c>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116">
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115">
         <v>2016</v>
       </c>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116">
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115">
         <v>2017</v>
       </c>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116">
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115">
         <v>2018</v>
       </c>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116">
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115">
         <v>2019</v>
       </c>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116">
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115">
         <v>2020</v>
       </c>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116" t="s">
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="115"/>
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="116" t="s">
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="116"/>
-      <c r="AV3" s="116"/>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116" t="s">
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="116"/>
-      <c r="BA3" s="116"/>
-      <c r="BB3" s="116" t="s">
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="115"/>
+      <c r="BB3" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="116"/>
-      <c r="BD3" s="116"/>
-      <c r="BE3" s="116"/>
+      <c r="BC3" s="115"/>
+      <c r="BD3" s="115"/>
+      <c r="BE3" s="115"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="117"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -15580,21 +15580,21 @@
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
@@ -15664,14 +15664,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -15681,6 +15673,14 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -15714,13 +15714,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -15756,60 +15756,60 @@
     </row>
     <row r="3" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="123"/>
-      <c r="B3" s="121">
+      <c r="B3" s="122">
         <v>2003</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122">
         <v>2004</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121">
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122">
         <v>2005</v>
       </c>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121">
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122">
         <v>2006</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122">
         <v>2007</v>
       </c>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121">
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122">
         <v>2008</v>
       </c>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121">
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122">
         <v>2009</v>
       </c>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="116">
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="115">
         <v>2010</v>
       </c>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116">
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115">
         <v>2011</v>
       </c>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
     </row>
     <row r="4" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="123"/>
@@ -17016,26 +17016,26 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
@@ -17083,11 +17083,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
@@ -17095,6 +17090,11 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
@@ -17146,13 +17146,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -17191,94 +17191,94 @@
       <c r="AO2" s="27"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="126"/>
-      <c r="B3" s="121">
+      <c r="A3" s="124"/>
+      <c r="B3" s="122">
         <v>2011</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="124">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="125">
         <v>2012</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="121">
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="122">
         <v>2013</v>
       </c>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="124">
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="125">
         <v>2014</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122">
         <v>2015</v>
       </c>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121">
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122">
         <v>2016</v>
       </c>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121">
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122">
         <v>2017</v>
       </c>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121">
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122">
         <v>2018</v>
       </c>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121">
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122">
         <v>2019</v>
       </c>
-      <c r="AI3" s="121"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121">
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122">
         <v>2020</v>
       </c>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="121"/>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="121">
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122">
         <v>2021</v>
       </c>
-      <c r="AQ3" s="121"/>
-      <c r="AR3" s="121"/>
-      <c r="AS3" s="121"/>
-      <c r="AT3" s="116" t="s">
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="116"/>
-      <c r="AV3" s="116"/>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116" t="s">
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="116"/>
-      <c r="BA3" s="116"/>
-      <c r="BB3" s="116" t="s">
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="115"/>
+      <c r="BB3" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="116"/>
-      <c r="BD3" s="116"/>
-      <c r="BE3" s="116"/>
+      <c r="BC3" s="115"/>
+      <c r="BD3" s="115"/>
+      <c r="BE3" s="115"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="126"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
@@ -19048,29 +19048,29 @@
       <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:57" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
@@ -19138,21 +19138,21 @@
       <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I19" s="12"/>
@@ -20561,11 +20561,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="BB3:BE3"/>
@@ -20579,6 +20574,11 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Science\FP-Shocks-Consumption-RU\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA1C533-EF89-48E3-997D-A59A245167AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60EE1A-11C7-437A-B1A1-AD5BE8FAE21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2716,24 +2716,70 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="3" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2742,32 +2788,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2813,86 +2893,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="20" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3796,10 +3796,10 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3868,12 +3868,16 @@
         <f t="array" ref="F2:F37">TRANSPOSE(ВВП_ПОСТ_95!AG5:BP5)</f>
         <v>6567.3624878067303</v>
       </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G32" si="2">G3*F2/F3</f>
+        <v>18924.294769433058</v>
+      </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2:H37">TRANSPOSE(ВВП_ПОСТ_СК_03!B5:AK5)</f>
         <v>7119.7</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="2">I3*H2/H3</f>
+        <f t="shared" ref="I2:I33" si="3">I3*H2/H3</f>
         <v>20256.248476688404</v>
       </c>
       <c r="J2">
@@ -3903,14 +3907,14 @@
         <v>7052.2818355732279</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G32" si="3">G4*F3/F4</f>
+        <f t="shared" si="2"/>
         <v>20321.622340976795</v>
       </c>
       <c r="H3">
         <v>7199.1</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20482.149305241441</v>
       </c>
       <c r="J3" t="str">
@@ -3940,14 +3944,14 @@
         <v>7742.6956491874416</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22311.095976090128</v>
       </c>
       <c r="H4">
         <v>7320.6</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20827.82878470232</v>
       </c>
       <c r="J4" t="str">
@@ -3977,14 +3981,14 @@
         <v>7942.5897343948027</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22887.104167834332</v>
       </c>
       <c r="H5">
         <v>7454.1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21207.649447319833</v>
       </c>
       <c r="J5" t="str">
@@ -4014,14 +4018,14 @@
         <v>7042.9143712430487</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20294.629365249388</v>
       </c>
       <c r="H6">
         <v>7594.2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21606.24776067349</v>
       </c>
       <c r="J6">
@@ -4051,14 +4055,14 @@
         <v>7618.5503945037517</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21953.363111759521</v>
       </c>
       <c r="H7">
         <v>7740.5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22022.48568532474</v>
       </c>
       <c r="J7" t="str">
@@ -4088,14 +4092,14 @@
         <v>8309.7849045319381</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23945.201638544822</v>
       </c>
       <c r="H8">
         <v>7857.8</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22356.215750680803</v>
       </c>
       <c r="J8" t="str">
@@ -4125,14 +4129,14 @@
         <v>8436.5869034097614</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24310.590089170553</v>
       </c>
       <c r="H9">
         <v>7945.6</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22606.015407443483</v>
       </c>
       <c r="J9" t="str">
@@ -4162,14 +4166,14 @@
         <v>7435.6321123156813</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21426.271833141604</v>
       </c>
       <c r="H10">
         <v>8084.5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23001.199602481476</v>
       </c>
       <c r="J10">
@@ -4199,14 +4203,14 @@
         <v>8076.7275258256705</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23273.631195917747</v>
       </c>
       <c r="H11">
         <v>8207.6</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23351.43123969658</v>
       </c>
       <c r="J11" t="str">
@@ -4236,14 +4240,14 @@
         <v>8805.1125919062306</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25372.521537627046</v>
       </c>
       <c r="H12">
         <v>8352.2000000000007</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23762.832496733979</v>
       </c>
       <c r="J12" t="str">
@@ -4273,14 +4277,14 @@
         <v>9092.9867447186043</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26202.05018545741</v>
       </c>
       <c r="H13">
         <v>8524.5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24253.042984891261</v>
       </c>
       <c r="J13" t="str">
@@ -4310,14 +4314,14 @@
         <v>7978.2535630730572</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22989.871878276215</v>
       </c>
       <c r="H14">
         <v>8689.1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24721.346213856374</v>
       </c>
       <c r="J14">
@@ -4347,14 +4351,14 @@
         <v>8729.4674338245131</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25154.544949297007</v>
       </c>
       <c r="H15">
         <v>8856.4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25197.331209031727</v>
       </c>
       <c r="J15" t="str">
@@ -4384,14 +4388,14 @@
         <v>9526.331134701084</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27450.761062607024</v>
       </c>
       <c r="H16">
         <v>9059.7000000000007</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25775.739753676975</v>
       </c>
       <c r="J16" t="str">
@@ -4421,14 +4425,14 @@
         <v>9900.5058875128798</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28528.970668158276</v>
       </c>
       <c r="H17">
         <v>9231.7999999999993</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26265.381222114975</v>
       </c>
       <c r="J17" t="str">
@@ -4458,14 +4462,14 @@
         <v>8622.0882524558747</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24845.124647906101</v>
       </c>
       <c r="H18">
         <v>9399.2000000000007</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26741.650727149972</v>
       </c>
       <c r="J18">
@@ -4495,14 +4499,14 @@
         <v>9481.7873938464381</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27322.40529061612</v>
       </c>
       <c r="H19">
         <v>9636.4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27416.508114212695</v>
       </c>
       <c r="J19" t="str">
@@ -4532,14 +4536,14 @@
         <v>10304.874786601602</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29694.186728053537</v>
       </c>
       <c r="H20">
         <v>9848.9</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28021.091565944691</v>
       </c>
       <c r="J20" t="str">
@@ -4569,14 +4573,14 @@
         <v>10809.921096334418</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31149.51148823593</v>
       </c>
       <c r="H21">
         <v>10163.5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28916.159584367681</v>
       </c>
       <c r="J21" t="str">
@@ -4606,14 +4610,14 @@
         <v>9413.2327802753989</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27124.860581087494</v>
       </c>
       <c r="H22">
         <v>10433.1</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29683.198165953308</v>
       </c>
       <c r="J22">
@@ -4643,14 +4647,14 @@
         <v>10230.976031339562</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29481.242516390248</v>
       </c>
       <c r="H23">
         <v>10498</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29867.845064858746</v>
       </c>
       <c r="J23" t="str">
@@ -4680,14 +4684,14 @@
         <v>10965.628624133751</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31598.193156008219</v>
       </c>
       <c r="H24">
         <v>10341.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29422.587134524358</v>
       </c>
       <c r="J24" t="str">
@@ -4717,14 +4721,14 @@
         <v>10667.011751193821</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30737.708640781035</v>
       </c>
       <c r="H25">
         <v>10005.200000000001</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28465.780476559794</v>
       </c>
       <c r="J25" t="str">
@@ -4754,14 +4758,14 @@
         <v>8547.0499469516144</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24628.896745913797</v>
       </c>
       <c r="H26">
         <v>9652.2999999999993</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27461.745181895221</v>
       </c>
       <c r="J26">
@@ -4791,14 +4795,14 @@
         <v>9090.0907593426164</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26193.705209676813</v>
       </c>
       <c r="H27">
         <v>9511.5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27061.155299524093</v>
       </c>
       <c r="J27" t="str">
@@ -4828,14 +4832,14 @@
         <v>10020.534892038424</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28874.842282027665</v>
       </c>
       <c r="H28">
         <v>9550.5</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27172.11414478314</v>
       </c>
       <c r="J28" t="str">
@@ -4865,14 +4869,14 @@
         <v>10390.958671273713</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29942.243206047176</v>
       </c>
       <c r="H29">
         <v>9653.7999999999993</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27466.012829789797</v>
       </c>
       <c r="J29" t="str">
@@ -4902,14 +4906,14 @@
         <v>8894.8535246266911</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25631.11604445364</v>
       </c>
       <c r="H30">
         <v>9860.2999999999993</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28053.525689943475</v>
       </c>
       <c r="J30">
@@ -4939,14 +4943,14 @@
         <v>9544.6148652066458</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27503.446856365863</v>
       </c>
       <c r="H31">
         <v>9953.9</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28319.826918565192</v>
       </c>
       <c r="J31" t="str">
@@ -4976,14 +4980,14 @@
         <v>10403.947084886548</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29979.67018959696</v>
       </c>
       <c r="H32">
         <v>10006.1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28468.341065296532</v>
       </c>
       <c r="J32" t="str">
@@ -5020,7 +5024,7 @@
         <v>10131.799999999999</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28825.969958862232</v>
       </c>
       <c r="J33" t="str">
@@ -6259,723 +6263,728 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="201" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="201" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="201" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="201" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="201" customWidth="1"/>
-    <col min="19" max="19" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="201" customWidth="1"/>
-    <col min="23" max="23" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" style="201" customWidth="1"/>
-    <col min="27" max="27" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="201" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7265625" style="201" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7265625" style="201" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="41" max="48" width="13.26953125" style="201" customWidth="1"/>
-    <col min="49" max="52" width="13.1796875" style="201" customWidth="1"/>
-    <col min="53" max="56" width="12.7265625" style="201" customWidth="1"/>
-    <col min="57" max="57" width="10.453125" style="201" customWidth="1"/>
-    <col min="58" max="58" width="11" style="201" customWidth="1"/>
-    <col min="59" max="59" width="11.54296875" style="201" customWidth="1"/>
-    <col min="60" max="60" width="11.7265625" style="201" customWidth="1"/>
-    <col min="61" max="61" width="10.453125" style="201" customWidth="1"/>
-    <col min="62" max="62" width="11" style="201" customWidth="1"/>
-    <col min="63" max="63" width="11.54296875" style="201" customWidth="1"/>
-    <col min="64" max="64" width="11.7265625" style="201" customWidth="1"/>
-    <col min="65" max="65" width="10.453125" style="201" customWidth="1"/>
-    <col min="66" max="66" width="11" style="201" customWidth="1"/>
-    <col min="67" max="67" width="11.54296875" style="201" customWidth="1"/>
-    <col min="68" max="68" width="11.7265625" style="201" customWidth="1"/>
-    <col min="69" max="69" width="10.453125" style="201" customWidth="1"/>
-    <col min="70" max="70" width="11" style="201" customWidth="1"/>
-    <col min="71" max="71" width="11.54296875" style="201" customWidth="1"/>
-    <col min="72" max="72" width="11.7265625" style="201" customWidth="1"/>
-    <col min="73" max="73" width="10.453125" style="201" customWidth="1"/>
-    <col min="74" max="74" width="11" style="201" customWidth="1"/>
-    <col min="75" max="75" width="11.54296875" style="201" customWidth="1"/>
-    <col min="76" max="76" width="11.7265625" style="201" customWidth="1"/>
-    <col min="77" max="77" width="11" style="201" customWidth="1"/>
-    <col min="78" max="79" width="12.1796875" style="201" customWidth="1"/>
-    <col min="80" max="80" width="13.1796875" style="201" customWidth="1"/>
-    <col min="81" max="16384" width="9.1796875" style="201"/>
+    <col min="1" max="1" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="164" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="164" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="164" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="164" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" style="164" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" style="164" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" style="164" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7265625" style="164" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7265625" style="164" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" style="164" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7265625" style="164" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" style="164" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.453125" style="164" bestFit="1" customWidth="1"/>
+    <col min="41" max="48" width="13.26953125" style="164" customWidth="1"/>
+    <col min="49" max="52" width="13.1796875" style="164" customWidth="1"/>
+    <col min="53" max="56" width="12.7265625" style="164" customWidth="1"/>
+    <col min="57" max="57" width="10.453125" style="164" customWidth="1"/>
+    <col min="58" max="58" width="11" style="164" customWidth="1"/>
+    <col min="59" max="59" width="11.54296875" style="164" customWidth="1"/>
+    <col min="60" max="60" width="11.7265625" style="164" customWidth="1"/>
+    <col min="61" max="61" width="10.453125" style="164" customWidth="1"/>
+    <col min="62" max="62" width="11" style="164" customWidth="1"/>
+    <col min="63" max="63" width="11.54296875" style="164" customWidth="1"/>
+    <col min="64" max="64" width="11.7265625" style="164" customWidth="1"/>
+    <col min="65" max="65" width="10.453125" style="164" customWidth="1"/>
+    <col min="66" max="66" width="11" style="164" customWidth="1"/>
+    <col min="67" max="67" width="11.54296875" style="164" customWidth="1"/>
+    <col min="68" max="68" width="11.7265625" style="164" customWidth="1"/>
+    <col min="69" max="69" width="10.453125" style="164" customWidth="1"/>
+    <col min="70" max="70" width="11" style="164" customWidth="1"/>
+    <col min="71" max="71" width="11.54296875" style="164" customWidth="1"/>
+    <col min="72" max="72" width="11.7265625" style="164" customWidth="1"/>
+    <col min="73" max="73" width="10.453125" style="164" customWidth="1"/>
+    <col min="74" max="74" width="11" style="164" customWidth="1"/>
+    <col min="75" max="75" width="11.54296875" style="164" customWidth="1"/>
+    <col min="76" max="76" width="11.7265625" style="164" customWidth="1"/>
+    <col min="77" max="77" width="11" style="164" customWidth="1"/>
+    <col min="78" max="79" width="12.1796875" style="164" customWidth="1"/>
+    <col min="80" max="80" width="13.1796875" style="164" customWidth="1"/>
+    <col min="81" max="16384" width="9.1796875" style="164"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
     </row>
     <row r="2" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="203"/>
-      <c r="AJ2" s="203"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="203"/>
-      <c r="AM2" s="203"/>
-      <c r="AN2" s="203"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="204"/>
-      <c r="AQ2" s="204"/>
-      <c r="AR2" s="204"/>
-      <c r="AS2" s="204"/>
-      <c r="AT2" s="204"/>
-      <c r="AU2" s="204"/>
-      <c r="AV2" s="204"/>
-      <c r="AW2" s="204"/>
-      <c r="AX2" s="204"/>
-      <c r="AY2" s="204"/>
-      <c r="AZ2" s="204"/>
-      <c r="BA2" s="204"/>
-      <c r="BB2" s="204"/>
-      <c r="BC2" s="204"/>
-      <c r="BD2" s="204"/>
-      <c r="BE2" s="204"/>
-      <c r="BF2" s="204"/>
-      <c r="BG2" s="204"/>
-      <c r="BH2" s="204"/>
-      <c r="BI2" s="204"/>
-      <c r="BJ2" s="204"/>
-      <c r="BK2" s="204"/>
-      <c r="BL2" s="204"/>
-      <c r="BM2" s="204"/>
-      <c r="BN2" s="204"/>
-      <c r="BO2" s="204"/>
-      <c r="BP2" s="204"/>
-      <c r="BQ2" s="204"/>
-      <c r="BR2" s="204"/>
-      <c r="BS2" s="204"/>
-      <c r="BT2" s="204"/>
-      <c r="BU2" s="205"/>
-      <c r="BV2" s="205"/>
-      <c r="BW2" s="205"/>
-      <c r="BX2" s="205"/>
-    </row>
-    <row r="3" spans="1:76" s="205" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="206">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
+      <c r="AX2" s="166"/>
+      <c r="AY2" s="166"/>
+      <c r="AZ2" s="166"/>
+      <c r="BA2" s="166"/>
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="166"/>
+      <c r="BH2" s="166"/>
+      <c r="BI2" s="166"/>
+      <c r="BJ2" s="166"/>
+      <c r="BK2" s="166"/>
+      <c r="BL2" s="166"/>
+      <c r="BM2" s="166"/>
+      <c r="BN2" s="166"/>
+      <c r="BO2" s="166"/>
+      <c r="BP2" s="166"/>
+      <c r="BQ2" s="166"/>
+      <c r="BR2" s="166"/>
+      <c r="BS2" s="166"/>
+      <c r="BT2" s="166"/>
+      <c r="BU2" s="167"/>
+      <c r="BV2" s="167"/>
+      <c r="BW2" s="167"/>
+      <c r="BX2" s="167"/>
+    </row>
+    <row r="3" spans="1:76" s="167" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="196">
         <v>2011</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="206">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="196">
         <v>2012</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="206">
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="196">
         <v>2013</v>
       </c>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="206">
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="196">
         <v>2014</v>
       </c>
-      <c r="N3" s="207"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="206">
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="196">
         <v>2015</v>
       </c>
-      <c r="R3" s="207"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="206">
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="196">
         <v>2016</v>
       </c>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="206">
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="196">
         <v>2017</v>
       </c>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="206">
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="196">
         <v>2018</v>
       </c>
-      <c r="AD3" s="207"/>
-      <c r="AE3" s="207"/>
-      <c r="AF3" s="207"/>
-      <c r="AG3" s="206">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="196">
         <v>2019</v>
       </c>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="207"/>
-      <c r="AJ3" s="207"/>
-      <c r="AK3" s="206">
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197"/>
+      <c r="AK3" s="196">
         <v>2020</v>
       </c>
-      <c r="AL3" s="207"/>
-      <c r="AM3" s="207"/>
-      <c r="AN3" s="207"/>
-      <c r="AO3" s="208" t="s">
+      <c r="AL3" s="197"/>
+      <c r="AM3" s="197"/>
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="190" t="s">
         <v>175</v>
       </c>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="209"/>
-      <c r="AS3" s="208" t="s">
+      <c r="AP3" s="191"/>
+      <c r="AQ3" s="191"/>
+      <c r="AR3" s="191"/>
+      <c r="AS3" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="AT3" s="209"/>
-      <c r="AU3" s="209"/>
-      <c r="AV3" s="209"/>
-      <c r="AW3" s="208" t="s">
+      <c r="AT3" s="191"/>
+      <c r="AU3" s="191"/>
+      <c r="AV3" s="191"/>
+      <c r="AW3" s="190" t="s">
         <v>177</v>
       </c>
-      <c r="AX3" s="209"/>
-      <c r="AY3" s="209"/>
-      <c r="AZ3" s="209"/>
-      <c r="BA3" s="208" t="s">
+      <c r="AX3" s="191"/>
+      <c r="AY3" s="191"/>
+      <c r="AZ3" s="191"/>
+      <c r="BA3" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="BB3" s="209"/>
-      <c r="BC3" s="209"/>
-      <c r="BD3" s="209"/>
-    </row>
-    <row r="4" spans="1:76" s="211" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="210" t="s">
+      <c r="BB3" s="191"/>
+      <c r="BC3" s="191"/>
+      <c r="BD3" s="191"/>
+    </row>
+    <row r="4" spans="1:76" s="169" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="210" t="s">
+      <c r="D4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="210" t="s">
+      <c r="E4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="210" t="s">
+      <c r="F4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="210" t="s">
+      <c r="G4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="210" t="s">
+      <c r="H4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="210" t="s">
+      <c r="I4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="210" t="s">
+      <c r="J4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="210" t="s">
+      <c r="K4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="210" t="s">
+      <c r="L4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="210" t="s">
+      <c r="M4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="210" t="s">
+      <c r="N4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="210" t="s">
+      <c r="O4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="210" t="s">
+      <c r="P4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="210" t="s">
+      <c r="Q4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="210" t="s">
+      <c r="R4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="210" t="s">
+      <c r="S4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="210" t="s">
+      <c r="T4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="210" t="s">
+      <c r="U4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="210" t="s">
+      <c r="V4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="210" t="s">
+      <c r="W4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="210" t="s">
+      <c r="X4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="210" t="s">
+      <c r="Y4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="210" t="s">
+      <c r="Z4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="210" t="s">
+      <c r="AA4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="210" t="s">
+      <c r="AB4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="210" t="s">
+      <c r="AC4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="210" t="s">
+      <c r="AD4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="210" t="s">
+      <c r="AE4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="210" t="s">
+      <c r="AF4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="210" t="s">
+      <c r="AG4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="210" t="s">
+      <c r="AH4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="210" t="s">
+      <c r="AI4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" s="210" t="s">
+      <c r="AJ4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="AK4" s="210" t="s">
+      <c r="AK4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="210" t="s">
+      <c r="AL4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AM4" s="210" t="s">
+      <c r="AM4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="210" t="s">
+      <c r="AN4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="AO4" s="210" t="s">
+      <c r="AO4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="210" t="s">
+      <c r="AP4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AQ4" s="210" t="s">
+      <c r="AQ4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AR4" s="210" t="s">
+      <c r="AR4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="AS4" s="210" t="s">
+      <c r="AS4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="210" t="s">
+      <c r="AT4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" s="210" t="s">
+      <c r="AU4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="210" t="s">
+      <c r="AV4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="210" t="s">
+      <c r="AW4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="210" t="s">
+      <c r="AX4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" s="210" t="s">
+      <c r="AY4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="210" t="s">
+      <c r="AZ4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="BA4" s="210" t="s">
+      <c r="BA4" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="BB4" s="210" t="s">
+      <c r="BB4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="BC4" s="210" t="s">
+      <c r="BC4" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="BD4" s="210" t="s">
+      <c r="BD4" s="168" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:76" s="213" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="212">
+    <row r="5" spans="1:76" s="171" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="170">
         <v>26470.295853998206</v>
       </c>
-      <c r="B5" s="212">
+      <c r="B5" s="170">
         <v>28624.554577207771</v>
       </c>
-      <c r="C5" s="212">
+      <c r="C5" s="170">
         <v>30177.235769442759</v>
       </c>
-      <c r="D5" s="212">
+      <c r="D5" s="170">
         <v>32311.819119061714</v>
       </c>
-      <c r="E5" s="212">
+      <c r="E5" s="170">
         <v>27979.628160962013</v>
       </c>
-      <c r="F5" s="212">
+      <c r="F5" s="170">
         <v>30013.804133037102</v>
       </c>
-      <c r="G5" s="212">
+      <c r="G5" s="170">
         <v>31230.625524314739</v>
       </c>
-      <c r="H5" s="212">
+      <c r="H5" s="170">
         <v>33091.52515843838</v>
       </c>
-      <c r="I5" s="212">
+      <c r="I5" s="170">
         <v>28296.087789427642</v>
       </c>
-      <c r="J5" s="212">
+      <c r="J5" s="170">
         <v>30530.548806599796</v>
       </c>
-      <c r="K5" s="212">
+      <c r="K5" s="170">
         <v>31702.127126624488</v>
       </c>
-      <c r="L5" s="212">
+      <c r="L5" s="170">
         <v>33933.974089551863</v>
       </c>
-      <c r="M5" s="212">
+      <c r="M5" s="170">
         <v>28282.693790175519</v>
       </c>
-      <c r="N5" s="212">
+      <c r="N5" s="170">
         <v>30700.112108765305</v>
       </c>
-      <c r="O5" s="212">
+      <c r="O5" s="170">
         <v>32147.55703496802</v>
       </c>
-      <c r="P5" s="212">
+      <c r="P5" s="170">
         <v>34248.753219667917</v>
       </c>
-      <c r="Q5" s="212">
+      <c r="Q5" s="170">
         <v>27851.058330236454</v>
       </c>
-      <c r="R5" s="212">
+      <c r="R5" s="170">
         <v>29751.825449916432</v>
       </c>
-      <c r="S5" s="212">
+      <c r="S5" s="170">
         <v>31601.099098771829</v>
       </c>
-      <c r="T5" s="212">
+      <c r="T5" s="170">
         <v>33701.755344362624</v>
       </c>
-      <c r="U5" s="212">
+      <c r="U5" s="170">
         <v>27793.61039260219</v>
       </c>
-      <c r="V5" s="212">
+      <c r="V5" s="170">
         <v>29847.375049196315</v>
       </c>
-      <c r="W5" s="212">
+      <c r="W5" s="170">
         <v>31619.647932924752</v>
       </c>
-      <c r="X5" s="212">
+      <c r="X5" s="170">
         <v>33883.137781474725</v>
       </c>
-      <c r="Y5" s="212">
+      <c r="Y5" s="170">
         <v>28157.688113915479</v>
       </c>
-      <c r="Z5" s="212">
+      <c r="Z5" s="170">
         <v>30546.21443581938</v>
       </c>
-      <c r="AA5" s="212">
+      <c r="AA5" s="170">
         <v>32453.733644924803</v>
       </c>
-      <c r="AB5" s="212">
+      <c r="AB5" s="170">
         <v>34235.60872568834</v>
       </c>
-      <c r="AC5" s="212">
+      <c r="AC5" s="170">
         <v>28879.422817939172</v>
       </c>
-      <c r="AD5" s="212">
+      <c r="AD5" s="170">
         <v>31379.833354853676</v>
       </c>
-      <c r="AE5" s="212">
+      <c r="AE5" s="170">
         <v>33308.472182729238</v>
       </c>
-      <c r="AF5" s="212">
+      <c r="AF5" s="170">
         <v>35344.478383133173</v>
       </c>
-      <c r="AG5" s="212">
+      <c r="AG5" s="170">
         <v>29280.396315494418</v>
       </c>
-      <c r="AH5" s="212">
+      <c r="AH5" s="170">
         <v>31805.782772044862</v>
       </c>
-      <c r="AI5" s="212">
+      <c r="AI5" s="170">
         <v>34230.256451705878</v>
       </c>
-      <c r="AJ5" s="212">
+      <c r="AJ5" s="170">
         <v>36429.359107881675</v>
       </c>
-      <c r="AK5" s="212">
+      <c r="AK5" s="170">
         <v>29724.309209044317</v>
       </c>
-      <c r="AL5" s="212">
+      <c r="AL5" s="170">
         <v>29479.045971066265</v>
       </c>
-      <c r="AM5" s="212">
+      <c r="AM5" s="170">
         <v>33091.022442728572</v>
       </c>
-      <c r="AN5" s="212">
+      <c r="AN5" s="170">
         <v>35955.338820085803</v>
       </c>
-      <c r="AO5" s="212">
+      <c r="AO5" s="170">
         <v>29982.533435153699</v>
       </c>
-      <c r="AP5" s="212">
+      <c r="AP5" s="170">
         <v>32829.625732350469</v>
       </c>
-      <c r="AQ5" s="212">
+      <c r="AQ5" s="170">
         <v>34818.893244791579</v>
       </c>
-      <c r="AR5" s="212">
+      <c r="AR5" s="170">
         <v>38142.716608083378</v>
       </c>
-      <c r="AS5" s="212">
+      <c r="AS5" s="170">
         <v>31103.957820327774</v>
       </c>
-      <c r="AT5" s="212">
+      <c r="AT5" s="170">
         <v>31679.223218043706</v>
       </c>
-      <c r="AU5" s="212">
+      <c r="AU5" s="170">
         <v>33857.522587431995</v>
       </c>
-      <c r="AV5" s="212">
+      <c r="AV5" s="170">
         <v>37439.930767361657</v>
       </c>
-      <c r="AW5" s="212">
+      <c r="AW5" s="170">
         <v>30615.796201503228</v>
       </c>
-      <c r="AX5" s="212">
+      <c r="AX5" s="170">
         <v>33291.767459860363</v>
       </c>
-      <c r="AY5" s="212">
+      <c r="AY5" s="170">
         <v>35797.406697727325</v>
       </c>
-      <c r="AZ5" s="212">
+      <c r="AZ5" s="170">
         <v>39268.666617901581</v>
       </c>
-      <c r="BA5" s="212">
+      <c r="BA5" s="170">
         <v>32256.951208720409</v>
       </c>
-      <c r="BB5" s="212">
+      <c r="BB5" s="170">
         <v>34667.890774945357</v>
       </c>
-      <c r="BC5" s="212">
+      <c r="BC5" s="170">
         <v>36921.001383343202</v>
       </c>
-      <c r="BD5" s="212"/>
+      <c r="BD5" s="170"/>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.35">
-      <c r="AF6" s="214"/>
-      <c r="AJ6" s="214"/>
-      <c r="AN6" s="214"/>
-      <c r="AR6" s="214"/>
-      <c r="AV6" s="214"/>
-      <c r="AZ6" s="214"/>
-      <c r="BD6" s="214"/>
-      <c r="BH6" s="214"/>
-      <c r="BL6" s="214"/>
-      <c r="BP6" s="214"/>
-      <c r="BT6" s="214"/>
+      <c r="AF6" s="172"/>
+      <c r="AJ6" s="172"/>
+      <c r="AN6" s="172"/>
+      <c r="AR6" s="172"/>
+      <c r="AV6" s="172"/>
+      <c r="AZ6" s="172"/>
+      <c r="BD6" s="172"/>
+      <c r="BH6" s="172"/>
+      <c r="BL6" s="172"/>
+      <c r="BP6" s="172"/>
+      <c r="BT6" s="172"/>
     </row>
     <row r="7" spans="1:76" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="215" t="s">
+      <c r="A7" s="192" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="AR7" s="214"/>
-      <c r="AV7" s="214"/>
-      <c r="AZ7" s="214"/>
-      <c r="BD7" s="214"/>
-      <c r="BH7" s="214"/>
-      <c r="BL7" s="214"/>
-      <c r="BP7" s="214"/>
-      <c r="BT7" s="214"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="AR7" s="172"/>
+      <c r="AV7" s="172"/>
+      <c r="AZ7" s="172"/>
+      <c r="BD7" s="172"/>
+      <c r="BH7" s="172"/>
+      <c r="BL7" s="172"/>
+      <c r="BP7" s="172"/>
+      <c r="BT7" s="172"/>
     </row>
     <row r="8" spans="1:76" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="217" t="s">
+      <c r="A8" s="194" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="218"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="AF8" s="214"/>
-      <c r="AG8" s="213"/>
-      <c r="AH8" s="213"/>
-      <c r="AI8" s="213"/>
-      <c r="AJ8" s="213"/>
-      <c r="AK8" s="213"/>
-      <c r="AL8" s="213"/>
-      <c r="AM8" s="213"/>
-      <c r="AN8" s="213"/>
-      <c r="AO8" s="213"/>
-      <c r="AP8" s="213"/>
-      <c r="AQ8" s="213"/>
-      <c r="AR8" s="213"/>
-      <c r="AV8" s="214"/>
-      <c r="AZ8" s="214"/>
-      <c r="BD8" s="214"/>
-      <c r="BH8" s="214"/>
-      <c r="BL8" s="214"/>
-      <c r="BP8" s="214"/>
-      <c r="BT8" s="214"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="AF8" s="172"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="171"/>
+      <c r="AQ8" s="171"/>
+      <c r="AR8" s="171"/>
+      <c r="AV8" s="172"/>
+      <c r="AZ8" s="172"/>
+      <c r="BD8" s="172"/>
+      <c r="BH8" s="172"/>
+      <c r="BL8" s="172"/>
+      <c r="BP8" s="172"/>
+      <c r="BT8" s="172"/>
     </row>
     <row r="9" spans="1:76" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="188" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="220"/>
-      <c r="AC9" s="213"/>
-      <c r="AD9" s="213"/>
-      <c r="AE9" s="213"/>
-      <c r="AF9" s="213"/>
-      <c r="AG9" s="213"/>
-      <c r="AH9" s="213"/>
-      <c r="AI9" s="213"/>
-      <c r="AJ9" s="213"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="189"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="171"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="171"/>
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.35">
-      <c r="AC10" s="213"/>
-      <c r="AD10" s="213"/>
-      <c r="AE10" s="213"/>
-      <c r="AF10" s="213"/>
-      <c r="AG10" s="213"/>
-      <c r="AH10" s="213"/>
-      <c r="AI10" s="213"/>
-      <c r="AJ10" s="213"/>
-      <c r="BQ10" s="213"/>
-      <c r="BR10" s="213"/>
-      <c r="BS10" s="213"/>
-      <c r="BT10" s="213"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="171"/>
+      <c r="AJ10" s="171"/>
+      <c r="BQ10" s="171"/>
+      <c r="BR10" s="171"/>
+      <c r="BS10" s="171"/>
+      <c r="BT10" s="171"/>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.35">
-      <c r="AF12" s="213"/>
-      <c r="AJ12" s="213"/>
+      <c r="AF12" s="171"/>
+      <c r="AJ12" s="171"/>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.35">
-      <c r="AF13" s="213"/>
-      <c r="AJ13" s="213"/>
-    </row>
-    <row r="17" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="201" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="AF13" s="171"/>
+      <c r="AJ13" s="171"/>
+    </row>
+    <row r="17" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" s="164" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
@@ -6989,11 +6998,6 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
   </mergeCells>
   <hyperlinks>
@@ -7030,13 +7034,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -7071,64 +7075,64 @@
       <c r="AK2" s="27"/>
     </row>
     <row r="3" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="169"/>
-      <c r="B3" s="168">
+      <c r="A3" s="201"/>
+      <c r="B3" s="199">
         <v>2003</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168">
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199">
         <v>2004</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168">
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199">
         <v>2005</v>
       </c>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168">
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199">
         <v>2006</v>
       </c>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168">
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199">
         <v>2007</v>
       </c>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168">
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199">
         <v>2008</v>
       </c>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168">
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199">
         <v>2009</v>
       </c>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="161">
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="180">
         <v>2010</v>
       </c>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="161">
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180">
         <v>2011</v>
       </c>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="161"/>
-      <c r="AK3" s="161"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
     </row>
     <row r="4" spans="1:37" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="169"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
@@ -8332,26 +8336,26 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="157"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
@@ -8399,6 +8403,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
@@ -8406,11 +8415,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
@@ -8462,13 +8466,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -8507,94 +8511,94 @@
       <c r="AO2" s="27"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="170"/>
-      <c r="B3" s="168">
+      <c r="A3" s="204"/>
+      <c r="B3" s="199">
         <v>2011</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="171">
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="202">
         <v>2012</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="168">
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="199">
         <v>2013</v>
       </c>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="171">
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="202">
         <v>2014</v>
       </c>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168">
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199">
         <v>2015</v>
       </c>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168">
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199">
         <v>2016</v>
       </c>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168">
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199">
         <v>2017</v>
       </c>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168">
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="199">
         <v>2018</v>
       </c>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168">
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="199"/>
+      <c r="AG3" s="199"/>
+      <c r="AH3" s="199">
         <v>2019</v>
       </c>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="168">
+      <c r="AI3" s="199"/>
+      <c r="AJ3" s="199"/>
+      <c r="AK3" s="199"/>
+      <c r="AL3" s="199">
         <v>2020</v>
       </c>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168">
+      <c r="AM3" s="199"/>
+      <c r="AN3" s="199"/>
+      <c r="AO3" s="199"/>
+      <c r="AP3" s="199">
         <v>2021</v>
       </c>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="161" t="s">
+      <c r="AQ3" s="199"/>
+      <c r="AR3" s="199"/>
+      <c r="AS3" s="199"/>
+      <c r="AT3" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="AU3" s="161"/>
-      <c r="AV3" s="161"/>
-      <c r="AW3" s="161"/>
-      <c r="AX3" s="161" t="s">
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="180"/>
+      <c r="AX3" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="AY3" s="161"/>
-      <c r="AZ3" s="161"/>
-      <c r="BA3" s="161"/>
-      <c r="BB3" s="161" t="s">
+      <c r="AY3" s="180"/>
+      <c r="AZ3" s="180"/>
+      <c r="BA3" s="180"/>
+      <c r="BB3" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="BC3" s="161"/>
-      <c r="BD3" s="161"/>
-      <c r="BE3" s="161"/>
+      <c r="BC3" s="180"/>
+      <c r="BD3" s="180"/>
+      <c r="BE3" s="180"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="170"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
@@ -10364,29 +10368,29 @@
       <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:57" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
@@ -10454,21 +10458,21 @@
       <c r="AO17" s="27"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="I19" s="12"/>
@@ -11877,6 +11881,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="BB3:BE3"/>
@@ -11890,11 +11899,6 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -15411,37 +15415,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="158" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="116"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="118"/>
@@ -16121,24 +16125,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="208"/>
       <c r="C1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="125"/>
@@ -16681,30 +16685,30 @@
       <c r="E20" s="136"/>
     </row>
     <row r="21" spans="1:10" s="91" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="210" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
     </row>
     <row r="22" spans="1:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="178" t="s">
+      <c r="A22" s="210" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16750,20 +16754,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
       <c r="I2" s="138"/>
     </row>
     <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
@@ -17164,45 +17168,45 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="91" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="213" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:7" s="91" customFormat="1" ht="53.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="213" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
       <c r="G23" s="142"/>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17248,25 +17252,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="216"/>
       <c r="C1" s="123"/>
       <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="209" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="125"/>
@@ -18022,53 +18026,53 @@
       <c r="N20" s="149"/>
     </row>
     <row r="21" spans="1:17" s="91" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="217" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="186"/>
-      <c r="K21" s="186"/>
-      <c r="L21" s="186"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
       <c r="O21" s="142"/>
     </row>
     <row r="22" spans="1:17" s="91" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="219" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="186"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
       <c r="O22" s="142"/>
     </row>
     <row r="23" spans="1:17" s="149" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="220"/>
+      <c r="K23" s="220"/>
       <c r="L23" s="151"/>
       <c r="M23" s="152"/>
       <c r="N23" s="152"/>
@@ -18078,14 +18082,14 @@
     </row>
     <row r="24" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
+      <c r="A25" s="214"/>
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26633,88 +26637,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="155"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155" t="s">
+      <c r="A1" s="173"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="E1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="155" t="s">
+      <c r="I1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="155" t="s">
+      <c r="J1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="155" t="s">
+      <c r="L1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="155" t="s">
+      <c r="M1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="155" t="s">
+      <c r="N1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="155" t="s">
+      <c r="O1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="155" t="s">
+      <c r="P1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="155" t="s">
+      <c r="Q1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="155" t="s">
+      <c r="R1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="155" t="s">
+      <c r="S1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="155" t="s">
+      <c r="T1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="155" t="s">
+      <c r="U1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="155" t="s">
+      <c r="V1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="155" t="s">
+      <c r="W1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="155" t="s">
+      <c r="X1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="155" t="s">
+      <c r="Y1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="155" t="s">
+      <c r="Z1" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="155" t="s">
+      <c r="AA1" s="173" t="s">
         <v>89</v>
       </c>
       <c r="AB1" s="93"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
       <c r="C2" s="95" t="s">
         <v>88</v>
       </c>
@@ -27021,13 +27025,13 @@
       </c>
     </row>
     <row r="2" spans="1:81" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -27040,112 +27044,112 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160"/>
-      <c r="B3" s="158">
+      <c r="A3" s="178"/>
+      <c r="B3" s="174">
         <v>1995</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="158">
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="174">
         <v>1996</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="158">
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="174">
         <v>1997</v>
       </c>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="158">
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="174">
         <v>1998</v>
       </c>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="158">
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="174">
         <v>1999</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="158">
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="174">
         <v>2000</v>
       </c>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="158">
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="174">
         <v>2001</v>
       </c>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="158">
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="174">
         <v>2002</v>
       </c>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="158">
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="174">
         <v>2003</v>
       </c>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="158">
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="175"/>
+      <c r="AL3" s="174">
         <v>2004</v>
       </c>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="159"/>
-      <c r="AP3" s="158">
+      <c r="AM3" s="175"/>
+      <c r="AN3" s="175"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="174">
         <v>2005</v>
       </c>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="159"/>
-      <c r="AS3" s="159"/>
-      <c r="AT3" s="158">
+      <c r="AQ3" s="175"/>
+      <c r="AR3" s="175"/>
+      <c r="AS3" s="175"/>
+      <c r="AT3" s="174">
         <v>2006</v>
       </c>
-      <c r="AU3" s="159"/>
-      <c r="AV3" s="159"/>
-      <c r="AW3" s="159"/>
-      <c r="AX3" s="158">
+      <c r="AU3" s="175"/>
+      <c r="AV3" s="175"/>
+      <c r="AW3" s="175"/>
+      <c r="AX3" s="174">
         <v>2007</v>
       </c>
-      <c r="AY3" s="159"/>
-      <c r="AZ3" s="159"/>
-      <c r="BA3" s="159"/>
-      <c r="BB3" s="158">
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="175"/>
+      <c r="BB3" s="174">
         <v>2008</v>
       </c>
-      <c r="BC3" s="159"/>
-      <c r="BD3" s="159"/>
-      <c r="BE3" s="159"/>
-      <c r="BF3" s="158">
+      <c r="BC3" s="175"/>
+      <c r="BD3" s="175"/>
+      <c r="BE3" s="175"/>
+      <c r="BF3" s="174">
         <v>2009</v>
       </c>
-      <c r="BG3" s="158"/>
-      <c r="BH3" s="158"/>
-      <c r="BI3" s="158"/>
-      <c r="BJ3" s="158">
+      <c r="BG3" s="174"/>
+      <c r="BH3" s="174"/>
+      <c r="BI3" s="174"/>
+      <c r="BJ3" s="174">
         <v>2010</v>
       </c>
-      <c r="BK3" s="158"/>
-      <c r="BL3" s="158"/>
-      <c r="BM3" s="158"/>
-      <c r="BN3" s="158">
+      <c r="BK3" s="174"/>
+      <c r="BL3" s="174"/>
+      <c r="BM3" s="174"/>
+      <c r="BN3" s="174">
         <v>2011</v>
       </c>
-      <c r="BO3" s="158"/>
-      <c r="BP3" s="158"/>
-      <c r="BQ3" s="158"/>
+      <c r="BO3" s="174"/>
+      <c r="BP3" s="174"/>
+      <c r="BQ3" s="174"/>
     </row>
     <row r="4" spans="1:81" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="160"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -30089,26 +30093,26 @@
       <c r="BQ19" s="9"/>
     </row>
     <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="157"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -30155,18 +30159,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:R20"/>
     <mergeCell ref="B3:E3"/>
@@ -30175,6 +30167,18 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -30222,13 +30226,13 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
@@ -30243,94 +30247,94 @@
       <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="166"/>
-      <c r="B3" s="161">
+      <c r="A3" s="181"/>
+      <c r="B3" s="180">
         <v>2011</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180">
         <v>2012</v>
       </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161">
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180">
         <v>2013</v>
       </c>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161">
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180">
         <v>2014</v>
       </c>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161">
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180">
         <v>2015</v>
       </c>
-      <c r="S3" s="161"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161">
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180">
         <v>2016</v>
       </c>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161">
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180">
         <v>2017</v>
       </c>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="161">
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180">
         <v>2018</v>
       </c>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="161">
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180">
         <v>2019</v>
       </c>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="161"/>
-      <c r="AK3" s="161"/>
-      <c r="AL3" s="161">
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="180">
         <v>2020</v>
       </c>
-      <c r="AM3" s="161"/>
-      <c r="AN3" s="161"/>
-      <c r="AO3" s="161"/>
-      <c r="AP3" s="161" t="s">
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="180"/>
+      <c r="AP3" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="161"/>
-      <c r="AR3" s="161"/>
-      <c r="AS3" s="161"/>
-      <c r="AT3" s="161" t="s">
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="180"/>
+      <c r="AS3" s="180"/>
+      <c r="AT3" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="161"/>
-      <c r="AV3" s="161"/>
-      <c r="AW3" s="161"/>
-      <c r="AX3" s="161" t="s">
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="180"/>
+      <c r="AX3" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="AY3" s="161"/>
-      <c r="AZ3" s="161"/>
-      <c r="BA3" s="161"/>
-      <c r="BB3" s="161" t="s">
+      <c r="AY3" s="180"/>
+      <c r="AZ3" s="180"/>
+      <c r="BA3" s="180"/>
+      <c r="BB3" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="161"/>
-      <c r="BD3" s="161"/>
-      <c r="BE3" s="161"/>
+      <c r="BC3" s="180"/>
+      <c r="BD3" s="180"/>
+      <c r="BE3" s="180"/>
     </row>
     <row r="4" spans="1:57" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="166"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
@@ -32658,21 +32662,21 @@
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
@@ -32742,6 +32746,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -32751,14 +32763,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -32782,795 +32786,807 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="190" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.81640625" style="190" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.7265625" style="190" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.54296875" style="190" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.453125" style="190" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.1796875" style="190"/>
+    <col min="1" max="1" width="11.7265625" style="155" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.81640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.7265625" style="155" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.54296875" style="155" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.453125" style="155" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.1796875" style="155"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
     </row>
     <row r="2" spans="1:68" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="187" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="192"/>
-      <c r="Q2" s="192"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="192"/>
-      <c r="AB2" s="192"/>
-      <c r="AC2" s="192"/>
-      <c r="AD2" s="192"/>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="192"/>
-      <c r="AG2" s="192"/>
-      <c r="AH2" s="192"/>
-      <c r="AI2" s="192"/>
-      <c r="AJ2" s="192"/>
-      <c r="AK2" s="192"/>
-      <c r="AL2" s="192"/>
-      <c r="AM2" s="192"/>
-      <c r="AN2" s="192"/>
-      <c r="AO2" s="192"/>
-      <c r="AP2" s="192"/>
-      <c r="AQ2" s="192"/>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="192"/>
-      <c r="AT2" s="192"/>
-      <c r="AU2" s="192"/>
-      <c r="AV2" s="192"/>
-      <c r="AW2" s="192"/>
-      <c r="AX2" s="192"/>
-      <c r="AY2" s="192"/>
-      <c r="AZ2" s="192"/>
-      <c r="BA2" s="192"/>
-      <c r="BB2" s="192"/>
-      <c r="BC2" s="192"/>
-      <c r="BD2" s="192"/>
-      <c r="BE2" s="192"/>
-      <c r="BF2" s="192"/>
-      <c r="BG2" s="192"/>
-      <c r="BH2" s="192"/>
-      <c r="BI2" s="192"/>
-      <c r="BJ2" s="192"/>
-      <c r="BK2" s="192"/>
-      <c r="BL2" s="192"/>
-      <c r="BM2" s="192"/>
-      <c r="BN2" s="192"/>
-      <c r="BO2" s="192"/>
-      <c r="BP2" s="192"/>
-    </row>
-    <row r="3" spans="1:68" s="194" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="193">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="156"/>
+      <c r="AK2" s="156"/>
+      <c r="AL2" s="156"/>
+      <c r="AM2" s="156"/>
+      <c r="AN2" s="156"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="156"/>
+      <c r="AQ2" s="156"/>
+      <c r="AR2" s="156"/>
+      <c r="AS2" s="156"/>
+      <c r="AT2" s="156"/>
+      <c r="AU2" s="156"/>
+      <c r="AV2" s="156"/>
+      <c r="AW2" s="156"/>
+      <c r="AX2" s="156"/>
+      <c r="AY2" s="156"/>
+      <c r="AZ2" s="156"/>
+      <c r="BA2" s="156"/>
+      <c r="BB2" s="156"/>
+      <c r="BC2" s="156"/>
+      <c r="BD2" s="156"/>
+      <c r="BE2" s="156"/>
+      <c r="BF2" s="156"/>
+      <c r="BG2" s="156"/>
+      <c r="BH2" s="156"/>
+      <c r="BI2" s="156"/>
+      <c r="BJ2" s="156"/>
+      <c r="BK2" s="156"/>
+      <c r="BL2" s="156"/>
+      <c r="BM2" s="156"/>
+      <c r="BN2" s="156"/>
+      <c r="BO2" s="156"/>
+      <c r="BP2" s="156"/>
+    </row>
+    <row r="3" spans="1:68" s="157" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="185">
         <v>1995</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185">
         <v>1996</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193">
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185">
         <v>1997</v>
       </c>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193">
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185">
         <v>1998</v>
       </c>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193">
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185">
         <v>1999</v>
       </c>
-      <c r="R3" s="193"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193">
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185">
         <v>2000</v>
       </c>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193">
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185">
         <v>2001</v>
       </c>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193">
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="185">
         <v>2002</v>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="193">
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="185"/>
+      <c r="AF3" s="185"/>
+      <c r="AG3" s="185">
         <v>2003</v>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="193"/>
-      <c r="AJ3" s="193"/>
-      <c r="AK3" s="193">
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="185"/>
+      <c r="AJ3" s="185"/>
+      <c r="AK3" s="185">
         <v>2004</v>
       </c>
-      <c r="AL3" s="193"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193">
+      <c r="AL3" s="185"/>
+      <c r="AM3" s="185"/>
+      <c r="AN3" s="185"/>
+      <c r="AO3" s="185">
         <v>2005</v>
       </c>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="193">
+      <c r="AP3" s="185"/>
+      <c r="AQ3" s="185"/>
+      <c r="AR3" s="185"/>
+      <c r="AS3" s="185">
         <v>2006</v>
       </c>
-      <c r="AT3" s="193"/>
-      <c r="AU3" s="193"/>
-      <c r="AV3" s="193"/>
-      <c r="AW3" s="193">
+      <c r="AT3" s="185"/>
+      <c r="AU3" s="185"/>
+      <c r="AV3" s="185"/>
+      <c r="AW3" s="185">
         <v>2007</v>
       </c>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="193"/>
-      <c r="BA3" s="193">
+      <c r="AX3" s="185"/>
+      <c r="AY3" s="185"/>
+      <c r="AZ3" s="185"/>
+      <c r="BA3" s="185">
         <v>2008</v>
       </c>
-      <c r="BB3" s="193"/>
-      <c r="BC3" s="193"/>
-      <c r="BD3" s="193"/>
-      <c r="BE3" s="193">
+      <c r="BB3" s="185"/>
+      <c r="BC3" s="185"/>
+      <c r="BD3" s="185"/>
+      <c r="BE3" s="185">
         <v>2009</v>
       </c>
-      <c r="BF3" s="193"/>
-      <c r="BG3" s="193"/>
-      <c r="BH3" s="193"/>
-      <c r="BI3" s="193">
+      <c r="BF3" s="185"/>
+      <c r="BG3" s="185"/>
+      <c r="BH3" s="185"/>
+      <c r="BI3" s="185">
         <v>2010</v>
       </c>
-      <c r="BJ3" s="193"/>
-      <c r="BK3" s="193"/>
-      <c r="BL3" s="193"/>
-      <c r="BM3" s="193">
+      <c r="BJ3" s="185"/>
+      <c r="BK3" s="185"/>
+      <c r="BL3" s="185"/>
+      <c r="BM3" s="185">
         <v>2011</v>
       </c>
-      <c r="BN3" s="193"/>
-      <c r="BO3" s="193"/>
-      <c r="BP3" s="193"/>
-    </row>
-    <row r="4" spans="1:68" s="196" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="195" t="s">
+      <c r="BN3" s="185"/>
+      <c r="BO3" s="185"/>
+      <c r="BP3" s="185"/>
+    </row>
+    <row r="4" spans="1:68" s="159" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="195" t="s">
+      <c r="C4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="195" t="s">
+      <c r="D4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="195" t="s">
+      <c r="F4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="195" t="s">
+      <c r="G4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="H4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="195" t="s">
+      <c r="I4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="195" t="s">
+      <c r="J4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="195" t="s">
+      <c r="K4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="195" t="s">
+      <c r="L4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="195" t="s">
+      <c r="M4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="195" t="s">
+      <c r="N4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="195" t="s">
+      <c r="O4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="195" t="s">
+      <c r="P4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="195" t="s">
+      <c r="Q4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="195" t="s">
+      <c r="R4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="195" t="s">
+      <c r="S4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="195" t="s">
+      <c r="T4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="195" t="s">
+      <c r="U4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="195" t="s">
+      <c r="V4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="195" t="s">
+      <c r="W4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="195" t="s">
+      <c r="X4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="195" t="s">
+      <c r="Y4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="195" t="s">
+      <c r="Z4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="195" t="s">
+      <c r="AA4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="195" t="s">
+      <c r="AB4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="195" t="s">
+      <c r="AC4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="195" t="s">
+      <c r="AD4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="195" t="s">
+      <c r="AE4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="195" t="s">
+      <c r="AF4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="195" t="s">
+      <c r="AG4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="195" t="s">
+      <c r="AH4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="195" t="s">
+      <c r="AI4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" s="195" t="s">
+      <c r="AJ4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AK4" s="195" t="s">
+      <c r="AK4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="195" t="s">
+      <c r="AL4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AM4" s="195" t="s">
+      <c r="AM4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="195" t="s">
+      <c r="AN4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AO4" s="195" t="s">
+      <c r="AO4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="195" t="s">
+      <c r="AP4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AQ4" s="195" t="s">
+      <c r="AQ4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AR4" s="195" t="s">
+      <c r="AR4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AS4" s="195" t="s">
+      <c r="AS4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="195" t="s">
+      <c r="AT4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" s="195" t="s">
+      <c r="AU4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="195" t="s">
+      <c r="AV4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="195" t="s">
+      <c r="AW4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="195" t="s">
+      <c r="AX4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" s="195" t="s">
+      <c r="AY4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="195" t="s">
+      <c r="AZ4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BA4" s="195" t="s">
+      <c r="BA4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="BB4" s="195" t="s">
+      <c r="BB4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="BC4" s="195" t="s">
+      <c r="BC4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="BD4" s="195" t="s">
+      <c r="BD4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BE4" s="195" t="s">
+      <c r="BE4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="BF4" s="195" t="s">
+      <c r="BF4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="BG4" s="195" t="s">
+      <c r="BG4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="BH4" s="195" t="s">
+      <c r="BH4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BI4" s="195" t="s">
+      <c r="BI4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="BJ4" s="195" t="s">
+      <c r="BJ4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="BK4" s="195" t="s">
+      <c r="BK4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="BL4" s="195" t="s">
+      <c r="BL4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="BM4" s="195" t="s">
+      <c r="BM4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="BN4" s="195" t="s">
+      <c r="BN4" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="BO4" s="195" t="s">
+      <c r="BO4" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="BP4" s="195" t="s">
+      <c r="BP4" s="158" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="199" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="197">
+    <row r="5" spans="1:68" s="162" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="160">
         <v>5354.9503670426593</v>
       </c>
-      <c r="B5" s="197">
+      <c r="B5" s="160">
         <v>5523.098923442446</v>
       </c>
-      <c r="C5" s="197">
+      <c r="C5" s="160">
         <v>6030.0134224733674</v>
       </c>
-      <c r="D5" s="197">
+      <c r="D5" s="160">
         <v>6000.2032023407883</v>
       </c>
-      <c r="E5" s="197">
+      <c r="E5" s="160">
         <v>5235.105496927059</v>
       </c>
-      <c r="F5" s="197">
+      <c r="F5" s="160">
         <v>5333.8492733857629</v>
       </c>
-      <c r="G5" s="197">
+      <c r="G5" s="160">
         <v>5698.1384697992962</v>
       </c>
-      <c r="H5" s="197">
+      <c r="H5" s="160">
         <v>5814.6958892584007</v>
       </c>
-      <c r="I5" s="197">
+      <c r="I5" s="160">
         <v>5212.0248392194599</v>
       </c>
-      <c r="J5" s="197">
+      <c r="J5" s="160">
         <v>5289.673479670274</v>
       </c>
-      <c r="K5" s="197">
+      <c r="K5" s="160">
         <v>5860.1341838641065</v>
       </c>
-      <c r="L5" s="197">
+      <c r="L5" s="160">
         <v>6024.9382166461619</v>
       </c>
-      <c r="M5" s="197">
+      <c r="M5" s="160">
         <v>5134.7133374345203</v>
       </c>
-      <c r="N5" s="197">
+      <c r="N5" s="160">
         <v>5237.5733050562685</v>
       </c>
-      <c r="O5" s="197">
+      <c r="O5" s="160">
         <v>5343.027277155461</v>
       </c>
-      <c r="P5" s="197">
+      <c r="P5" s="160">
         <v>5474.9143241421316</v>
       </c>
-      <c r="Q5" s="197">
+      <c r="Q5" s="160">
         <v>5041.7218778712167</v>
       </c>
-      <c r="R5" s="197">
+      <c r="R5" s="160">
         <v>5402.5724494611313</v>
       </c>
-      <c r="S5" s="197">
+      <c r="S5" s="160">
         <v>5955.4600322926635</v>
       </c>
-      <c r="T5" s="197">
+      <c r="T5" s="160">
         <v>6136.2864697894438</v>
       </c>
-      <c r="U5" s="197">
+      <c r="U5" s="160">
         <v>5617.5818539226366</v>
       </c>
-      <c r="V5" s="197">
+      <c r="V5" s="160">
         <v>5955.3712923099301</v>
       </c>
-      <c r="W5" s="197">
+      <c r="W5" s="160">
         <v>6583.6055042030666</v>
       </c>
-      <c r="X5" s="197">
+      <c r="X5" s="160">
         <v>6643.375591254262</v>
       </c>
-      <c r="Y5" s="197">
+      <c r="Y5" s="160">
         <v>5880.8136080995209</v>
       </c>
-      <c r="Z5" s="197">
+      <c r="Z5" s="160">
         <v>6256.135203909098</v>
       </c>
-      <c r="AA5" s="197">
+      <c r="AA5" s="160">
         <v>6980.5474169896042</v>
       </c>
-      <c r="AB5" s="197">
+      <c r="AB5" s="160">
         <v>6945.032221911958</v>
       </c>
-      <c r="AC5" s="197">
+      <c r="AC5" s="160">
         <v>6104.1825189498986</v>
       </c>
-      <c r="AD5" s="197">
+      <c r="AD5" s="160">
         <v>6531.7729233114778</v>
       </c>
-      <c r="AE5" s="197">
+      <c r="AE5" s="160">
         <v>7289.7424782545759</v>
       </c>
-      <c r="AF5" s="197">
+      <c r="AF5" s="160">
         <v>7373.18014113561</v>
       </c>
-      <c r="AG5" s="197">
+      <c r="AG5" s="160">
         <v>6567.3624878067303</v>
       </c>
-      <c r="AH5" s="197">
+      <c r="AH5" s="160">
         <v>7052.2818355732279</v>
       </c>
-      <c r="AI5" s="197">
+      <c r="AI5" s="160">
         <v>7742.6956491874416</v>
       </c>
-      <c r="AJ5" s="197">
+      <c r="AJ5" s="160">
         <v>7942.5897343948027</v>
       </c>
-      <c r="AK5" s="197">
+      <c r="AK5" s="160">
         <v>7042.9143712430487</v>
       </c>
-      <c r="AL5" s="197">
+      <c r="AL5" s="160">
         <v>7618.5503945037517</v>
       </c>
-      <c r="AM5" s="197">
+      <c r="AM5" s="160">
         <v>8309.7849045319381</v>
       </c>
-      <c r="AN5" s="197">
+      <c r="AN5" s="160">
         <v>8436.5869034097614</v>
       </c>
-      <c r="AO5" s="198">
+      <c r="AO5" s="161">
         <v>7435.6321123156813</v>
       </c>
-      <c r="AP5" s="198">
+      <c r="AP5" s="161">
         <v>8076.7275258256705</v>
       </c>
-      <c r="AQ5" s="198">
+      <c r="AQ5" s="161">
         <v>8805.1125919062306</v>
       </c>
-      <c r="AR5" s="198">
+      <c r="AR5" s="161">
         <v>9092.9867447186043</v>
       </c>
-      <c r="AS5" s="198">
+      <c r="AS5" s="161">
         <v>7978.2535630730572</v>
       </c>
-      <c r="AT5" s="198">
+      <c r="AT5" s="161">
         <v>8729.4674338245131</v>
       </c>
-      <c r="AU5" s="198">
+      <c r="AU5" s="161">
         <v>9526.331134701084</v>
       </c>
-      <c r="AV5" s="198">
+      <c r="AV5" s="161">
         <v>9900.5058875128798</v>
       </c>
-      <c r="AW5" s="198">
+      <c r="AW5" s="161">
         <v>8622.0882524558747</v>
       </c>
-      <c r="AX5" s="198">
+      <c r="AX5" s="161">
         <v>9481.7873938464381</v>
       </c>
-      <c r="AY5" s="198">
+      <c r="AY5" s="161">
         <v>10304.874786601602</v>
       </c>
-      <c r="AZ5" s="198">
+      <c r="AZ5" s="161">
         <v>10809.921096334418</v>
       </c>
-      <c r="BA5" s="198">
+      <c r="BA5" s="161">
         <v>9413.2327802753989</v>
       </c>
-      <c r="BB5" s="198">
+      <c r="BB5" s="161">
         <v>10230.976031339562</v>
       </c>
-      <c r="BC5" s="198">
+      <c r="BC5" s="161">
         <v>10965.628624133751</v>
       </c>
-      <c r="BD5" s="198">
+      <c r="BD5" s="161">
         <v>10667.011751193821</v>
       </c>
-      <c r="BE5" s="198">
+      <c r="BE5" s="161">
         <v>8547.0499469516144</v>
       </c>
-      <c r="BF5" s="198">
+      <c r="BF5" s="161">
         <v>9090.0907593426164</v>
       </c>
-      <c r="BG5" s="198">
+      <c r="BG5" s="161">
         <v>10020.534892038424</v>
       </c>
-      <c r="BH5" s="198">
+      <c r="BH5" s="161">
         <v>10390.958671273713</v>
       </c>
-      <c r="BI5" s="198">
+      <c r="BI5" s="161">
         <v>8894.8535246266911</v>
       </c>
-      <c r="BJ5" s="198">
+      <c r="BJ5" s="161">
         <v>9544.6148652066458</v>
       </c>
-      <c r="BK5" s="198">
+      <c r="BK5" s="161">
         <v>10403.947084886548</v>
       </c>
-      <c r="BL5" s="198">
+      <c r="BL5" s="161">
         <v>10918.824886470722</v>
       </c>
-      <c r="BM5" s="198">
+      <c r="BM5" s="161">
         <v>9186.07695296969</v>
       </c>
-      <c r="BN5" s="198">
+      <c r="BN5" s="161">
         <v>9858.9845532351246</v>
       </c>
-      <c r="BO5" s="198">
+      <c r="BO5" s="161">
         <v>10930.475890855458</v>
       </c>
-      <c r="BP5" s="198">
+      <c r="BP5" s="161">
         <v>11482.23509932926</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:68" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="BB7" s="199"/>
+      <c r="D7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="BB7" s="162"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="D8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="P8" s="199"/>
-      <c r="T8" s="199"/>
-      <c r="X8" s="199"/>
-      <c r="AB8" s="199"/>
-      <c r="AF8" s="199"/>
-      <c r="AJ8" s="199"/>
-      <c r="AN8" s="199"/>
-      <c r="AR8" s="199"/>
-      <c r="AV8" s="199"/>
-      <c r="AZ8" s="199"/>
-      <c r="BD8" s="199"/>
+      <c r="D8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AF8" s="162"/>
+      <c r="AJ8" s="162"/>
+      <c r="AN8" s="162"/>
+      <c r="AR8" s="162"/>
+      <c r="AV8" s="162"/>
+      <c r="AZ8" s="162"/>
+      <c r="BD8" s="162"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A10" s="200"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A11" s="199"/>
-      <c r="B11" s="199"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A12" s="199"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A13" s="199"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A14" s="199"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A15" s="199"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A16" s="199"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="199"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="199"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="199"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="199"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="199"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="199"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="199"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="199"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="162"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="199"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="BM3:BP3"/>
     <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="AS3:AV3"/>
@@ -33578,18 +33594,6 @@
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="BE3:BH3"/>
     <mergeCell ref="BI3:BL3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:C1" location="Содержание!A1" display="К содержанию" xr:uid="{FFC89765-D6AC-4374-9E77-81811186A862}"/>
